--- a/문서/WBS.xlsx
+++ b/문서/WBS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuan/Documents/University/3학년/2학기/설계/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuan/Documents/University/3학년/2학기/설계/project/문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5E6DCD-9B0C-1042-8DF3-083D99A676E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68644370-A9E3-CD49-B002-DC2AA430CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="894" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32040" yWindow="-5420" windowWidth="32040" windowHeight="28300" tabRatio="894" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="연속사업 한줄일정" sheetId="19" state="hidden" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="190">
   <si>
     <t>오늘날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -573,12 +573,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>요구사항 정의서 
-요구사항 추적표 
-ERD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>계획 수립서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,9 +597,6 @@
   </si>
   <si>
     <t>이정훈(PM)</t>
-  </si>
-  <si>
-    <t>미정</t>
   </si>
   <si>
     <t xml:space="preserve">문서 정의서 </t>
@@ -700,6 +691,87 @@
   </si>
   <si>
     <t xml:space="preserve">사용자 메뉴얼 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">요구사항 정의서 
+요구사항 추적표 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>김미래(CM)</t>
+  </si>
+  <si>
+    <t>김현지(QA)</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>권익현(CM)</t>
+  </si>
+  <si>
+    <t>이준용(QA)</t>
+  </si>
+  <si>
+    <t>유스케이스 명세서 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설계 착수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/인터페이스 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키텍쳐 설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 설계서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아키텍처 설계서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI/인터페이스 설계서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 걸계서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -804,7 +876,7 @@
     <numFmt numFmtId="266" formatCode="yyyy&quot;년&quot;\ m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="267" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="114">
+  <fonts count="115">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1558,8 +1630,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1725,6 +1803,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9966FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3839,7 +3923,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4314,6 +4398,12 @@
     <xf numFmtId="0" fontId="84" fillId="3" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4353,13 +4443,100 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="237" fontId="90" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="237" fontId="90" fillId="18" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="8" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="18" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="90" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="90" fillId="18" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="90" fillId="18" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="107" fillId="18" borderId="59" xfId="870" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="107" fillId="18" borderId="3" xfId="870" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="87" fillId="6" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="6" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="84" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="3" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4377,98 +4554,20 @@
     <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="266" fontId="109" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="266" fontId="109" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="267" fontId="114" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="87" fillId="6" borderId="39" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="6" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="6" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="237" fontId="90" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="267" fontId="114" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="237" fontId="90" fillId="18" borderId="67" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="8" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="8" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="8" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="8" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="8" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="59" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="18" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="90" fillId="18" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="90" fillId="18" borderId="70" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="90" fillId="18" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="107" fillId="18" borderId="59" xfId="870" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="107" fillId="18" borderId="3" xfId="870" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="871">
@@ -5133,8 +5232,8 @@
     <cellStyle name="Au¸R¼o" xfId="361" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
     <cellStyle name="Au¸R¼o0" xfId="362" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
     <cellStyle name="ÄÞ¸¶ [0]_¸ðÇü¸·" xfId="359" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="AÞ¸¶ [0]_±a¼uAe½A " xfId="787" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
     <cellStyle name="ÄÞ¸¶_¸ðÇü¸·" xfId="360" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
-    <cellStyle name="AÞ¸¶ [0]_±a¼uAe½A " xfId="787" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
     <cellStyle name="AÞ¸¶_±a¼uAe½A " xfId="788" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
     <cellStyle name="b?þ?b?þ?b?þ?b?þ?b?þ?b?þ?b?þ?b?þ?b?þ?b?þ?b灌þ?b?þ?&lt;?b?þ?b濬þ?b?þ?b?þ昰_x0018_?þ????_x0008_" xfId="363" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
     <cellStyle name="b?þ?b?þ?b?þ?b灌þ?b?þ?&lt;?b?þ?b濬þ?b?þ?b?þ昰_x0018_?þ????_x0008_" xfId="364" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
@@ -5346,7 +5445,336 @@
     <cellStyle name="þ_x001d_ð'&amp;Oy?Hy9_x0008_E_x000c_￠_x000d__x0007__x0001__x0001_" xfId="490" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
     <cellStyle name="μU¿¡ ¿A´A CIAIÆU¸μAⓒ" xfId="851" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9966FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF002060"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF9966FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFBFBFBF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFED854"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5541,34 +5969,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFBFBF"/>
       <color rgb="FF9966FF"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFED854"/>
@@ -5941,7 +6346,7 @@
       </c>
       <c r="M1" s="53">
         <f ca="1">TODAY()</f>
-        <v>44462</v>
+        <v>44472</v>
       </c>
       <c r="N1" s="52"/>
       <c r="O1" s="54"/>
@@ -5950,34 +6355,34 @@
       <c r="R1" s="23"/>
     </row>
     <row r="2" spans="2:18" ht="18" thickBot="1">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="162" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="162" t="s">
+      <c r="E2" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="165"/>
-      <c r="L2" s="165"/>
-      <c r="M2" s="165"/>
-      <c r="N2" s="165"/>
-      <c r="O2" s="166"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="168"/>
     </row>
     <row r="3" spans="2:18" ht="18" thickBot="1">
-      <c r="B3" s="160"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
       <c r="F3" s="1">
         <v>1</v>
       </c>
@@ -6010,7 +6415,7 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="16.5" customHeight="1">
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="169" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -6032,7 +6437,7 @@
       <c r="O4" s="34"/>
     </row>
     <row r="5" spans="2:18">
-      <c r="B5" s="168"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="8" t="s">
         <v>26</v>
       </c>
@@ -6052,7 +6457,7 @@
       <c r="O5" s="36"/>
     </row>
     <row r="6" spans="2:18">
-      <c r="B6" s="168"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
@@ -6072,7 +6477,7 @@
       <c r="O6" s="36"/>
     </row>
     <row r="7" spans="2:18">
-      <c r="B7" s="168"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
@@ -6092,7 +6497,7 @@
       <c r="O7" s="36"/>
     </row>
     <row r="8" spans="2:18">
-      <c r="B8" s="168"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
@@ -6112,7 +6517,7 @@
       <c r="O8" s="36"/>
     </row>
     <row r="9" spans="2:18">
-      <c r="B9" s="168"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
@@ -6132,7 +6537,7 @@
       <c r="O9" s="36"/>
     </row>
     <row r="10" spans="2:18">
-      <c r="B10" s="168"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="8" t="s">
         <v>31</v>
       </c>
@@ -6152,7 +6557,7 @@
       <c r="O10" s="36"/>
     </row>
     <row r="11" spans="2:18">
-      <c r="B11" s="168"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
@@ -6172,7 +6577,7 @@
       <c r="O11" s="36"/>
     </row>
     <row r="12" spans="2:18">
-      <c r="B12" s="168"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
@@ -6192,7 +6597,7 @@
       <c r="O12" s="36"/>
     </row>
     <row r="13" spans="2:18">
-      <c r="B13" s="168"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="8" t="s">
         <v>34</v>
       </c>
@@ -6212,7 +6617,7 @@
       <c r="O13" s="36"/>
     </row>
     <row r="14" spans="2:18">
-      <c r="B14" s="168"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="8" t="s">
         <v>35</v>
       </c>
@@ -6232,7 +6637,7 @@
       <c r="O14" s="36"/>
     </row>
     <row r="15" spans="2:18">
-      <c r="B15" s="168"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="8" t="s">
         <v>36</v>
       </c>
@@ -6252,7 +6657,7 @@
       <c r="O15" s="36"/>
     </row>
     <row r="16" spans="2:18">
-      <c r="B16" s="168"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
@@ -6272,7 +6677,7 @@
       <c r="O16" s="36"/>
     </row>
     <row r="17" spans="2:15" ht="18" thickBot="1">
-      <c r="B17" s="163"/>
+      <c r="B17" s="165"/>
       <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
@@ -6292,7 +6697,7 @@
       <c r="O17" s="51"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="169" t="s">
+      <c r="B18" s="171" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -6314,7 +6719,7 @@
       <c r="O18" s="41"/>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="168"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
@@ -6334,7 +6739,7 @@
       <c r="O19" s="36"/>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="168"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="8" t="s">
         <v>53</v>
       </c>
@@ -6354,7 +6759,7 @@
       <c r="O20" s="36"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="168"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6374,7 +6779,7 @@
       <c r="O21" s="36"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="168"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
@@ -6394,7 +6799,7 @@
       <c r="O22" s="36"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="168"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
@@ -6414,7 +6819,7 @@
       <c r="O23" s="36"/>
     </row>
     <row r="24" spans="2:15" ht="18" thickBot="1">
-      <c r="B24" s="163"/>
+      <c r="B24" s="165"/>
       <c r="C24" s="13" t="s">
         <v>17</v>
       </c>
@@ -6434,7 +6839,7 @@
       <c r="O24" s="39"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="171" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -6456,7 +6861,7 @@
       <c r="O25" s="36"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="168"/>
+      <c r="B26" s="170"/>
       <c r="C26" s="8" t="s">
         <v>63</v>
       </c>
@@ -6476,7 +6881,7 @@
       <c r="O26" s="36"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="168"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="8" t="s">
         <v>64</v>
       </c>
@@ -6496,7 +6901,7 @@
       <c r="O27" s="36"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="168"/>
+      <c r="B28" s="170"/>
       <c r="C28" s="57" t="s">
         <v>69</v>
       </c>
@@ -6516,7 +6921,7 @@
       <c r="O28" s="63"/>
     </row>
     <row r="29" spans="2:15" ht="18" thickBot="1">
-      <c r="B29" s="163"/>
+      <c r="B29" s="165"/>
       <c r="C29" s="13" t="s">
         <v>65</v>
       </c>
@@ -6536,7 +6941,7 @@
       <c r="O29" s="39"/>
     </row>
     <row r="30" spans="2:15" ht="16.5" customHeight="1">
-      <c r="B30" s="167" t="s">
+      <c r="B30" s="169" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -6558,7 +6963,7 @@
       <c r="O30" s="34"/>
     </row>
     <row r="31" spans="2:15" ht="18" thickBot="1">
-      <c r="B31" s="170"/>
+      <c r="B31" s="172"/>
       <c r="C31" s="8" t="s">
         <v>17</v>
       </c>
@@ -6578,7 +6983,7 @@
       <c r="O31" s="41"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="169" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -6600,7 +7005,7 @@
       <c r="O32" s="34"/>
     </row>
     <row r="33" spans="2:15">
-      <c r="B33" s="168"/>
+      <c r="B33" s="170"/>
       <c r="C33" s="8" t="s">
         <v>74</v>
       </c>
@@ -6620,7 +7025,7 @@
       </c>
     </row>
     <row r="34" spans="2:15">
-      <c r="B34" s="168"/>
+      <c r="B34" s="170"/>
       <c r="C34" s="8" t="s">
         <v>76</v>
       </c>
@@ -6640,7 +7045,7 @@
       </c>
     </row>
     <row r="35" spans="2:15" ht="18" thickBot="1">
-      <c r="B35" s="163"/>
+      <c r="B35" s="165"/>
       <c r="C35" s="13" t="s">
         <v>17</v>
       </c>
@@ -6673,12 +7078,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="R1">
-    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="미완료">
+    <cfRule type="containsText" dxfId="41" priority="2" operator="containsText" text="미완료">
       <formula>NOT(ISERROR(SEARCH("미완료",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="오늘">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="오늘">
       <formula>NOT(ISERROR(SEARCH("오늘",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6690,13 +7095,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:HU63"/>
+  <dimension ref="A1:HU69"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="10" topLeftCell="M48" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="12" ySplit="10" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H47" sqref="H47"/>
+      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="17"/>
@@ -6724,10 +7129,10 @@
       <c r="A1" s="100" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
+      <c r="B1" s="209"/>
+      <c r="C1" s="209"/>
+      <c r="D1" s="209"/>
+      <c r="E1" s="209"/>
       <c r="F1" s="71"/>
       <c r="G1" s="110" t="s">
         <v>102</v>
@@ -6735,363 +7140,367 @@
       <c r="H1" s="114"/>
       <c r="I1" s="142"/>
       <c r="J1" s="139" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K1" s="150"/>
       <c r="L1" s="73"/>
-      <c r="M1" s="175" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="176"/>
-      <c r="O1" s="176"/>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="176"/>
-      <c r="S1" s="176"/>
-      <c r="T1" s="176"/>
-      <c r="U1" s="176"/>
-      <c r="V1" s="176"/>
-      <c r="W1" s="176"/>
-      <c r="X1" s="176"/>
-      <c r="Y1" s="176"/>
-      <c r="Z1" s="176"/>
-      <c r="AA1" s="176"/>
-      <c r="AB1" s="176"/>
-      <c r="AC1" s="176"/>
-      <c r="AD1" s="176"/>
-      <c r="AE1" s="176"/>
-      <c r="AF1" s="176"/>
-      <c r="AG1" s="176"/>
-      <c r="AH1" s="176"/>
-      <c r="AI1" s="176"/>
-      <c r="AJ1" s="176"/>
-      <c r="AK1" s="176"/>
-      <c r="AL1" s="176"/>
-      <c r="AM1" s="176"/>
-      <c r="AN1" s="176"/>
-      <c r="AO1" s="176"/>
-      <c r="AP1" s="176"/>
-      <c r="AQ1" s="176"/>
-      <c r="AR1" s="176"/>
-      <c r="AS1" s="176"/>
-      <c r="AT1" s="176"/>
-      <c r="AU1" s="176"/>
-      <c r="AV1" s="176"/>
-      <c r="AW1" s="176"/>
-      <c r="AX1" s="176"/>
-      <c r="AY1" s="176"/>
-      <c r="AZ1" s="176"/>
-      <c r="BA1" s="176"/>
-      <c r="BB1" s="176"/>
-      <c r="BC1" s="176"/>
-      <c r="BD1" s="176"/>
-      <c r="BE1" s="176"/>
-      <c r="BF1" s="176"/>
-      <c r="BG1" s="176"/>
-      <c r="BH1" s="176"/>
-      <c r="BI1" s="176"/>
-      <c r="BJ1" s="176"/>
-      <c r="BK1" s="176"/>
-      <c r="BL1" s="176"/>
-      <c r="BM1" s="176"/>
+      <c r="M1" s="206" t="s">
+        <v>146</v>
+      </c>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="207"/>
+      <c r="T1" s="207"/>
+      <c r="U1" s="207"/>
+      <c r="V1" s="207"/>
+      <c r="W1" s="207"/>
+      <c r="X1" s="207"/>
+      <c r="Y1" s="207"/>
+      <c r="Z1" s="207"/>
+      <c r="AA1" s="207"/>
+      <c r="AB1" s="207"/>
+      <c r="AC1" s="207"/>
+      <c r="AD1" s="207"/>
+      <c r="AE1" s="207"/>
+      <c r="AF1" s="207"/>
+      <c r="AG1" s="207"/>
+      <c r="AH1" s="207"/>
+      <c r="AI1" s="207"/>
+      <c r="AJ1" s="207"/>
+      <c r="AK1" s="207"/>
+      <c r="AL1" s="207"/>
+      <c r="AM1" s="207"/>
+      <c r="AN1" s="207"/>
+      <c r="AO1" s="207"/>
+      <c r="AP1" s="207"/>
+      <c r="AQ1" s="207"/>
+      <c r="AR1" s="207"/>
+      <c r="AS1" s="207"/>
+      <c r="AT1" s="207"/>
+      <c r="AU1" s="207"/>
+      <c r="AV1" s="207"/>
+      <c r="AW1" s="207"/>
+      <c r="AX1" s="207"/>
+      <c r="AY1" s="207"/>
+      <c r="AZ1" s="207"/>
+      <c r="BA1" s="207"/>
+      <c r="BB1" s="207"/>
+      <c r="BC1" s="207"/>
+      <c r="BD1" s="207"/>
+      <c r="BE1" s="207"/>
+      <c r="BF1" s="207"/>
+      <c r="BG1" s="207"/>
+      <c r="BH1" s="207"/>
+      <c r="BI1" s="207"/>
+      <c r="BJ1" s="207"/>
+      <c r="BK1" s="207"/>
+      <c r="BL1" s="207"/>
+      <c r="BM1" s="207"/>
     </row>
     <row r="2" spans="1:229">
       <c r="A2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
-      <c r="E2" s="186"/>
+      <c r="B2" s="196"/>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="197"/>
       <c r="F2" s="97"/>
       <c r="G2" s="110" t="s">
         <v>95</v>
       </c>
       <c r="I2" s="143"/>
       <c r="J2" s="139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L2" s="86"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="176"/>
-      <c r="AA2" s="176"/>
-      <c r="AB2" s="176"/>
-      <c r="AC2" s="176"/>
-      <c r="AD2" s="176"/>
-      <c r="AE2" s="176"/>
-      <c r="AF2" s="176"/>
-      <c r="AG2" s="176"/>
-      <c r="AH2" s="176"/>
-      <c r="AI2" s="176"/>
-      <c r="AJ2" s="176"/>
-      <c r="AK2" s="176"/>
-      <c r="AL2" s="176"/>
-      <c r="AM2" s="176"/>
-      <c r="AN2" s="176"/>
-      <c r="AO2" s="176"/>
-      <c r="AP2" s="176"/>
-      <c r="AQ2" s="176"/>
-      <c r="AR2" s="176"/>
-      <c r="AS2" s="176"/>
-      <c r="AT2" s="176"/>
-      <c r="AU2" s="176"/>
-      <c r="AV2" s="176"/>
-      <c r="AW2" s="176"/>
-      <c r="AX2" s="176"/>
-      <c r="AY2" s="176"/>
-      <c r="AZ2" s="176"/>
-      <c r="BA2" s="176"/>
-      <c r="BB2" s="176"/>
-      <c r="BC2" s="176"/>
-      <c r="BD2" s="176"/>
-      <c r="BE2" s="176"/>
-      <c r="BF2" s="176"/>
-      <c r="BG2" s="176"/>
-      <c r="BH2" s="176"/>
-      <c r="BI2" s="176"/>
-      <c r="BJ2" s="176"/>
-      <c r="BK2" s="176"/>
-      <c r="BL2" s="176"/>
-      <c r="BM2" s="176"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="207"/>
+      <c r="AA2" s="207"/>
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="207"/>
+      <c r="AD2" s="207"/>
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="207"/>
+      <c r="AG2" s="207"/>
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="207"/>
+      <c r="AJ2" s="207"/>
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="207"/>
+      <c r="AM2" s="207"/>
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="207"/>
+      <c r="AP2" s="207"/>
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="207"/>
+      <c r="AS2" s="207"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="207"/>
+      <c r="AV2" s="207"/>
+      <c r="AW2" s="207"/>
+      <c r="AX2" s="207"/>
+      <c r="AY2" s="207"/>
+      <c r="AZ2" s="207"/>
+      <c r="BA2" s="207"/>
+      <c r="BB2" s="207"/>
+      <c r="BC2" s="207"/>
+      <c r="BD2" s="207"/>
+      <c r="BE2" s="207"/>
+      <c r="BF2" s="207"/>
+      <c r="BG2" s="207"/>
+      <c r="BH2" s="207"/>
+      <c r="BI2" s="207"/>
+      <c r="BJ2" s="207"/>
+      <c r="BK2" s="207"/>
+      <c r="BL2" s="207"/>
+      <c r="BM2" s="207"/>
     </row>
     <row r="3" spans="1:229">
       <c r="A3" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="197" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
       <c r="F3" s="95"/>
       <c r="G3" s="110" t="s">
         <v>96</v>
       </c>
       <c r="I3" s="144"/>
       <c r="J3" s="110" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K3" s="151"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
-      <c r="AG3" s="176"/>
-      <c r="AH3" s="176"/>
-      <c r="AI3" s="176"/>
-      <c r="AJ3" s="176"/>
-      <c r="AK3" s="176"/>
-      <c r="AL3" s="176"/>
-      <c r="AM3" s="176"/>
-      <c r="AN3" s="176"/>
-      <c r="AO3" s="176"/>
-      <c r="AP3" s="176"/>
-      <c r="AQ3" s="176"/>
-      <c r="AR3" s="176"/>
-      <c r="AS3" s="176"/>
-      <c r="AT3" s="176"/>
-      <c r="AU3" s="176"/>
-      <c r="AV3" s="176"/>
-      <c r="AW3" s="176"/>
-      <c r="AX3" s="176"/>
-      <c r="AY3" s="176"/>
-      <c r="AZ3" s="176"/>
-      <c r="BA3" s="176"/>
-      <c r="BB3" s="176"/>
-      <c r="BC3" s="176"/>
-      <c r="BD3" s="176"/>
-      <c r="BE3" s="176"/>
-      <c r="BF3" s="176"/>
-      <c r="BG3" s="176"/>
-      <c r="BH3" s="176"/>
-      <c r="BI3" s="176"/>
-      <c r="BJ3" s="176"/>
-      <c r="BK3" s="176"/>
-      <c r="BL3" s="176"/>
-      <c r="BM3" s="176"/>
+      <c r="M3" s="207"/>
+      <c r="N3" s="207"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="207"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="207"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
+      <c r="X3" s="207"/>
+      <c r="Y3" s="207"/>
+      <c r="Z3" s="207"/>
+      <c r="AA3" s="207"/>
+      <c r="AB3" s="207"/>
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="207"/>
+      <c r="AE3" s="207"/>
+      <c r="AF3" s="207"/>
+      <c r="AG3" s="207"/>
+      <c r="AH3" s="207"/>
+      <c r="AI3" s="207"/>
+      <c r="AJ3" s="207"/>
+      <c r="AK3" s="207"/>
+      <c r="AL3" s="207"/>
+      <c r="AM3" s="207"/>
+      <c r="AN3" s="207"/>
+      <c r="AO3" s="207"/>
+      <c r="AP3" s="207"/>
+      <c r="AQ3" s="207"/>
+      <c r="AR3" s="207"/>
+      <c r="AS3" s="207"/>
+      <c r="AT3" s="207"/>
+      <c r="AU3" s="207"/>
+      <c r="AV3" s="207"/>
+      <c r="AW3" s="207"/>
+      <c r="AX3" s="207"/>
+      <c r="AY3" s="207"/>
+      <c r="AZ3" s="207"/>
+      <c r="BA3" s="207"/>
+      <c r="BB3" s="207"/>
+      <c r="BC3" s="207"/>
+      <c r="BD3" s="207"/>
+      <c r="BE3" s="207"/>
+      <c r="BF3" s="207"/>
+      <c r="BG3" s="207"/>
+      <c r="BH3" s="207"/>
+      <c r="BI3" s="207"/>
+      <c r="BJ3" s="207"/>
+      <c r="BK3" s="207"/>
+      <c r="BL3" s="207"/>
+      <c r="BM3" s="207"/>
     </row>
     <row r="4" spans="1:229">
       <c r="A4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="188"/>
-      <c r="C4" s="189"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="189"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
       <c r="F4" s="96"/>
       <c r="G4" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="104"/>
+      <c r="I4" s="212"/>
+      <c r="J4" s="110" t="s">
+        <v>181</v>
+      </c>
       <c r="K4" s="151"/>
       <c r="L4" s="86"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="176"/>
-      <c r="O4" s="176"/>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="176"/>
-      <c r="AC4" s="176"/>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="176"/>
-      <c r="AH4" s="176"/>
-      <c r="AI4" s="176"/>
-      <c r="AJ4" s="176"/>
-      <c r="AK4" s="176"/>
-      <c r="AL4" s="176"/>
-      <c r="AM4" s="176"/>
-      <c r="AN4" s="176"/>
-      <c r="AO4" s="176"/>
-      <c r="AP4" s="176"/>
-      <c r="AQ4" s="176"/>
-      <c r="AR4" s="176"/>
-      <c r="AS4" s="176"/>
-      <c r="AT4" s="176"/>
-      <c r="AU4" s="176"/>
-      <c r="AV4" s="176"/>
-      <c r="AW4" s="176"/>
-      <c r="AX4" s="176"/>
-      <c r="AY4" s="176"/>
-      <c r="AZ4" s="176"/>
-      <c r="BA4" s="176"/>
-      <c r="BB4" s="176"/>
-      <c r="BC4" s="176"/>
-      <c r="BD4" s="176"/>
-      <c r="BE4" s="176"/>
-      <c r="BF4" s="176"/>
-      <c r="BG4" s="176"/>
-      <c r="BH4" s="176"/>
-      <c r="BI4" s="176"/>
-      <c r="BJ4" s="176"/>
-      <c r="BK4" s="176"/>
-      <c r="BL4" s="176"/>
-      <c r="BM4" s="176"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="207"/>
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="207"/>
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="207"/>
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="207"/>
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="207"/>
+      <c r="AH4" s="207"/>
+      <c r="AI4" s="207"/>
+      <c r="AJ4" s="207"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="207"/>
+      <c r="AM4" s="207"/>
+      <c r="AN4" s="207"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="207"/>
+      <c r="AQ4" s="207"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="207"/>
+      <c r="AT4" s="207"/>
+      <c r="AU4" s="207"/>
+      <c r="AV4" s="207"/>
+      <c r="AW4" s="207"/>
+      <c r="AX4" s="207"/>
+      <c r="AY4" s="207"/>
+      <c r="AZ4" s="207"/>
+      <c r="BA4" s="207"/>
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="207"/>
+      <c r="BE4" s="207"/>
+      <c r="BF4" s="207"/>
+      <c r="BG4" s="207"/>
+      <c r="BH4" s="207"/>
+      <c r="BI4" s="207"/>
+      <c r="BJ4" s="207"/>
+      <c r="BK4" s="207"/>
+      <c r="BL4" s="207"/>
+      <c r="BM4" s="207"/>
     </row>
     <row r="5" spans="1:229">
       <c r="A5" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="190">
+      <c r="B5" s="201">
         <v>0.1</v>
       </c>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
       <c r="F5" s="98"/>
       <c r="G5" s="110" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="104"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="110" t="s">
+        <v>183</v>
+      </c>
       <c r="K5" s="151"/>
       <c r="L5" s="114"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="176"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="176"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="176"/>
-      <c r="X5" s="176"/>
-      <c r="Y5" s="176"/>
-      <c r="Z5" s="176"/>
-      <c r="AA5" s="176"/>
-      <c r="AB5" s="176"/>
-      <c r="AC5" s="176"/>
-      <c r="AD5" s="176"/>
-      <c r="AE5" s="176"/>
-      <c r="AF5" s="176"/>
-      <c r="AG5" s="176"/>
-      <c r="AH5" s="176"/>
-      <c r="AI5" s="176"/>
-      <c r="AJ5" s="176"/>
-      <c r="AK5" s="176"/>
-      <c r="AL5" s="176"/>
-      <c r="AM5" s="176"/>
-      <c r="AN5" s="176"/>
-      <c r="AO5" s="176"/>
-      <c r="AP5" s="176"/>
-      <c r="AQ5" s="176"/>
-      <c r="AR5" s="176"/>
-      <c r="AS5" s="176"/>
-      <c r="AT5" s="176"/>
-      <c r="AU5" s="176"/>
-      <c r="AV5" s="176"/>
-      <c r="AW5" s="176"/>
-      <c r="AX5" s="176"/>
-      <c r="AY5" s="176"/>
-      <c r="AZ5" s="176"/>
-      <c r="BA5" s="176"/>
-      <c r="BB5" s="176"/>
-      <c r="BC5" s="176"/>
-      <c r="BD5" s="176"/>
-      <c r="BE5" s="176"/>
-      <c r="BF5" s="176"/>
-      <c r="BG5" s="176"/>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="176"/>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="176"/>
-      <c r="BL5" s="176"/>
-      <c r="BM5" s="176"/>
+      <c r="M5" s="207"/>
+      <c r="N5" s="207"/>
+      <c r="O5" s="207"/>
+      <c r="P5" s="207"/>
+      <c r="Q5" s="207"/>
+      <c r="R5" s="207"/>
+      <c r="S5" s="207"/>
+      <c r="T5" s="207"/>
+      <c r="U5" s="207"/>
+      <c r="V5" s="207"/>
+      <c r="W5" s="207"/>
+      <c r="X5" s="207"/>
+      <c r="Y5" s="207"/>
+      <c r="Z5" s="207"/>
+      <c r="AA5" s="207"/>
+      <c r="AB5" s="207"/>
+      <c r="AC5" s="207"/>
+      <c r="AD5" s="207"/>
+      <c r="AE5" s="207"/>
+      <c r="AF5" s="207"/>
+      <c r="AG5" s="207"/>
+      <c r="AH5" s="207"/>
+      <c r="AI5" s="207"/>
+      <c r="AJ5" s="207"/>
+      <c r="AK5" s="207"/>
+      <c r="AL5" s="207"/>
+      <c r="AM5" s="207"/>
+      <c r="AN5" s="207"/>
+      <c r="AO5" s="207"/>
+      <c r="AP5" s="207"/>
+      <c r="AQ5" s="207"/>
+      <c r="AR5" s="207"/>
+      <c r="AS5" s="207"/>
+      <c r="AT5" s="207"/>
+      <c r="AU5" s="207"/>
+      <c r="AV5" s="207"/>
+      <c r="AW5" s="207"/>
+      <c r="AX5" s="207"/>
+      <c r="AY5" s="207"/>
+      <c r="AZ5" s="207"/>
+      <c r="BA5" s="207"/>
+      <c r="BB5" s="207"/>
+      <c r="BC5" s="207"/>
+      <c r="BD5" s="207"/>
+      <c r="BE5" s="207"/>
+      <c r="BF5" s="207"/>
+      <c r="BG5" s="207"/>
+      <c r="BH5" s="207"/>
+      <c r="BI5" s="207"/>
+      <c r="BJ5" s="207"/>
+      <c r="BK5" s="207"/>
+      <c r="BL5" s="207"/>
+      <c r="BM5" s="207"/>
     </row>
     <row r="6" spans="1:229">
       <c r="A6" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="183">
-        <v>44089</v>
-      </c>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
+      <c r="B6" s="194">
+        <v>44107</v>
+      </c>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
       <c r="F6" s="99"/>
       <c r="G6" s="111" t="s">
         <v>99</v>
@@ -7100,197 +7509,197 @@
       <c r="J6" s="104"/>
       <c r="K6" s="151"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
-      <c r="W6" s="177"/>
-      <c r="X6" s="177"/>
-      <c r="Y6" s="177"/>
-      <c r="Z6" s="177"/>
-      <c r="AA6" s="177"/>
-      <c r="AB6" s="177"/>
-      <c r="AC6" s="177"/>
-      <c r="AD6" s="177"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="177"/>
-      <c r="AG6" s="177"/>
-      <c r="AH6" s="177"/>
-      <c r="AI6" s="177"/>
-      <c r="AJ6" s="177"/>
-      <c r="AK6" s="177"/>
-      <c r="AL6" s="177"/>
-      <c r="AM6" s="177"/>
-      <c r="AN6" s="177"/>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="177"/>
-      <c r="AQ6" s="177"/>
-      <c r="AR6" s="177"/>
-      <c r="AS6" s="177"/>
-      <c r="AT6" s="177"/>
-      <c r="AU6" s="177"/>
-      <c r="AV6" s="177"/>
-      <c r="AW6" s="177"/>
-      <c r="AX6" s="177"/>
-      <c r="AY6" s="177"/>
-      <c r="AZ6" s="177"/>
-      <c r="BA6" s="177"/>
-      <c r="BB6" s="177"/>
-      <c r="BC6" s="177"/>
-      <c r="BD6" s="177"/>
-      <c r="BE6" s="177"/>
-      <c r="BF6" s="177"/>
-      <c r="BG6" s="177"/>
-      <c r="BH6" s="177"/>
-      <c r="BI6" s="177"/>
-      <c r="BJ6" s="177"/>
-      <c r="BK6" s="177"/>
-      <c r="BL6" s="177"/>
-      <c r="BM6" s="177"/>
+      <c r="M6" s="208"/>
+      <c r="N6" s="208"/>
+      <c r="O6" s="208"/>
+      <c r="P6" s="208"/>
+      <c r="Q6" s="208"/>
+      <c r="R6" s="208"/>
+      <c r="S6" s="208"/>
+      <c r="T6" s="208"/>
+      <c r="U6" s="208"/>
+      <c r="V6" s="208"/>
+      <c r="W6" s="208"/>
+      <c r="X6" s="208"/>
+      <c r="Y6" s="208"/>
+      <c r="Z6" s="208"/>
+      <c r="AA6" s="208"/>
+      <c r="AB6" s="208"/>
+      <c r="AC6" s="208"/>
+      <c r="AD6" s="208"/>
+      <c r="AE6" s="208"/>
+      <c r="AF6" s="208"/>
+      <c r="AG6" s="208"/>
+      <c r="AH6" s="208"/>
+      <c r="AI6" s="208"/>
+      <c r="AJ6" s="208"/>
+      <c r="AK6" s="208"/>
+      <c r="AL6" s="208"/>
+      <c r="AM6" s="208"/>
+      <c r="AN6" s="208"/>
+      <c r="AO6" s="208"/>
+      <c r="AP6" s="208"/>
+      <c r="AQ6" s="208"/>
+      <c r="AR6" s="208"/>
+      <c r="AS6" s="208"/>
+      <c r="AT6" s="208"/>
+      <c r="AU6" s="208"/>
+      <c r="AV6" s="208"/>
+      <c r="AW6" s="208"/>
+      <c r="AX6" s="208"/>
+      <c r="AY6" s="208"/>
+      <c r="AZ6" s="208"/>
+      <c r="BA6" s="208"/>
+      <c r="BB6" s="208"/>
+      <c r="BC6" s="208"/>
+      <c r="BD6" s="208"/>
+      <c r="BE6" s="208"/>
+      <c r="BF6" s="208"/>
+      <c r="BG6" s="208"/>
+      <c r="BH6" s="208"/>
+      <c r="BI6" s="208"/>
+      <c r="BJ6" s="208"/>
+      <c r="BK6" s="208"/>
+      <c r="BL6" s="208"/>
+      <c r="BM6" s="208"/>
     </row>
     <row r="7" spans="1:229" ht="16.5" customHeight="1">
-      <c r="A7" s="194" t="s">
+      <c r="A7" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="195"/>
-      <c r="C7" s="195"/>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="180" t="s">
+      <c r="B7" s="180"/>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="180"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="180"/>
+      <c r="K7" s="180"/>
+      <c r="L7" s="180"/>
+      <c r="M7" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="181"/>
-      <c r="O7" s="181"/>
-      <c r="P7" s="181"/>
-      <c r="Q7" s="181"/>
-      <c r="R7" s="181"/>
-      <c r="S7" s="181"/>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
-      <c r="W7" s="181"/>
-      <c r="X7" s="181"/>
-      <c r="Y7" s="181"/>
-      <c r="Z7" s="181"/>
-      <c r="AA7" s="181"/>
-      <c r="AB7" s="181"/>
-      <c r="AC7" s="181"/>
-      <c r="AD7" s="181"/>
-      <c r="AE7" s="181"/>
-      <c r="AF7" s="181"/>
-      <c r="AG7" s="181"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="180" t="s">
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
+      <c r="T7" s="174"/>
+      <c r="U7" s="174"/>
+      <c r="V7" s="174"/>
+      <c r="W7" s="174"/>
+      <c r="X7" s="174"/>
+      <c r="Y7" s="174"/>
+      <c r="Z7" s="174"/>
+      <c r="AA7" s="174"/>
+      <c r="AB7" s="174"/>
+      <c r="AC7" s="174"/>
+      <c r="AD7" s="174"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="174"/>
+      <c r="AG7" s="174"/>
+      <c r="AH7" s="175"/>
+      <c r="AI7" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="AJ7" s="181"/>
-      <c r="AK7" s="181"/>
-      <c r="AL7" s="181"/>
-      <c r="AM7" s="181"/>
-      <c r="AN7" s="181"/>
-      <c r="AO7" s="181"/>
-      <c r="AP7" s="181"/>
-      <c r="AQ7" s="181"/>
-      <c r="AR7" s="181"/>
-      <c r="AS7" s="181"/>
-      <c r="AT7" s="181"/>
-      <c r="AU7" s="181"/>
-      <c r="AV7" s="181"/>
-      <c r="AW7" s="181"/>
-      <c r="AX7" s="181"/>
-      <c r="AY7" s="181"/>
-      <c r="AZ7" s="181"/>
-      <c r="BA7" s="181"/>
-      <c r="BB7" s="181"/>
-      <c r="BC7" s="181"/>
-      <c r="BD7" s="181"/>
-      <c r="BE7" s="181"/>
-      <c r="BF7" s="181"/>
-      <c r="BG7" s="181"/>
-      <c r="BH7" s="181"/>
-      <c r="BI7" s="181"/>
-      <c r="BJ7" s="181"/>
-      <c r="BK7" s="181"/>
-      <c r="BL7" s="181"/>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="180" t="s">
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="174"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="174"/>
+      <c r="AN7" s="174"/>
+      <c r="AO7" s="174"/>
+      <c r="AP7" s="174"/>
+      <c r="AQ7" s="174"/>
+      <c r="AR7" s="174"/>
+      <c r="AS7" s="174"/>
+      <c r="AT7" s="174"/>
+      <c r="AU7" s="174"/>
+      <c r="AV7" s="174"/>
+      <c r="AW7" s="174"/>
+      <c r="AX7" s="174"/>
+      <c r="AY7" s="174"/>
+      <c r="AZ7" s="174"/>
+      <c r="BA7" s="174"/>
+      <c r="BB7" s="174"/>
+      <c r="BC7" s="174"/>
+      <c r="BD7" s="174"/>
+      <c r="BE7" s="174"/>
+      <c r="BF7" s="174"/>
+      <c r="BG7" s="174"/>
+      <c r="BH7" s="174"/>
+      <c r="BI7" s="174"/>
+      <c r="BJ7" s="174"/>
+      <c r="BK7" s="174"/>
+      <c r="BL7" s="174"/>
+      <c r="BM7" s="175"/>
+      <c r="BN7" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="BO7" s="181"/>
-      <c r="BP7" s="181"/>
-      <c r="BQ7" s="181"/>
-      <c r="BR7" s="181"/>
-      <c r="BS7" s="181"/>
-      <c r="BT7" s="181"/>
-      <c r="BU7" s="181"/>
-      <c r="BV7" s="181"/>
-      <c r="BW7" s="181"/>
-      <c r="BX7" s="181"/>
-      <c r="BY7" s="181"/>
-      <c r="BZ7" s="181"/>
-      <c r="CA7" s="181"/>
-      <c r="CB7" s="181"/>
-      <c r="CC7" s="181"/>
-      <c r="CD7" s="181"/>
-      <c r="CE7" s="181"/>
-      <c r="CF7" s="181"/>
-      <c r="CG7" s="181"/>
-      <c r="CH7" s="181"/>
-      <c r="CI7" s="181"/>
-      <c r="CJ7" s="181"/>
-      <c r="CK7" s="181"/>
-      <c r="CL7" s="181"/>
-      <c r="CM7" s="181"/>
-      <c r="CN7" s="181"/>
-      <c r="CO7" s="181"/>
-      <c r="CP7" s="181"/>
-      <c r="CQ7" s="182"/>
-      <c r="CR7" s="180" t="s">
+      <c r="BO7" s="174"/>
+      <c r="BP7" s="174"/>
+      <c r="BQ7" s="174"/>
+      <c r="BR7" s="174"/>
+      <c r="BS7" s="174"/>
+      <c r="BT7" s="174"/>
+      <c r="BU7" s="174"/>
+      <c r="BV7" s="174"/>
+      <c r="BW7" s="174"/>
+      <c r="BX7" s="174"/>
+      <c r="BY7" s="174"/>
+      <c r="BZ7" s="174"/>
+      <c r="CA7" s="174"/>
+      <c r="CB7" s="174"/>
+      <c r="CC7" s="174"/>
+      <c r="CD7" s="174"/>
+      <c r="CE7" s="174"/>
+      <c r="CF7" s="174"/>
+      <c r="CG7" s="174"/>
+      <c r="CH7" s="174"/>
+      <c r="CI7" s="174"/>
+      <c r="CJ7" s="174"/>
+      <c r="CK7" s="174"/>
+      <c r="CL7" s="174"/>
+      <c r="CM7" s="174"/>
+      <c r="CN7" s="174"/>
+      <c r="CO7" s="174"/>
+      <c r="CP7" s="174"/>
+      <c r="CQ7" s="175"/>
+      <c r="CR7" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="CS7" s="181"/>
-      <c r="CT7" s="181"/>
-      <c r="CU7" s="181"/>
-      <c r="CV7" s="181"/>
-      <c r="CW7" s="181"/>
-      <c r="CX7" s="181"/>
-      <c r="CY7" s="181"/>
-      <c r="CZ7" s="181"/>
-      <c r="DA7" s="181"/>
-      <c r="DB7" s="181"/>
-      <c r="DC7" s="181"/>
-      <c r="DD7" s="181"/>
-      <c r="DE7" s="181"/>
-      <c r="DF7" s="181"/>
-      <c r="DG7" s="181"/>
-      <c r="DH7" s="181"/>
-      <c r="DI7" s="181"/>
-      <c r="DJ7" s="181"/>
-      <c r="DK7" s="181"/>
-      <c r="DL7" s="181"/>
-      <c r="DM7" s="181"/>
-      <c r="DN7" s="181"/>
-      <c r="DO7" s="181"/>
-      <c r="DP7" s="181"/>
-      <c r="DQ7" s="181"/>
-      <c r="DR7" s="181"/>
-      <c r="DS7" s="181"/>
-      <c r="DT7" s="181"/>
-      <c r="DU7" s="181"/>
-      <c r="DV7" s="182"/>
+      <c r="CS7" s="174"/>
+      <c r="CT7" s="174"/>
+      <c r="CU7" s="174"/>
+      <c r="CV7" s="174"/>
+      <c r="CW7" s="174"/>
+      <c r="CX7" s="174"/>
+      <c r="CY7" s="174"/>
+      <c r="CZ7" s="174"/>
+      <c r="DA7" s="174"/>
+      <c r="DB7" s="174"/>
+      <c r="DC7" s="174"/>
+      <c r="DD7" s="174"/>
+      <c r="DE7" s="174"/>
+      <c r="DF7" s="174"/>
+      <c r="DG7" s="174"/>
+      <c r="DH7" s="174"/>
+      <c r="DI7" s="174"/>
+      <c r="DJ7" s="174"/>
+      <c r="DK7" s="174"/>
+      <c r="DL7" s="174"/>
+      <c r="DM7" s="174"/>
+      <c r="DN7" s="174"/>
+      <c r="DO7" s="174"/>
+      <c r="DP7" s="174"/>
+      <c r="DQ7" s="174"/>
+      <c r="DR7" s="174"/>
+      <c r="DS7" s="174"/>
+      <c r="DT7" s="174"/>
+      <c r="DU7" s="174"/>
+      <c r="DV7" s="175"/>
       <c r="DW7" s="94"/>
       <c r="DX7" s="94"/>
       <c r="DY7" s="94"/>
@@ -7299,444 +7708,444 @@
       <c r="EB7" s="94"/>
       <c r="EC7" s="94"/>
       <c r="ED7" s="94"/>
-      <c r="EE7" s="179" t="s">
+      <c r="EE7" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="EF7" s="179"/>
-      <c r="EG7" s="179"/>
-      <c r="EH7" s="179"/>
-      <c r="EI7" s="179"/>
-      <c r="EJ7" s="179"/>
-      <c r="EK7" s="179"/>
-      <c r="EL7" s="179"/>
-      <c r="EM7" s="179"/>
-      <c r="EN7" s="179"/>
-      <c r="EO7" s="179"/>
-      <c r="EP7" s="179"/>
-      <c r="EQ7" s="179"/>
-      <c r="ER7" s="179"/>
-      <c r="ES7" s="179"/>
-      <c r="ET7" s="179"/>
-      <c r="EU7" s="179"/>
-      <c r="EV7" s="179"/>
-      <c r="EW7" s="179"/>
-      <c r="EX7" s="179"/>
-      <c r="EY7" s="179"/>
-      <c r="EZ7" s="179"/>
-      <c r="FA7" s="179"/>
-      <c r="FB7" s="179"/>
-      <c r="FC7" s="179"/>
-      <c r="FD7" s="179"/>
-      <c r="FE7" s="179"/>
-      <c r="FF7" s="179"/>
-      <c r="FG7" s="179"/>
-      <c r="FH7" s="179"/>
-      <c r="FI7" s="179"/>
-      <c r="FJ7" s="179" t="s">
+      <c r="EF7" s="176"/>
+      <c r="EG7" s="176"/>
+      <c r="EH7" s="176"/>
+      <c r="EI7" s="176"/>
+      <c r="EJ7" s="176"/>
+      <c r="EK7" s="176"/>
+      <c r="EL7" s="176"/>
+      <c r="EM7" s="176"/>
+      <c r="EN7" s="176"/>
+      <c r="EO7" s="176"/>
+      <c r="EP7" s="176"/>
+      <c r="EQ7" s="176"/>
+      <c r="ER7" s="176"/>
+      <c r="ES7" s="176"/>
+      <c r="ET7" s="176"/>
+      <c r="EU7" s="176"/>
+      <c r="EV7" s="176"/>
+      <c r="EW7" s="176"/>
+      <c r="EX7" s="176"/>
+      <c r="EY7" s="176"/>
+      <c r="EZ7" s="176"/>
+      <c r="FA7" s="176"/>
+      <c r="FB7" s="176"/>
+      <c r="FC7" s="176"/>
+      <c r="FD7" s="176"/>
+      <c r="FE7" s="176"/>
+      <c r="FF7" s="176"/>
+      <c r="FG7" s="176"/>
+      <c r="FH7" s="176"/>
+      <c r="FI7" s="176"/>
+      <c r="FJ7" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="FK7" s="179"/>
-      <c r="FL7" s="179"/>
-      <c r="FM7" s="179"/>
-      <c r="FN7" s="179"/>
-      <c r="FO7" s="179"/>
-      <c r="FP7" s="179"/>
-      <c r="FQ7" s="179"/>
-      <c r="FR7" s="179"/>
-      <c r="FS7" s="179"/>
-      <c r="FT7" s="179"/>
-      <c r="FU7" s="179"/>
-      <c r="FV7" s="179"/>
-      <c r="FW7" s="179"/>
-      <c r="FX7" s="179"/>
-      <c r="FY7" s="179"/>
-      <c r="FZ7" s="179"/>
-      <c r="GA7" s="179"/>
-      <c r="GB7" s="179"/>
-      <c r="GC7" s="179"/>
-      <c r="GD7" s="179"/>
-      <c r="GE7" s="179"/>
-      <c r="GF7" s="179"/>
-      <c r="GG7" s="179"/>
-      <c r="GH7" s="179"/>
-      <c r="GI7" s="179"/>
-      <c r="GJ7" s="179"/>
-      <c r="GK7" s="179"/>
-      <c r="GL7" s="179" t="s">
+      <c r="FK7" s="176"/>
+      <c r="FL7" s="176"/>
+      <c r="FM7" s="176"/>
+      <c r="FN7" s="176"/>
+      <c r="FO7" s="176"/>
+      <c r="FP7" s="176"/>
+      <c r="FQ7" s="176"/>
+      <c r="FR7" s="176"/>
+      <c r="FS7" s="176"/>
+      <c r="FT7" s="176"/>
+      <c r="FU7" s="176"/>
+      <c r="FV7" s="176"/>
+      <c r="FW7" s="176"/>
+      <c r="FX7" s="176"/>
+      <c r="FY7" s="176"/>
+      <c r="FZ7" s="176"/>
+      <c r="GA7" s="176"/>
+      <c r="GB7" s="176"/>
+      <c r="GC7" s="176"/>
+      <c r="GD7" s="176"/>
+      <c r="GE7" s="176"/>
+      <c r="GF7" s="176"/>
+      <c r="GG7" s="176"/>
+      <c r="GH7" s="176"/>
+      <c r="GI7" s="176"/>
+      <c r="GJ7" s="176"/>
+      <c r="GK7" s="176"/>
+      <c r="GL7" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="GM7" s="179"/>
-      <c r="GN7" s="179"/>
-      <c r="GO7" s="179"/>
-      <c r="GP7" s="179"/>
-      <c r="GQ7" s="179"/>
-      <c r="GR7" s="179"/>
-      <c r="GS7" s="179"/>
-      <c r="GT7" s="179"/>
-      <c r="GU7" s="179"/>
-      <c r="GV7" s="179"/>
-      <c r="GW7" s="179"/>
-      <c r="GX7" s="179"/>
-      <c r="GY7" s="179"/>
-      <c r="GZ7" s="179"/>
-      <c r="HA7" s="179"/>
-      <c r="HB7" s="179"/>
-      <c r="HC7" s="179"/>
-      <c r="HD7" s="179"/>
-      <c r="HE7" s="179"/>
-      <c r="HF7" s="179"/>
-      <c r="HG7" s="179"/>
-      <c r="HH7" s="179"/>
-      <c r="HI7" s="179"/>
-      <c r="HJ7" s="179"/>
-      <c r="HK7" s="179"/>
-      <c r="HL7" s="179"/>
-      <c r="HM7" s="179"/>
-      <c r="HN7" s="179"/>
-      <c r="HO7" s="179"/>
-      <c r="HP7" s="179"/>
-      <c r="HQ7" s="179" t="s">
+      <c r="GM7" s="176"/>
+      <c r="GN7" s="176"/>
+      <c r="GO7" s="176"/>
+      <c r="GP7" s="176"/>
+      <c r="GQ7" s="176"/>
+      <c r="GR7" s="176"/>
+      <c r="GS7" s="176"/>
+      <c r="GT7" s="176"/>
+      <c r="GU7" s="176"/>
+      <c r="GV7" s="176"/>
+      <c r="GW7" s="176"/>
+      <c r="GX7" s="176"/>
+      <c r="GY7" s="176"/>
+      <c r="GZ7" s="176"/>
+      <c r="HA7" s="176"/>
+      <c r="HB7" s="176"/>
+      <c r="HC7" s="176"/>
+      <c r="HD7" s="176"/>
+      <c r="HE7" s="176"/>
+      <c r="HF7" s="176"/>
+      <c r="HG7" s="176"/>
+      <c r="HH7" s="176"/>
+      <c r="HI7" s="176"/>
+      <c r="HJ7" s="176"/>
+      <c r="HK7" s="176"/>
+      <c r="HL7" s="176"/>
+      <c r="HM7" s="176"/>
+      <c r="HN7" s="176"/>
+      <c r="HO7" s="176"/>
+      <c r="HP7" s="176"/>
+      <c r="HQ7" s="176" t="s">
         <v>93</v>
       </c>
-      <c r="HR7" s="179"/>
-      <c r="HS7" s="179"/>
-      <c r="HT7" s="179"/>
-      <c r="HU7" s="179"/>
+      <c r="HR7" s="176"/>
+      <c r="HS7" s="176"/>
+      <c r="HT7" s="176"/>
+      <c r="HU7" s="176"/>
     </row>
     <row r="8" spans="1:229" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
-      <c r="C8" s="197"/>
-      <c r="D8" s="197"/>
-      <c r="E8" s="197"/>
-      <c r="F8" s="197"/>
-      <c r="G8" s="197"/>
-      <c r="H8" s="197"/>
-      <c r="I8" s="197"/>
-      <c r="J8" s="197"/>
-      <c r="K8" s="197"/>
-      <c r="L8" s="197"/>
-      <c r="M8" s="180" t="s">
+      <c r="A8" s="181"/>
+      <c r="B8" s="182"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="182"/>
+      <c r="H8" s="182"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="182"/>
+      <c r="K8" s="182"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="181"/>
-      <c r="O8" s="182"/>
-      <c r="P8" s="180" t="s">
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="180" t="s">
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="175"/>
+      <c r="W8" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="X8" s="181"/>
-      <c r="Y8" s="181"/>
-      <c r="Z8" s="181"/>
-      <c r="AA8" s="181"/>
-      <c r="AB8" s="181"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="180" t="s">
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="AE8" s="181"/>
-      <c r="AF8" s="181"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="182"/>
-      <c r="AI8" s="180" t="s">
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="AJ8" s="182"/>
-      <c r="AK8" s="180" t="s">
+      <c r="AJ8" s="175"/>
+      <c r="AK8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="AL8" s="181"/>
-      <c r="AM8" s="181"/>
-      <c r="AN8" s="181"/>
-      <c r="AO8" s="181"/>
-      <c r="AP8" s="181"/>
-      <c r="AQ8" s="182"/>
-      <c r="AR8" s="180" t="s">
+      <c r="AL8" s="174"/>
+      <c r="AM8" s="174"/>
+      <c r="AN8" s="174"/>
+      <c r="AO8" s="174"/>
+      <c r="AP8" s="174"/>
+      <c r="AQ8" s="175"/>
+      <c r="AR8" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="AS8" s="181"/>
-      <c r="AT8" s="181"/>
-      <c r="AU8" s="181"/>
-      <c r="AV8" s="181"/>
-      <c r="AW8" s="181"/>
-      <c r="AX8" s="182"/>
-      <c r="AY8" s="180" t="s">
+      <c r="AS8" s="174"/>
+      <c r="AT8" s="174"/>
+      <c r="AU8" s="174"/>
+      <c r="AV8" s="174"/>
+      <c r="AW8" s="174"/>
+      <c r="AX8" s="175"/>
+      <c r="AY8" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="AZ8" s="181"/>
-      <c r="BA8" s="181"/>
-      <c r="BB8" s="181"/>
-      <c r="BC8" s="181"/>
-      <c r="BD8" s="181"/>
-      <c r="BE8" s="182"/>
-      <c r="BF8" s="180" t="s">
+      <c r="AZ8" s="174"/>
+      <c r="BA8" s="174"/>
+      <c r="BB8" s="174"/>
+      <c r="BC8" s="174"/>
+      <c r="BD8" s="174"/>
+      <c r="BE8" s="175"/>
+      <c r="BF8" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="BG8" s="181"/>
-      <c r="BH8" s="181"/>
-      <c r="BI8" s="181"/>
-      <c r="BJ8" s="181"/>
-      <c r="BK8" s="181"/>
-      <c r="BL8" s="182"/>
+      <c r="BG8" s="174"/>
+      <c r="BH8" s="174"/>
+      <c r="BI8" s="174"/>
+      <c r="BJ8" s="174"/>
+      <c r="BK8" s="174"/>
+      <c r="BL8" s="175"/>
       <c r="BM8" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="BN8" s="180" t="s">
+      <c r="BN8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="BO8" s="181"/>
-      <c r="BP8" s="181"/>
-      <c r="BQ8" s="181"/>
-      <c r="BR8" s="181"/>
-      <c r="BS8" s="182"/>
-      <c r="BT8" s="180" t="s">
+      <c r="BO8" s="174"/>
+      <c r="BP8" s="174"/>
+      <c r="BQ8" s="174"/>
+      <c r="BR8" s="174"/>
+      <c r="BS8" s="175"/>
+      <c r="BT8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="BU8" s="181"/>
-      <c r="BV8" s="181"/>
-      <c r="BW8" s="181"/>
-      <c r="BX8" s="181"/>
-      <c r="BY8" s="181"/>
-      <c r="BZ8" s="182"/>
-      <c r="CA8" s="180" t="s">
+      <c r="BU8" s="174"/>
+      <c r="BV8" s="174"/>
+      <c r="BW8" s="174"/>
+      <c r="BX8" s="174"/>
+      <c r="BY8" s="174"/>
+      <c r="BZ8" s="175"/>
+      <c r="CA8" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="CB8" s="181"/>
-      <c r="CC8" s="181"/>
-      <c r="CD8" s="181"/>
-      <c r="CE8" s="181"/>
-      <c r="CF8" s="181"/>
-      <c r="CG8" s="182"/>
-      <c r="CH8" s="180" t="s">
+      <c r="CB8" s="174"/>
+      <c r="CC8" s="174"/>
+      <c r="CD8" s="174"/>
+      <c r="CE8" s="174"/>
+      <c r="CF8" s="174"/>
+      <c r="CG8" s="175"/>
+      <c r="CH8" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="CI8" s="181"/>
-      <c r="CJ8" s="181"/>
-      <c r="CK8" s="181"/>
-      <c r="CL8" s="181"/>
-      <c r="CM8" s="181"/>
-      <c r="CN8" s="182"/>
-      <c r="CO8" s="180" t="s">
+      <c r="CI8" s="174"/>
+      <c r="CJ8" s="174"/>
+      <c r="CK8" s="174"/>
+      <c r="CL8" s="174"/>
+      <c r="CM8" s="174"/>
+      <c r="CN8" s="175"/>
+      <c r="CO8" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="CP8" s="181"/>
-      <c r="CQ8" s="182"/>
-      <c r="CR8" s="180" t="s">
+      <c r="CP8" s="174"/>
+      <c r="CQ8" s="175"/>
+      <c r="CR8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="CS8" s="181"/>
-      <c r="CT8" s="181"/>
-      <c r="CU8" s="182"/>
-      <c r="CV8" s="180" t="s">
+      <c r="CS8" s="174"/>
+      <c r="CT8" s="174"/>
+      <c r="CU8" s="175"/>
+      <c r="CV8" s="173" t="s">
         <v>86</v>
       </c>
-      <c r="CW8" s="181"/>
-      <c r="CX8" s="181"/>
-      <c r="CY8" s="181"/>
-      <c r="CZ8" s="181"/>
-      <c r="DA8" s="181"/>
-      <c r="DB8" s="182"/>
-      <c r="DC8" s="180" t="s">
+      <c r="CW8" s="174"/>
+      <c r="CX8" s="174"/>
+      <c r="CY8" s="174"/>
+      <c r="CZ8" s="174"/>
+      <c r="DA8" s="174"/>
+      <c r="DB8" s="175"/>
+      <c r="DC8" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="DD8" s="181"/>
-      <c r="DE8" s="181"/>
-      <c r="DF8" s="181"/>
-      <c r="DG8" s="181"/>
-      <c r="DH8" s="181"/>
-      <c r="DI8" s="182"/>
-      <c r="DJ8" s="180" t="s">
+      <c r="DD8" s="174"/>
+      <c r="DE8" s="174"/>
+      <c r="DF8" s="174"/>
+      <c r="DG8" s="174"/>
+      <c r="DH8" s="174"/>
+      <c r="DI8" s="175"/>
+      <c r="DJ8" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="DK8" s="181"/>
-      <c r="DL8" s="181"/>
-      <c r="DM8" s="181"/>
-      <c r="DN8" s="181"/>
-      <c r="DO8" s="181"/>
-      <c r="DP8" s="182"/>
-      <c r="DQ8" s="180" t="s">
+      <c r="DK8" s="174"/>
+      <c r="DL8" s="174"/>
+      <c r="DM8" s="174"/>
+      <c r="DN8" s="174"/>
+      <c r="DO8" s="174"/>
+      <c r="DP8" s="175"/>
+      <c r="DQ8" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="DR8" s="181"/>
-      <c r="DS8" s="181"/>
-      <c r="DT8" s="181"/>
-      <c r="DU8" s="181"/>
-      <c r="DV8" s="182"/>
-      <c r="DW8" s="179" t="s">
+      <c r="DR8" s="174"/>
+      <c r="DS8" s="174"/>
+      <c r="DT8" s="174"/>
+      <c r="DU8" s="174"/>
+      <c r="DV8" s="175"/>
+      <c r="DW8" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="DX8" s="179"/>
-      <c r="DY8" s="179"/>
-      <c r="DZ8" s="179"/>
-      <c r="EA8" s="179"/>
-      <c r="EB8" s="179"/>
-      <c r="EC8" s="179"/>
+      <c r="DX8" s="176"/>
+      <c r="DY8" s="176"/>
+      <c r="DZ8" s="176"/>
+      <c r="EA8" s="176"/>
+      <c r="EB8" s="176"/>
+      <c r="EC8" s="176"/>
       <c r="ED8" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="EE8" s="179" t="s">
+      <c r="EE8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="EF8" s="179"/>
-      <c r="EG8" s="179"/>
-      <c r="EH8" s="179"/>
-      <c r="EI8" s="179"/>
-      <c r="EJ8" s="179"/>
-      <c r="EK8" s="179" t="s">
+      <c r="EF8" s="176"/>
+      <c r="EG8" s="176"/>
+      <c r="EH8" s="176"/>
+      <c r="EI8" s="176"/>
+      <c r="EJ8" s="176"/>
+      <c r="EK8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="EL8" s="179"/>
-      <c r="EM8" s="179"/>
-      <c r="EN8" s="179"/>
-      <c r="EO8" s="179"/>
-      <c r="EP8" s="179"/>
-      <c r="EQ8" s="179"/>
-      <c r="ER8" s="179" t="s">
+      <c r="EL8" s="176"/>
+      <c r="EM8" s="176"/>
+      <c r="EN8" s="176"/>
+      <c r="EO8" s="176"/>
+      <c r="EP8" s="176"/>
+      <c r="EQ8" s="176"/>
+      <c r="ER8" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="ES8" s="179"/>
-      <c r="ET8" s="179"/>
-      <c r="EU8" s="179"/>
-      <c r="EV8" s="179"/>
-      <c r="EW8" s="179"/>
-      <c r="EX8" s="179"/>
-      <c r="EY8" s="179" t="s">
+      <c r="ES8" s="176"/>
+      <c r="ET8" s="176"/>
+      <c r="EU8" s="176"/>
+      <c r="EV8" s="176"/>
+      <c r="EW8" s="176"/>
+      <c r="EX8" s="176"/>
+      <c r="EY8" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="EZ8" s="179"/>
-      <c r="FA8" s="179"/>
-      <c r="FB8" s="179"/>
-      <c r="FC8" s="179"/>
-      <c r="FD8" s="179"/>
-      <c r="FE8" s="179"/>
-      <c r="FF8" s="179" t="s">
+      <c r="EZ8" s="176"/>
+      <c r="FA8" s="176"/>
+      <c r="FB8" s="176"/>
+      <c r="FC8" s="176"/>
+      <c r="FD8" s="176"/>
+      <c r="FE8" s="176"/>
+      <c r="FF8" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="FG8" s="179"/>
-      <c r="FH8" s="179"/>
-      <c r="FI8" s="179"/>
-      <c r="FJ8" s="180" t="s">
+      <c r="FG8" s="176"/>
+      <c r="FH8" s="176"/>
+      <c r="FI8" s="176"/>
+      <c r="FJ8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="FK8" s="181"/>
-      <c r="FL8" s="182"/>
-      <c r="FM8" s="179" t="s">
+      <c r="FK8" s="174"/>
+      <c r="FL8" s="175"/>
+      <c r="FM8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="FN8" s="179"/>
-      <c r="FO8" s="179"/>
-      <c r="FP8" s="179"/>
-      <c r="FQ8" s="179"/>
-      <c r="FR8" s="179"/>
-      <c r="FS8" s="179"/>
-      <c r="FT8" s="179" t="s">
+      <c r="FN8" s="176"/>
+      <c r="FO8" s="176"/>
+      <c r="FP8" s="176"/>
+      <c r="FQ8" s="176"/>
+      <c r="FR8" s="176"/>
+      <c r="FS8" s="176"/>
+      <c r="FT8" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="FU8" s="179"/>
-      <c r="FV8" s="179"/>
-      <c r="FW8" s="179"/>
-      <c r="FX8" s="179"/>
-      <c r="FY8" s="179"/>
-      <c r="FZ8" s="179"/>
-      <c r="GA8" s="179" t="s">
+      <c r="FU8" s="176"/>
+      <c r="FV8" s="176"/>
+      <c r="FW8" s="176"/>
+      <c r="FX8" s="176"/>
+      <c r="FY8" s="176"/>
+      <c r="FZ8" s="176"/>
+      <c r="GA8" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="GB8" s="179"/>
-      <c r="GC8" s="179"/>
-      <c r="GD8" s="179"/>
-      <c r="GE8" s="179"/>
-      <c r="GF8" s="179"/>
-      <c r="GG8" s="179"/>
-      <c r="GH8" s="179" t="s">
+      <c r="GB8" s="176"/>
+      <c r="GC8" s="176"/>
+      <c r="GD8" s="176"/>
+      <c r="GE8" s="176"/>
+      <c r="GF8" s="176"/>
+      <c r="GG8" s="176"/>
+      <c r="GH8" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="GI8" s="179"/>
-      <c r="GJ8" s="179"/>
-      <c r="GK8" s="179"/>
-      <c r="GL8" s="180" t="s">
+      <c r="GI8" s="176"/>
+      <c r="GJ8" s="176"/>
+      <c r="GK8" s="176"/>
+      <c r="GL8" s="173" t="s">
         <v>85</v>
       </c>
-      <c r="GM8" s="181"/>
-      <c r="GN8" s="182"/>
-      <c r="GO8" s="179" t="s">
+      <c r="GM8" s="174"/>
+      <c r="GN8" s="175"/>
+      <c r="GO8" s="176" t="s">
         <v>86</v>
       </c>
-      <c r="GP8" s="179"/>
-      <c r="GQ8" s="179"/>
-      <c r="GR8" s="179"/>
-      <c r="GS8" s="179"/>
-      <c r="GT8" s="179"/>
-      <c r="GU8" s="179"/>
-      <c r="GV8" s="179" t="s">
+      <c r="GP8" s="176"/>
+      <c r="GQ8" s="176"/>
+      <c r="GR8" s="176"/>
+      <c r="GS8" s="176"/>
+      <c r="GT8" s="176"/>
+      <c r="GU8" s="176"/>
+      <c r="GV8" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="GW8" s="179"/>
-      <c r="GX8" s="179"/>
-      <c r="GY8" s="179"/>
-      <c r="GZ8" s="179"/>
-      <c r="HA8" s="179"/>
-      <c r="HB8" s="179"/>
-      <c r="HC8" s="179" t="s">
+      <c r="GW8" s="176"/>
+      <c r="GX8" s="176"/>
+      <c r="GY8" s="176"/>
+      <c r="GZ8" s="176"/>
+      <c r="HA8" s="176"/>
+      <c r="HB8" s="176"/>
+      <c r="HC8" s="176" t="s">
         <v>88</v>
       </c>
-      <c r="HD8" s="179"/>
-      <c r="HE8" s="179"/>
-      <c r="HF8" s="179"/>
-      <c r="HG8" s="179"/>
-      <c r="HH8" s="179"/>
-      <c r="HI8" s="179"/>
-      <c r="HJ8" s="179" t="s">
+      <c r="HD8" s="176"/>
+      <c r="HE8" s="176"/>
+      <c r="HF8" s="176"/>
+      <c r="HG8" s="176"/>
+      <c r="HH8" s="176"/>
+      <c r="HI8" s="176"/>
+      <c r="HJ8" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="HK8" s="179"/>
-      <c r="HL8" s="179"/>
-      <c r="HM8" s="179"/>
-      <c r="HN8" s="179"/>
-      <c r="HO8" s="179"/>
-      <c r="HP8" s="179"/>
-      <c r="HQ8" s="179" t="s">
+      <c r="HK8" s="176"/>
+      <c r="HL8" s="176"/>
+      <c r="HM8" s="176"/>
+      <c r="HN8" s="176"/>
+      <c r="HO8" s="176"/>
+      <c r="HP8" s="176"/>
+      <c r="HQ8" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="HR8" s="179"/>
-      <c r="HS8" s="179"/>
-      <c r="HT8" s="179"/>
-      <c r="HU8" s="179"/>
+      <c r="HR8" s="176"/>
+      <c r="HS8" s="176"/>
+      <c r="HT8" s="176"/>
+      <c r="HU8" s="176"/>
     </row>
     <row r="9" spans="1:229" s="70" customFormat="1">
-      <c r="A9" s="198" t="s">
+      <c r="A9" s="183" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="200" t="s">
+      <c r="B9" s="185" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="200"/>
-      <c r="D9" s="200" t="s">
+      <c r="C9" s="185"/>
+      <c r="D9" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="192" t="s">
+      <c r="E9" s="185"/>
+      <c r="F9" s="177" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="204" t="s">
+      <c r="G9" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="205"/>
-      <c r="I9" s="206"/>
-      <c r="J9" s="202" t="s">
+      <c r="H9" s="190"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="207" t="s">
+      <c r="K9" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="192" t="s">
+      <c r="L9" s="177" t="s">
         <v>84</v>
       </c>
       <c r="M9" s="88">
@@ -8609,12 +9018,12 @@
       </c>
     </row>
     <row r="10" spans="1:229" s="69" customFormat="1">
-      <c r="A10" s="199"/>
-      <c r="B10" s="201"/>
-      <c r="C10" s="201"/>
-      <c r="D10" s="201"/>
-      <c r="E10" s="201"/>
-      <c r="F10" s="193"/>
+      <c r="A10" s="184"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="178"/>
       <c r="G10" s="112" t="s">
         <v>105</v>
       </c>
@@ -8624,9 +9033,9 @@
       <c r="I10" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="203"/>
-      <c r="K10" s="208"/>
-      <c r="L10" s="193"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="178"/>
       <c r="M10" s="72">
         <v>44448</v>
       </c>
@@ -9521,7 +9930,7 @@
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
       <c r="F12" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G12" s="107">
         <v>17</v>
@@ -9534,11 +9943,11 @@
         <v>44464</v>
       </c>
       <c r="J12" s="106" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="K12" s="153">
         <f ca="1" xml:space="preserve">  IF(J12 = "완료", 1, (TODAY() - H12) / $G12)</f>
-        <v>0.82352941176470584</v>
+        <v>1</v>
       </c>
       <c r="L12" s="107"/>
       <c r="M12" s="75"/>
@@ -9768,7 +10177,7 @@
         <v>129</v>
       </c>
       <c r="F13" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="107">
         <v>5</v>
@@ -9784,7 +10193,7 @@
         <v>136</v>
       </c>
       <c r="K13" s="153">
-        <f t="shared" ref="K13:K15" ca="1" si="4" xml:space="preserve">  IF(J13 = "완료", 1, (TODAY() - H13) / $G13)</f>
+        <f t="shared" ref="K13:K18" ca="1" si="4" xml:space="preserve">  IF(J13 = "완료", 1, (TODAY() - H13) / $G13)</f>
         <v>1</v>
       </c>
       <c r="L13" s="107"/>
@@ -10015,7 +10424,7 @@
         <v>130</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="107">
         <v>4</v>
@@ -10262,7 +10671,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" s="107">
         <v>4</v>
@@ -10509,15 +10918,22 @@
         <v>133</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G16" s="107"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="140"/>
+      <c r="H16" s="117">
+        <v>44454</v>
+      </c>
+      <c r="I16" s="140">
+        <v>44454</v>
+      </c>
       <c r="J16" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="K16" s="153"/>
+      <c r="K16" s="153">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
       <c r="L16" s="107"/>
       <c r="M16" s="87"/>
       <c r="N16" s="87"/>
@@ -10746,7 +11162,7 @@
       </c>
       <c r="E17" s="138"/>
       <c r="F17" s="76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="107">
         <v>12</v>
@@ -10759,9 +11175,12 @@
         <v>44463</v>
       </c>
       <c r="J17" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="153"/>
+        <v>136</v>
+      </c>
+      <c r="K17" s="153">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
       <c r="L17" s="107" t="s">
         <v>135</v>
       </c>
@@ -10989,20 +11408,23 @@
       <c r="C18" s="91"/>
       <c r="D18" s="91"/>
       <c r="E18" s="123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F18" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" s="113"/>
       <c r="H18" s="118"/>
       <c r="I18" s="140"/>
       <c r="J18" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="K18" s="154"/>
+        <v>136</v>
+      </c>
+      <c r="K18" s="153">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
       <c r="L18" s="113" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M18" s="87"/>
       <c r="N18" s="87"/>
@@ -11224,7 +11646,7 @@
     </row>
     <row r="19" spans="1:229" s="86" customFormat="1">
       <c r="A19" s="77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="78"/>
       <c r="C19" s="79"/>
@@ -11466,7 +11888,9 @@
       <c r="G20" s="107"/>
       <c r="H20" s="117"/>
       <c r="I20" s="140"/>
-      <c r="J20" s="106"/>
+      <c r="J20" s="106" t="s">
+        <v>104</v>
+      </c>
       <c r="K20" s="153"/>
       <c r="L20" s="107"/>
       <c r="M20" s="87"/>
@@ -11696,7 +12120,7 @@
         <v>113</v>
       </c>
       <c r="F21" s="76" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G21" s="107">
         <v>6</v>
@@ -11938,7 +12362,7 @@
         <v>114</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G22" s="107">
         <v>6</v>
@@ -12180,7 +12604,7 @@
         <v>115</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G23" s="107">
         <v>6</v>
@@ -12413,21 +12837,23 @@
       <c r="HT23" s="87"/>
       <c r="HU23" s="87"/>
     </row>
-    <row r="24" spans="1:229" s="86" customFormat="1">
+    <row r="24" spans="1:229" s="86" customFormat="1" ht="17" customHeight="1">
       <c r="A24" s="82"/>
       <c r="B24" s="83"/>
       <c r="C24" s="84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E24" s="84"/>
-      <c r="F24" s="76"/>
+      <c r="F24" s="76" t="s">
+        <v>140</v>
+      </c>
       <c r="G24" s="107"/>
       <c r="H24" s="117"/>
       <c r="I24" s="141"/>
       <c r="J24" s="107"/>
       <c r="K24" s="155"/>
-      <c r="L24" s="171" t="s">
-        <v>138</v>
+      <c r="L24" s="203" t="s">
+        <v>168</v>
       </c>
       <c r="M24" s="87"/>
       <c r="N24" s="87"/>
@@ -12655,13 +13081,22 @@
       <c r="E25" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="141"/>
+      <c r="F25" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="130">
+        <f t="shared" ref="G25:G28" si="6" xml:space="preserve"> I25 - H25</f>
+        <v>5</v>
+      </c>
+      <c r="H25" s="117">
+        <v>44474</v>
+      </c>
+      <c r="I25" s="141">
+        <v>44479</v>
+      </c>
       <c r="J25" s="107"/>
       <c r="K25" s="155"/>
-      <c r="L25" s="172"/>
+      <c r="L25" s="204"/>
       <c r="M25" s="87"/>
       <c r="N25" s="87"/>
       <c r="O25" s="87"/>
@@ -12888,13 +13323,22 @@
       <c r="E26" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="F26" s="76"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="141"/>
+      <c r="F26" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="130">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H26" s="117">
+        <v>44474</v>
+      </c>
+      <c r="I26" s="141">
+        <v>44479</v>
+      </c>
       <c r="J26" s="107"/>
       <c r="K26" s="155"/>
-      <c r="L26" s="172"/>
+      <c r="L26" s="205"/>
       <c r="M26" s="87"/>
       <c r="N26" s="87"/>
       <c r="O26" s="87"/>
@@ -13116,20 +13560,28 @@
     <row r="27" spans="1:229" s="86" customFormat="1">
       <c r="A27" s="82"/>
       <c r="B27" s="83"/>
-      <c r="C27" s="84" t="s">
-        <v>153</v>
+      <c r="C27" s="84"/>
+      <c r="D27" s="84" t="s">
+        <v>175</v>
       </c>
       <c r="E27" s="84"/>
       <c r="F27" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="130"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="141"/>
+        <v>144</v>
+      </c>
+      <c r="G27" s="130">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="H27" s="117">
+        <v>44474</v>
+      </c>
+      <c r="I27" s="141">
+        <v>44479</v>
+      </c>
       <c r="J27" s="107"/>
       <c r="K27" s="155"/>
-      <c r="L27" s="107" t="s">
-        <v>166</v>
+      <c r="L27" s="158" t="s">
+        <v>175</v>
       </c>
       <c r="M27" s="87"/>
       <c r="N27" s="87"/>
@@ -13352,20 +13804,19 @@
     <row r="28" spans="1:229" s="86" customFormat="1">
       <c r="A28" s="82"/>
       <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84" t="s">
-        <v>154</v>
+      <c r="C28" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="E28" s="84"/>
-      <c r="F28" s="76"/>
+      <c r="F28" s="76" t="s">
+        <v>169</v>
+      </c>
       <c r="G28" s="130"/>
       <c r="H28" s="117"/>
       <c r="I28" s="141"/>
       <c r="J28" s="107"/>
       <c r="K28" s="155"/>
-      <c r="L28" s="107" t="s">
-        <v>140</v>
-      </c>
+      <c r="L28" s="210"/>
       <c r="M28" s="87"/>
       <c r="N28" s="87"/>
       <c r="O28" s="87"/>
@@ -13589,15 +14040,27 @@
       <c r="B29" s="83"/>
       <c r="C29" s="84"/>
       <c r="D29" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="141"/>
+        <v>152</v>
+      </c>
+      <c r="E29" s="84"/>
+      <c r="F29" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="G29" s="130">
+        <f xml:space="preserve"> I29 - H29</f>
+        <v>8</v>
+      </c>
+      <c r="H29" s="117">
+        <v>44471</v>
+      </c>
+      <c r="I29" s="141">
+        <v>44479</v>
+      </c>
       <c r="J29" s="107"/>
       <c r="K29" s="155"/>
-      <c r="L29" s="107"/>
+      <c r="L29" s="107" t="s">
+        <v>164</v>
+      </c>
       <c r="M29" s="87"/>
       <c r="N29" s="87"/>
       <c r="O29" s="87"/>
@@ -13819,18 +14282,28 @@
     <row r="30" spans="1:229" s="86" customFormat="1">
       <c r="A30" s="82"/>
       <c r="B30" s="83"/>
-      <c r="C30" s="84" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="141"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" s="130">
+        <f xml:space="preserve"> I30 - H30</f>
+        <v>9</v>
+      </c>
+      <c r="H30" s="117">
+        <v>44464</v>
+      </c>
+      <c r="I30" s="141">
+        <v>44473</v>
+      </c>
       <c r="J30" s="107"/>
       <c r="K30" s="155"/>
-      <c r="L30" s="107"/>
+      <c r="L30" s="107" t="s">
+        <v>139</v>
+      </c>
       <c r="M30" s="87"/>
       <c r="N30" s="87"/>
       <c r="O30" s="87"/>
@@ -14052,19 +14525,20 @@
     <row r="31" spans="1:229" s="86" customFormat="1">
       <c r="A31" s="82"/>
       <c r="B31" s="83"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="107"/>
+      <c r="C31" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G31" s="130"/>
       <c r="H31" s="117"/>
       <c r="I31" s="141"/>
       <c r="J31" s="107"/>
       <c r="K31" s="155"/>
-      <c r="L31" s="107" t="s">
-        <v>164</v>
-      </c>
+      <c r="L31" s="107"/>
       <c r="M31" s="87"/>
       <c r="N31" s="87"/>
       <c r="O31" s="87"/>
@@ -14286,18 +14760,28 @@
     <row r="32" spans="1:229" s="86" customFormat="1">
       <c r="A32" s="82"/>
       <c r="B32" s="83"/>
-      <c r="C32" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="D32" s="84"/>
-      <c r="E32" s="84"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="141"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F32" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" s="130">
+        <f t="shared" ref="G32:G34" si="7" xml:space="preserve"> I32 - H32</f>
+        <v>8</v>
+      </c>
+      <c r="H32" s="117">
+        <v>44464</v>
+      </c>
+      <c r="I32" s="141">
+        <v>44472</v>
+      </c>
       <c r="J32" s="107"/>
       <c r="K32" s="155"/>
-      <c r="L32" s="107"/>
+      <c r="L32" s="107" t="s">
+        <v>162</v>
+      </c>
       <c r="M32" s="87"/>
       <c r="N32" s="87"/>
       <c r="O32" s="87"/>
@@ -14519,19 +15003,20 @@
     <row r="33" spans="1:229" s="86" customFormat="1">
       <c r="A33" s="82"/>
       <c r="B33" s="83"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="123" t="s">
-        <v>163</v>
-      </c>
-      <c r="F33" s="76"/>
-      <c r="G33" s="107"/>
+      <c r="C33" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="130"/>
       <c r="H33" s="117"/>
       <c r="I33" s="141"/>
       <c r="J33" s="107"/>
       <c r="K33" s="155"/>
-      <c r="L33" s="107" t="s">
-        <v>165</v>
-      </c>
+      <c r="L33" s="107"/>
       <c r="M33" s="87"/>
       <c r="N33" s="87"/>
       <c r="O33" s="87"/>
@@ -14751,20 +15236,30 @@
       <c r="HU33" s="87"/>
     </row>
     <row r="34" spans="1:229" s="86" customFormat="1">
-      <c r="A34" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="152"/>
-      <c r="L34" s="105"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="84"/>
+      <c r="D34" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="130">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H34" s="117">
+        <v>44464</v>
+      </c>
+      <c r="I34" s="141">
+        <v>44472</v>
+      </c>
+      <c r="J34" s="107"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="107" t="s">
+        <v>163</v>
+      </c>
       <c r="M34" s="87"/>
       <c r="N34" s="87"/>
       <c r="O34" s="87"/>
@@ -14879,127 +15374,125 @@
       <c r="DT34" s="87"/>
       <c r="DU34" s="87"/>
       <c r="DV34" s="87"/>
-      <c r="DW34" s="74"/>
-      <c r="DX34" s="74"/>
-      <c r="DY34" s="74"/>
-      <c r="DZ34" s="74"/>
-      <c r="EA34" s="74"/>
-      <c r="EB34" s="74"/>
-      <c r="EC34" s="74"/>
-      <c r="ED34" s="74"/>
-      <c r="EE34" s="74"/>
-      <c r="EF34" s="74"/>
-      <c r="EG34" s="74"/>
-      <c r="EH34" s="74"/>
-      <c r="EI34" s="74"/>
-      <c r="EJ34" s="74"/>
-      <c r="EK34" s="74"/>
-      <c r="EL34" s="74"/>
-      <c r="EM34" s="74"/>
-      <c r="EN34" s="74"/>
-      <c r="EO34" s="74"/>
-      <c r="EP34" s="74"/>
-      <c r="EQ34" s="74"/>
-      <c r="ER34" s="74"/>
-      <c r="ES34" s="74"/>
-      <c r="ET34" s="74"/>
-      <c r="EU34" s="74"/>
-      <c r="EV34" s="74"/>
-      <c r="EW34" s="74"/>
-      <c r="EX34" s="74"/>
-      <c r="EY34" s="74"/>
-      <c r="EZ34" s="74"/>
-      <c r="FA34" s="74"/>
-      <c r="FB34" s="74"/>
-      <c r="FC34" s="74"/>
-      <c r="FD34" s="74"/>
-      <c r="FE34" s="74"/>
-      <c r="FF34" s="74"/>
-      <c r="FG34" s="74"/>
-      <c r="FH34" s="74"/>
-      <c r="FI34" s="74"/>
-      <c r="FJ34" s="74"/>
-      <c r="FK34" s="74"/>
-      <c r="FL34" s="74"/>
-      <c r="FM34" s="74"/>
-      <c r="FN34" s="74"/>
-      <c r="FO34" s="74"/>
-      <c r="FP34" s="74"/>
-      <c r="FQ34" s="74"/>
-      <c r="FR34" s="74"/>
-      <c r="FS34" s="74"/>
-      <c r="FT34" s="74"/>
-      <c r="FU34" s="74"/>
-      <c r="FV34" s="74"/>
-      <c r="FW34" s="74"/>
-      <c r="FX34" s="74"/>
-      <c r="FY34" s="74"/>
-      <c r="FZ34" s="74"/>
-      <c r="GA34" s="74"/>
-      <c r="GB34" s="74"/>
-      <c r="GC34" s="74"/>
-      <c r="GD34" s="74"/>
-      <c r="GE34" s="74"/>
-      <c r="GF34" s="74"/>
-      <c r="GG34" s="74"/>
-      <c r="GH34" s="74"/>
-      <c r="GI34" s="74"/>
-      <c r="GJ34" s="74"/>
-      <c r="GK34" s="74"/>
-      <c r="GL34" s="74"/>
-      <c r="GM34" s="74"/>
-      <c r="GN34" s="74"/>
-      <c r="GO34" s="74"/>
-      <c r="GP34" s="74"/>
-      <c r="GQ34" s="74"/>
-      <c r="GR34" s="74"/>
-      <c r="GS34" s="74"/>
-      <c r="GT34" s="74"/>
-      <c r="GU34" s="74"/>
-      <c r="GV34" s="74"/>
-      <c r="GW34" s="74"/>
-      <c r="GX34" s="74"/>
-      <c r="GY34" s="74"/>
-      <c r="GZ34" s="74"/>
-      <c r="HA34" s="74"/>
-      <c r="HB34" s="74"/>
-      <c r="HC34" s="74"/>
-      <c r="HD34" s="74"/>
-      <c r="HE34" s="74"/>
-      <c r="HF34" s="74"/>
-      <c r="HG34" s="74"/>
-      <c r="HH34" s="74"/>
-      <c r="HI34" s="74"/>
-      <c r="HJ34" s="74"/>
-      <c r="HK34" s="74"/>
-      <c r="HL34" s="74"/>
-      <c r="HM34" s="74"/>
-      <c r="HN34" s="74"/>
-      <c r="HO34" s="74"/>
-      <c r="HP34" s="74"/>
-      <c r="HQ34" s="74"/>
-      <c r="HR34" s="74"/>
-      <c r="HS34" s="74"/>
-      <c r="HT34" s="74"/>
-      <c r="HU34" s="74"/>
+      <c r="DW34" s="87"/>
+      <c r="DX34" s="80"/>
+      <c r="DY34" s="87"/>
+      <c r="DZ34" s="87"/>
+      <c r="EA34" s="87"/>
+      <c r="EB34" s="87"/>
+      <c r="EC34" s="87"/>
+      <c r="ED34" s="87"/>
+      <c r="EE34" s="80"/>
+      <c r="EF34" s="87"/>
+      <c r="EG34" s="87"/>
+      <c r="EH34" s="87"/>
+      <c r="EI34" s="87"/>
+      <c r="EJ34" s="87"/>
+      <c r="EK34" s="87"/>
+      <c r="EL34" s="87"/>
+      <c r="EM34" s="87"/>
+      <c r="EN34" s="87"/>
+      <c r="EO34" s="87"/>
+      <c r="EP34" s="87"/>
+      <c r="EQ34" s="87"/>
+      <c r="ER34" s="87"/>
+      <c r="ES34" s="80"/>
+      <c r="ET34" s="87"/>
+      <c r="EU34" s="87"/>
+      <c r="EV34" s="87"/>
+      <c r="EW34" s="87"/>
+      <c r="EX34" s="87"/>
+      <c r="EY34" s="87"/>
+      <c r="EZ34" s="87"/>
+      <c r="FA34" s="87"/>
+      <c r="FB34" s="87"/>
+      <c r="FC34" s="87"/>
+      <c r="FD34" s="87"/>
+      <c r="FE34" s="87"/>
+      <c r="FF34" s="87"/>
+      <c r="FG34" s="87"/>
+      <c r="FH34" s="87"/>
+      <c r="FI34" s="87"/>
+      <c r="FJ34" s="87"/>
+      <c r="FK34" s="87"/>
+      <c r="FL34" s="87"/>
+      <c r="FM34" s="87"/>
+      <c r="FN34" s="87"/>
+      <c r="FO34" s="87"/>
+      <c r="FP34" s="87"/>
+      <c r="FQ34" s="87"/>
+      <c r="FR34" s="87"/>
+      <c r="FS34" s="87"/>
+      <c r="FT34" s="87"/>
+      <c r="FU34" s="87"/>
+      <c r="FV34" s="87"/>
+      <c r="FW34" s="87"/>
+      <c r="FX34" s="80"/>
+      <c r="FY34" s="80"/>
+      <c r="FZ34" s="87"/>
+      <c r="GA34" s="87"/>
+      <c r="GB34" s="87"/>
+      <c r="GC34" s="87"/>
+      <c r="GD34" s="87"/>
+      <c r="GE34" s="87"/>
+      <c r="GF34" s="87"/>
+      <c r="GG34" s="87"/>
+      <c r="GH34" s="87"/>
+      <c r="GI34" s="87"/>
+      <c r="GJ34" s="87"/>
+      <c r="GK34" s="87"/>
+      <c r="GL34" s="87"/>
+      <c r="GM34" s="87"/>
+      <c r="GN34" s="87"/>
+      <c r="GO34" s="87"/>
+      <c r="GP34" s="87"/>
+      <c r="GQ34" s="87"/>
+      <c r="GR34" s="87"/>
+      <c r="GS34" s="87"/>
+      <c r="GT34" s="87"/>
+      <c r="GU34" s="87"/>
+      <c r="GV34" s="87"/>
+      <c r="GW34" s="87"/>
+      <c r="GX34" s="87"/>
+      <c r="GY34" s="87"/>
+      <c r="GZ34" s="87"/>
+      <c r="HA34" s="87"/>
+      <c r="HB34" s="87"/>
+      <c r="HC34" s="87"/>
+      <c r="HD34" s="87"/>
+      <c r="HE34" s="87"/>
+      <c r="HF34" s="87"/>
+      <c r="HG34" s="87"/>
+      <c r="HH34" s="87"/>
+      <c r="HI34" s="87"/>
+      <c r="HJ34" s="87"/>
+      <c r="HK34" s="87"/>
+      <c r="HL34" s="87"/>
+      <c r="HM34" s="87"/>
+      <c r="HN34" s="87"/>
+      <c r="HO34" s="87"/>
+      <c r="HP34" s="87"/>
+      <c r="HQ34" s="87"/>
+      <c r="HR34" s="87"/>
+      <c r="HS34" s="87"/>
+      <c r="HT34" s="87"/>
+      <c r="HU34" s="87"/>
     </row>
     <row r="35" spans="1:229" s="86" customFormat="1">
-      <c r="A35" s="82"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="84" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="106" t="s">
-        <v>109</v>
-      </c>
-      <c r="K35" s="153"/>
-      <c r="L35" s="107"/>
+      <c r="A35" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="152"/>
+      <c r="L35" s="105"/>
       <c r="M35" s="87"/>
       <c r="N35" s="87"/>
       <c r="O35" s="87"/>
@@ -15114,127 +15607,127 @@
       <c r="DT35" s="87"/>
       <c r="DU35" s="87"/>
       <c r="DV35" s="87"/>
-      <c r="DW35" s="87"/>
-      <c r="DX35" s="80"/>
-      <c r="DY35" s="87"/>
-      <c r="DZ35" s="87"/>
-      <c r="EA35" s="87"/>
-      <c r="EB35" s="87"/>
-      <c r="EC35" s="87"/>
-      <c r="ED35" s="87"/>
-      <c r="EE35" s="80"/>
-      <c r="EF35" s="87"/>
-      <c r="EG35" s="87"/>
-      <c r="EH35" s="87"/>
-      <c r="EI35" s="87"/>
-      <c r="EJ35" s="87"/>
-      <c r="EK35" s="87"/>
-      <c r="EL35" s="87"/>
-      <c r="EM35" s="87"/>
-      <c r="EN35" s="87"/>
-      <c r="EO35" s="87"/>
-      <c r="EP35" s="87"/>
-      <c r="EQ35" s="87"/>
-      <c r="ER35" s="87"/>
-      <c r="ES35" s="80"/>
-      <c r="ET35" s="87"/>
-      <c r="EU35" s="87"/>
-      <c r="EV35" s="87"/>
-      <c r="EW35" s="87"/>
-      <c r="EX35" s="87"/>
-      <c r="EY35" s="87"/>
-      <c r="EZ35" s="87"/>
-      <c r="FA35" s="87"/>
-      <c r="FB35" s="87"/>
-      <c r="FC35" s="87"/>
-      <c r="FD35" s="87"/>
-      <c r="FE35" s="87"/>
-      <c r="FF35" s="87"/>
-      <c r="FG35" s="87"/>
-      <c r="FH35" s="87"/>
-      <c r="FI35" s="87"/>
-      <c r="FJ35" s="87"/>
-      <c r="FK35" s="87"/>
-      <c r="FL35" s="87"/>
-      <c r="FM35" s="87"/>
-      <c r="FN35" s="87"/>
-      <c r="FO35" s="87"/>
-      <c r="FP35" s="87"/>
-      <c r="FQ35" s="87"/>
-      <c r="FR35" s="87"/>
-      <c r="FS35" s="87"/>
-      <c r="FT35" s="87"/>
-      <c r="FU35" s="87"/>
-      <c r="FV35" s="87"/>
-      <c r="FW35" s="87"/>
-      <c r="FX35" s="80"/>
-      <c r="FY35" s="80"/>
-      <c r="FZ35" s="87"/>
-      <c r="GA35" s="87"/>
-      <c r="GB35" s="87"/>
-      <c r="GC35" s="87"/>
-      <c r="GD35" s="87"/>
-      <c r="GE35" s="87"/>
-      <c r="GF35" s="87"/>
-      <c r="GG35" s="87"/>
-      <c r="GH35" s="87"/>
-      <c r="GI35" s="87"/>
-      <c r="GJ35" s="87"/>
-      <c r="GK35" s="87"/>
-      <c r="GL35" s="87"/>
-      <c r="GM35" s="87"/>
-      <c r="GN35" s="87"/>
-      <c r="GO35" s="87"/>
-      <c r="GP35" s="87"/>
-      <c r="GQ35" s="87"/>
-      <c r="GR35" s="87"/>
-      <c r="GS35" s="87"/>
-      <c r="GT35" s="87"/>
-      <c r="GU35" s="87"/>
-      <c r="GV35" s="87"/>
-      <c r="GW35" s="87"/>
-      <c r="GX35" s="87"/>
-      <c r="GY35" s="87"/>
-      <c r="GZ35" s="87"/>
-      <c r="HA35" s="87"/>
-      <c r="HB35" s="87"/>
-      <c r="HC35" s="87"/>
-      <c r="HD35" s="87"/>
-      <c r="HE35" s="87"/>
-      <c r="HF35" s="87"/>
-      <c r="HG35" s="87"/>
-      <c r="HH35" s="87"/>
-      <c r="HI35" s="87"/>
-      <c r="HJ35" s="87"/>
-      <c r="HK35" s="87"/>
-      <c r="HL35" s="87"/>
-      <c r="HM35" s="87"/>
-      <c r="HN35" s="87"/>
-      <c r="HO35" s="87"/>
-      <c r="HP35" s="87"/>
-      <c r="HQ35" s="87"/>
-      <c r="HR35" s="87"/>
-      <c r="HS35" s="87"/>
-      <c r="HT35" s="87"/>
-      <c r="HU35" s="87"/>
+      <c r="DW35" s="74"/>
+      <c r="DX35" s="74"/>
+      <c r="DY35" s="74"/>
+      <c r="DZ35" s="74"/>
+      <c r="EA35" s="74"/>
+      <c r="EB35" s="74"/>
+      <c r="EC35" s="74"/>
+      <c r="ED35" s="74"/>
+      <c r="EE35" s="74"/>
+      <c r="EF35" s="74"/>
+      <c r="EG35" s="74"/>
+      <c r="EH35" s="74"/>
+      <c r="EI35" s="74"/>
+      <c r="EJ35" s="74"/>
+      <c r="EK35" s="74"/>
+      <c r="EL35" s="74"/>
+      <c r="EM35" s="74"/>
+      <c r="EN35" s="74"/>
+      <c r="EO35" s="74"/>
+      <c r="EP35" s="74"/>
+      <c r="EQ35" s="74"/>
+      <c r="ER35" s="74"/>
+      <c r="ES35" s="74"/>
+      <c r="ET35" s="74"/>
+      <c r="EU35" s="74"/>
+      <c r="EV35" s="74"/>
+      <c r="EW35" s="74"/>
+      <c r="EX35" s="74"/>
+      <c r="EY35" s="74"/>
+      <c r="EZ35" s="74"/>
+      <c r="FA35" s="74"/>
+      <c r="FB35" s="74"/>
+      <c r="FC35" s="74"/>
+      <c r="FD35" s="74"/>
+      <c r="FE35" s="74"/>
+      <c r="FF35" s="74"/>
+      <c r="FG35" s="74"/>
+      <c r="FH35" s="74"/>
+      <c r="FI35" s="74"/>
+      <c r="FJ35" s="74"/>
+      <c r="FK35" s="74"/>
+      <c r="FL35" s="74"/>
+      <c r="FM35" s="74"/>
+      <c r="FN35" s="74"/>
+      <c r="FO35" s="74"/>
+      <c r="FP35" s="74"/>
+      <c r="FQ35" s="74"/>
+      <c r="FR35" s="74"/>
+      <c r="FS35" s="74"/>
+      <c r="FT35" s="74"/>
+      <c r="FU35" s="74"/>
+      <c r="FV35" s="74"/>
+      <c r="FW35" s="74"/>
+      <c r="FX35" s="74"/>
+      <c r="FY35" s="74"/>
+      <c r="FZ35" s="74"/>
+      <c r="GA35" s="74"/>
+      <c r="GB35" s="74"/>
+      <c r="GC35" s="74"/>
+      <c r="GD35" s="74"/>
+      <c r="GE35" s="74"/>
+      <c r="GF35" s="74"/>
+      <c r="GG35" s="74"/>
+      <c r="GH35" s="74"/>
+      <c r="GI35" s="74"/>
+      <c r="GJ35" s="74"/>
+      <c r="GK35" s="74"/>
+      <c r="GL35" s="74"/>
+      <c r="GM35" s="74"/>
+      <c r="GN35" s="74"/>
+      <c r="GO35" s="74"/>
+      <c r="GP35" s="74"/>
+      <c r="GQ35" s="74"/>
+      <c r="GR35" s="74"/>
+      <c r="GS35" s="74"/>
+      <c r="GT35" s="74"/>
+      <c r="GU35" s="74"/>
+      <c r="GV35" s="74"/>
+      <c r="GW35" s="74"/>
+      <c r="GX35" s="74"/>
+      <c r="GY35" s="74"/>
+      <c r="GZ35" s="74"/>
+      <c r="HA35" s="74"/>
+      <c r="HB35" s="74"/>
+      <c r="HC35" s="74"/>
+      <c r="HD35" s="74"/>
+      <c r="HE35" s="74"/>
+      <c r="HF35" s="74"/>
+      <c r="HG35" s="74"/>
+      <c r="HH35" s="74"/>
+      <c r="HI35" s="74"/>
+      <c r="HJ35" s="74"/>
+      <c r="HK35" s="74"/>
+      <c r="HL35" s="74"/>
+      <c r="HM35" s="74"/>
+      <c r="HN35" s="74"/>
+      <c r="HO35" s="74"/>
+      <c r="HP35" s="74"/>
+      <c r="HQ35" s="74"/>
+      <c r="HR35" s="74"/>
+      <c r="HS35" s="74"/>
+      <c r="HT35" s="74"/>
+      <c r="HU35" s="74"/>
     </row>
     <row r="36" spans="1:229" s="86" customFormat="1">
       <c r="A36" s="82"/>
       <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
+      <c r="C36" s="86" t="s">
+        <v>176</v>
+      </c>
       <c r="D36" s="84"/>
-      <c r="E36" s="84" t="s">
-        <v>158</v>
-      </c>
+      <c r="E36" s="84"/>
       <c r="F36" s="76"/>
       <c r="G36" s="107"/>
       <c r="H36" s="117"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="106"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="106" t="s">
+        <v>104</v>
+      </c>
       <c r="K36" s="153"/>
-      <c r="L36" s="107" t="s">
-        <v>161</v>
-      </c>
+      <c r="L36" s="107"/>
       <c r="M36" s="87"/>
       <c r="N36" s="87"/>
       <c r="O36" s="87"/>
@@ -15459,16 +15952,25 @@
       <c r="C37" s="84"/>
       <c r="D37" s="84"/>
       <c r="E37" s="84" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="76"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="121"/>
+        <v>177</v>
+      </c>
+      <c r="F37" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="130">
+        <f t="shared" ref="G37:G45" si="8" xml:space="preserve"> I37 - H37</f>
+        <v>2</v>
+      </c>
+      <c r="H37" s="117">
+        <v>44478</v>
+      </c>
+      <c r="I37" s="140">
+        <v>44480</v>
+      </c>
       <c r="J37" s="106"/>
       <c r="K37" s="153"/>
       <c r="L37" s="107" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="M37" s="87"/>
       <c r="N37" s="87"/>
@@ -15691,18 +16193,29 @@
     <row r="38" spans="1:229" s="86" customFormat="1">
       <c r="A38" s="82"/>
       <c r="B38" s="83"/>
-      <c r="C38" s="84" t="s">
-        <v>118</v>
-      </c>
+      <c r="C38" s="84"/>
       <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="121"/>
+      <c r="E38" s="84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="130">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H38" s="117">
+        <v>44480</v>
+      </c>
+      <c r="I38" s="140">
+        <v>44482</v>
+      </c>
       <c r="J38" s="106"/>
       <c r="K38" s="153"/>
-      <c r="L38" s="107"/>
+      <c r="L38" s="107" t="s">
+        <v>186</v>
+      </c>
       <c r="M38" s="87"/>
       <c r="N38" s="87"/>
       <c r="O38" s="87"/>
@@ -15922,20 +16435,31 @@
       <c r="HU38" s="87"/>
     </row>
     <row r="39" spans="1:229" s="86" customFormat="1">
-      <c r="A39" s="89"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="83"/>
+      <c r="C39" s="84"/>
       <c r="D39" s="84"/>
-      <c r="E39" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="76"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="122"/>
-      <c r="J39" s="108"/>
-      <c r="K39" s="154"/>
-      <c r="L39" s="113"/>
+      <c r="E39" s="84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F39" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="G39" s="130">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H39" s="117">
+        <v>44483</v>
+      </c>
+      <c r="I39" s="214">
+        <v>44491</v>
+      </c>
+      <c r="J39" s="106"/>
+      <c r="K39" s="153"/>
+      <c r="L39" s="107" t="s">
+        <v>187</v>
+      </c>
       <c r="M39" s="87"/>
       <c r="N39" s="87"/>
       <c r="O39" s="87"/>
@@ -16155,20 +16679,31 @@
       <c r="HU39" s="87"/>
     </row>
     <row r="40" spans="1:229" s="86" customFormat="1">
-      <c r="A40" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="105"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="120"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="152"/>
-      <c r="L40" s="105"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="83"/>
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="F40" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="G40" s="130">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="H40" s="117">
+        <v>44483</v>
+      </c>
+      <c r="I40" s="214">
+        <v>44491</v>
+      </c>
+      <c r="J40" s="106"/>
+      <c r="K40" s="153"/>
+      <c r="L40" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="M40" s="87"/>
       <c r="N40" s="87"/>
       <c r="O40" s="87"/>
@@ -16283,125 +16818,122 @@
       <c r="DT40" s="87"/>
       <c r="DU40" s="87"/>
       <c r="DV40" s="87"/>
-      <c r="DW40" s="74"/>
-      <c r="DX40" s="74"/>
-      <c r="DY40" s="74"/>
-      <c r="DZ40" s="74"/>
-      <c r="EA40" s="74"/>
-      <c r="EB40" s="74"/>
-      <c r="EC40" s="74"/>
-      <c r="ED40" s="74"/>
-      <c r="EE40" s="74"/>
-      <c r="EF40" s="74"/>
-      <c r="EG40" s="74"/>
-      <c r="EH40" s="74"/>
-      <c r="EI40" s="74"/>
-      <c r="EJ40" s="74"/>
-      <c r="EK40" s="74"/>
-      <c r="EL40" s="74"/>
-      <c r="EM40" s="74"/>
-      <c r="EN40" s="74"/>
-      <c r="EO40" s="74"/>
-      <c r="EP40" s="74"/>
-      <c r="EQ40" s="74"/>
-      <c r="ER40" s="74"/>
-      <c r="ES40" s="74"/>
-      <c r="ET40" s="74"/>
-      <c r="EU40" s="74"/>
-      <c r="EV40" s="74"/>
-      <c r="EW40" s="74"/>
-      <c r="EX40" s="74"/>
-      <c r="EY40" s="74"/>
-      <c r="EZ40" s="74"/>
-      <c r="FA40" s="74"/>
-      <c r="FB40" s="74"/>
-      <c r="FC40" s="74"/>
-      <c r="FD40" s="74"/>
-      <c r="FE40" s="74"/>
-      <c r="FF40" s="74"/>
-      <c r="FG40" s="74"/>
-      <c r="FH40" s="74"/>
-      <c r="FI40" s="74"/>
-      <c r="FJ40" s="74"/>
-      <c r="FK40" s="74"/>
-      <c r="FL40" s="74"/>
-      <c r="FM40" s="74"/>
-      <c r="FN40" s="74"/>
-      <c r="FO40" s="74"/>
-      <c r="FP40" s="74"/>
-      <c r="FQ40" s="74"/>
-      <c r="FR40" s="74"/>
-      <c r="FS40" s="74"/>
-      <c r="FT40" s="74"/>
-      <c r="FU40" s="74"/>
-      <c r="FV40" s="74"/>
-      <c r="FW40" s="74"/>
-      <c r="FX40" s="74"/>
-      <c r="FY40" s="74"/>
-      <c r="FZ40" s="74"/>
-      <c r="GA40" s="74"/>
-      <c r="GB40" s="74"/>
-      <c r="GC40" s="74"/>
-      <c r="GD40" s="74"/>
-      <c r="GE40" s="74"/>
-      <c r="GF40" s="74"/>
-      <c r="GG40" s="74"/>
-      <c r="GH40" s="74"/>
-      <c r="GI40" s="74"/>
-      <c r="GJ40" s="74"/>
-      <c r="GK40" s="74"/>
-      <c r="GL40" s="74"/>
-      <c r="GM40" s="74"/>
-      <c r="GN40" s="74"/>
-      <c r="GO40" s="74"/>
-      <c r="GP40" s="74"/>
-      <c r="GQ40" s="74"/>
-      <c r="GR40" s="74"/>
-      <c r="GS40" s="74"/>
-      <c r="GT40" s="74"/>
-      <c r="GU40" s="74"/>
-      <c r="GV40" s="74"/>
-      <c r="GW40" s="74"/>
-      <c r="GX40" s="74"/>
-      <c r="GY40" s="74"/>
-      <c r="GZ40" s="74"/>
-      <c r="HA40" s="74"/>
-      <c r="HB40" s="74"/>
-      <c r="HC40" s="74"/>
-      <c r="HD40" s="74"/>
-      <c r="HE40" s="74"/>
-      <c r="HF40" s="74"/>
-      <c r="HG40" s="74"/>
-      <c r="HH40" s="74"/>
-      <c r="HI40" s="74"/>
-      <c r="HJ40" s="74"/>
-      <c r="HK40" s="74"/>
-      <c r="HL40" s="74"/>
-      <c r="HM40" s="74"/>
-      <c r="HN40" s="74"/>
-      <c r="HO40" s="74"/>
-      <c r="HP40" s="74"/>
-      <c r="HQ40" s="74"/>
-      <c r="HR40" s="74"/>
-      <c r="HS40" s="74"/>
-      <c r="HT40" s="74"/>
-      <c r="HU40" s="74"/>
+      <c r="DW40" s="87"/>
+      <c r="DX40" s="80"/>
+      <c r="DY40" s="87"/>
+      <c r="DZ40" s="87"/>
+      <c r="EA40" s="87"/>
+      <c r="EB40" s="87"/>
+      <c r="EC40" s="87"/>
+      <c r="ED40" s="87"/>
+      <c r="EE40" s="80"/>
+      <c r="EF40" s="87"/>
+      <c r="EG40" s="87"/>
+      <c r="EH40" s="87"/>
+      <c r="EI40" s="87"/>
+      <c r="EJ40" s="87"/>
+      <c r="EK40" s="87"/>
+      <c r="EL40" s="87"/>
+      <c r="EM40" s="87"/>
+      <c r="EN40" s="87"/>
+      <c r="EO40" s="87"/>
+      <c r="EP40" s="87"/>
+      <c r="EQ40" s="87"/>
+      <c r="ER40" s="87"/>
+      <c r="ES40" s="80"/>
+      <c r="ET40" s="87"/>
+      <c r="EU40" s="87"/>
+      <c r="EV40" s="87"/>
+      <c r="EW40" s="87"/>
+      <c r="EX40" s="87"/>
+      <c r="EY40" s="87"/>
+      <c r="EZ40" s="87"/>
+      <c r="FA40" s="87"/>
+      <c r="FB40" s="87"/>
+      <c r="FC40" s="87"/>
+      <c r="FD40" s="87"/>
+      <c r="FE40" s="87"/>
+      <c r="FF40" s="87"/>
+      <c r="FG40" s="87"/>
+      <c r="FH40" s="87"/>
+      <c r="FI40" s="87"/>
+      <c r="FJ40" s="87"/>
+      <c r="FK40" s="87"/>
+      <c r="FL40" s="87"/>
+      <c r="FM40" s="87"/>
+      <c r="FN40" s="87"/>
+      <c r="FO40" s="87"/>
+      <c r="FP40" s="87"/>
+      <c r="FQ40" s="87"/>
+      <c r="FR40" s="87"/>
+      <c r="FS40" s="87"/>
+      <c r="FT40" s="87"/>
+      <c r="FU40" s="87"/>
+      <c r="FV40" s="87"/>
+      <c r="FW40" s="87"/>
+      <c r="FX40" s="80"/>
+      <c r="FY40" s="80"/>
+      <c r="FZ40" s="87"/>
+      <c r="GA40" s="87"/>
+      <c r="GB40" s="87"/>
+      <c r="GC40" s="87"/>
+      <c r="GD40" s="87"/>
+      <c r="GE40" s="87"/>
+      <c r="GF40" s="87"/>
+      <c r="GG40" s="87"/>
+      <c r="GH40" s="87"/>
+      <c r="GI40" s="87"/>
+      <c r="GJ40" s="87"/>
+      <c r="GK40" s="87"/>
+      <c r="GL40" s="87"/>
+      <c r="GM40" s="87"/>
+      <c r="GN40" s="87"/>
+      <c r="GO40" s="87"/>
+      <c r="GP40" s="87"/>
+      <c r="GQ40" s="87"/>
+      <c r="GR40" s="87"/>
+      <c r="GS40" s="87"/>
+      <c r="GT40" s="87"/>
+      <c r="GU40" s="87"/>
+      <c r="GV40" s="87"/>
+      <c r="GW40" s="87"/>
+      <c r="GX40" s="87"/>
+      <c r="GY40" s="87"/>
+      <c r="GZ40" s="87"/>
+      <c r="HA40" s="87"/>
+      <c r="HB40" s="87"/>
+      <c r="HC40" s="87"/>
+      <c r="HD40" s="87"/>
+      <c r="HE40" s="87"/>
+      <c r="HF40" s="87"/>
+      <c r="HG40" s="87"/>
+      <c r="HH40" s="87"/>
+      <c r="HI40" s="87"/>
+      <c r="HJ40" s="87"/>
+      <c r="HK40" s="87"/>
+      <c r="HL40" s="87"/>
+      <c r="HM40" s="87"/>
+      <c r="HN40" s="87"/>
+      <c r="HO40" s="87"/>
+      <c r="HP40" s="87"/>
+      <c r="HQ40" s="87"/>
+      <c r="HR40" s="87"/>
+      <c r="HS40" s="87"/>
+      <c r="HT40" s="87"/>
+      <c r="HU40" s="87"/>
     </row>
     <row r="41" spans="1:229" s="86" customFormat="1">
       <c r="A41" s="82"/>
       <c r="B41" s="83"/>
       <c r="C41" s="84" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="D41" s="84"/>
       <c r="E41" s="84"/>
       <c r="F41" s="76"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="106" t="s">
-        <v>109</v>
-      </c>
+      <c r="G41" s="130"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="106"/>
       <c r="K41" s="153"/>
       <c r="L41" s="107"/>
       <c r="M41" s="87"/>
@@ -16623,20 +17155,31 @@
       <c r="HU41" s="87"/>
     </row>
     <row r="42" spans="1:229" s="86" customFormat="1">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="84"/>
       <c r="D42" s="84"/>
-      <c r="E42" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="76"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="122"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="154"/>
-      <c r="L42" s="113"/>
+      <c r="E42" s="84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="130">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="117">
+        <v>44491</v>
+      </c>
+      <c r="I42" s="140">
+        <v>44493</v>
+      </c>
+      <c r="J42" s="106"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="107" t="s">
+        <v>159</v>
+      </c>
       <c r="M42" s="87"/>
       <c r="N42" s="87"/>
       <c r="O42" s="87"/>
@@ -16856,22 +17399,31 @@
       <c r="HU42" s="87"/>
     </row>
     <row r="43" spans="1:229" s="86" customFormat="1">
-      <c r="A43" s="89"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="91" t="s">
-        <v>107</v>
-      </c>
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="84"/>
       <c r="D43" s="84"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="122"/>
-      <c r="J43" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="K43" s="154"/>
-      <c r="L43" s="113"/>
+      <c r="E43" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43" s="130">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="117">
+        <v>44491</v>
+      </c>
+      <c r="I43" s="140">
+        <v>44493</v>
+      </c>
+      <c r="J43" s="106"/>
+      <c r="K43" s="153"/>
+      <c r="L43" s="107" t="s">
+        <v>158</v>
+      </c>
       <c r="M43" s="87"/>
       <c r="N43" s="87"/>
       <c r="O43" s="87"/>
@@ -17091,20 +17643,20 @@
       <c r="HU43" s="87"/>
     </row>
     <row r="44" spans="1:229" s="86" customFormat="1">
-      <c r="A44" s="89"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="84" t="s">
+        <v>118</v>
+      </c>
       <c r="D44" s="84"/>
-      <c r="E44" s="91" t="s">
-        <v>121</v>
-      </c>
+      <c r="E44" s="84"/>
       <c r="F44" s="76"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="122"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="154"/>
-      <c r="L44" s="113"/>
+      <c r="G44" s="130"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="140"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="153"/>
+      <c r="L44" s="107"/>
       <c r="M44" s="87"/>
       <c r="N44" s="87"/>
       <c r="O44" s="87"/>
@@ -17324,20 +17876,31 @@
       <c r="HU44" s="87"/>
     </row>
     <row r="45" spans="1:229" s="86" customFormat="1">
-      <c r="A45" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="78"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="120"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="152"/>
-      <c r="L45" s="105"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="76" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="130">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="H45" s="118">
+        <v>44494</v>
+      </c>
+      <c r="I45" s="213">
+        <v>44498</v>
+      </c>
+      <c r="J45" s="108"/>
+      <c r="K45" s="154"/>
+      <c r="L45" s="113" t="s">
+        <v>189</v>
+      </c>
       <c r="M45" s="87"/>
       <c r="N45" s="87"/>
       <c r="O45" s="87"/>
@@ -17452,129 +18015,125 @@
       <c r="DT45" s="87"/>
       <c r="DU45" s="87"/>
       <c r="DV45" s="87"/>
-      <c r="DW45" s="74"/>
-      <c r="DX45" s="74"/>
-      <c r="DY45" s="74"/>
-      <c r="DZ45" s="74"/>
-      <c r="EA45" s="74"/>
-      <c r="EB45" s="74"/>
-      <c r="EC45" s="74"/>
-      <c r="ED45" s="74"/>
-      <c r="EE45" s="74"/>
-      <c r="EF45" s="74"/>
-      <c r="EG45" s="74"/>
-      <c r="EH45" s="74"/>
-      <c r="EI45" s="74"/>
-      <c r="EJ45" s="74"/>
-      <c r="EK45" s="74"/>
-      <c r="EL45" s="74"/>
-      <c r="EM45" s="74"/>
-      <c r="EN45" s="74"/>
-      <c r="EO45" s="74"/>
-      <c r="EP45" s="74"/>
-      <c r="EQ45" s="74"/>
-      <c r="ER45" s="74"/>
-      <c r="ES45" s="74"/>
-      <c r="ET45" s="74"/>
-      <c r="EU45" s="74"/>
-      <c r="EV45" s="74"/>
-      <c r="EW45" s="74"/>
-      <c r="EX45" s="74"/>
-      <c r="EY45" s="74"/>
-      <c r="EZ45" s="74"/>
-      <c r="FA45" s="74"/>
-      <c r="FB45" s="74"/>
-      <c r="FC45" s="74"/>
-      <c r="FD45" s="74"/>
-      <c r="FE45" s="74"/>
-      <c r="FF45" s="74"/>
-      <c r="FG45" s="74"/>
-      <c r="FH45" s="74"/>
-      <c r="FI45" s="74"/>
-      <c r="FJ45" s="74"/>
-      <c r="FK45" s="74"/>
-      <c r="FL45" s="74"/>
-      <c r="FM45" s="74"/>
-      <c r="FN45" s="74"/>
-      <c r="FO45" s="74"/>
-      <c r="FP45" s="74"/>
-      <c r="FQ45" s="74"/>
-      <c r="FR45" s="74"/>
-      <c r="FS45" s="74"/>
-      <c r="FT45" s="74"/>
-      <c r="FU45" s="74"/>
-      <c r="FV45" s="74"/>
-      <c r="FW45" s="74"/>
-      <c r="FX45" s="74"/>
-      <c r="FY45" s="74"/>
-      <c r="FZ45" s="74"/>
-      <c r="GA45" s="74"/>
-      <c r="GB45" s="74"/>
-      <c r="GC45" s="74"/>
-      <c r="GD45" s="74"/>
-      <c r="GE45" s="74"/>
-      <c r="GF45" s="74"/>
-      <c r="GG45" s="74"/>
-      <c r="GH45" s="74"/>
-      <c r="GI45" s="74"/>
-      <c r="GJ45" s="74"/>
-      <c r="GK45" s="74"/>
-      <c r="GL45" s="74"/>
-      <c r="GM45" s="74"/>
-      <c r="GN45" s="74"/>
-      <c r="GO45" s="74"/>
-      <c r="GP45" s="74"/>
-      <c r="GQ45" s="74"/>
-      <c r="GR45" s="74"/>
-      <c r="GS45" s="74"/>
-      <c r="GT45" s="74"/>
-      <c r="GU45" s="74"/>
-      <c r="GV45" s="74"/>
-      <c r="GW45" s="74"/>
-      <c r="GX45" s="74"/>
-      <c r="GY45" s="74"/>
-      <c r="GZ45" s="74"/>
-      <c r="HA45" s="74"/>
-      <c r="HB45" s="74"/>
-      <c r="HC45" s="74"/>
-      <c r="HD45" s="74"/>
-      <c r="HE45" s="74"/>
-      <c r="HF45" s="74"/>
-      <c r="HG45" s="74"/>
-      <c r="HH45" s="74"/>
-      <c r="HI45" s="74"/>
-      <c r="HJ45" s="74"/>
-      <c r="HK45" s="74"/>
-      <c r="HL45" s="74"/>
-      <c r="HM45" s="74"/>
-      <c r="HN45" s="74"/>
-      <c r="HO45" s="74"/>
-      <c r="HP45" s="74"/>
-      <c r="HQ45" s="74"/>
-      <c r="HR45" s="74"/>
-      <c r="HS45" s="74"/>
-      <c r="HT45" s="74"/>
-      <c r="HU45" s="74"/>
+      <c r="DW45" s="87"/>
+      <c r="DX45" s="80"/>
+      <c r="DY45" s="87"/>
+      <c r="DZ45" s="87"/>
+      <c r="EA45" s="87"/>
+      <c r="EB45" s="87"/>
+      <c r="EC45" s="87"/>
+      <c r="ED45" s="87"/>
+      <c r="EE45" s="80"/>
+      <c r="EF45" s="87"/>
+      <c r="EG45" s="87"/>
+      <c r="EH45" s="87"/>
+      <c r="EI45" s="87"/>
+      <c r="EJ45" s="87"/>
+      <c r="EK45" s="87"/>
+      <c r="EL45" s="87"/>
+      <c r="EM45" s="87"/>
+      <c r="EN45" s="87"/>
+      <c r="EO45" s="87"/>
+      <c r="EP45" s="87"/>
+      <c r="EQ45" s="87"/>
+      <c r="ER45" s="87"/>
+      <c r="ES45" s="80"/>
+      <c r="ET45" s="87"/>
+      <c r="EU45" s="87"/>
+      <c r="EV45" s="87"/>
+      <c r="EW45" s="87"/>
+      <c r="EX45" s="87"/>
+      <c r="EY45" s="87"/>
+      <c r="EZ45" s="87"/>
+      <c r="FA45" s="87"/>
+      <c r="FB45" s="87"/>
+      <c r="FC45" s="87"/>
+      <c r="FD45" s="87"/>
+      <c r="FE45" s="87"/>
+      <c r="FF45" s="87"/>
+      <c r="FG45" s="87"/>
+      <c r="FH45" s="87"/>
+      <c r="FI45" s="87"/>
+      <c r="FJ45" s="87"/>
+      <c r="FK45" s="87"/>
+      <c r="FL45" s="87"/>
+      <c r="FM45" s="87"/>
+      <c r="FN45" s="87"/>
+      <c r="FO45" s="87"/>
+      <c r="FP45" s="87"/>
+      <c r="FQ45" s="87"/>
+      <c r="FR45" s="87"/>
+      <c r="FS45" s="87"/>
+      <c r="FT45" s="87"/>
+      <c r="FU45" s="87"/>
+      <c r="FV45" s="87"/>
+      <c r="FW45" s="87"/>
+      <c r="FX45" s="80"/>
+      <c r="FY45" s="80"/>
+      <c r="FZ45" s="87"/>
+      <c r="GA45" s="87"/>
+      <c r="GB45" s="87"/>
+      <c r="GC45" s="87"/>
+      <c r="GD45" s="87"/>
+      <c r="GE45" s="87"/>
+      <c r="GF45" s="87"/>
+      <c r="GG45" s="87"/>
+      <c r="GH45" s="87"/>
+      <c r="GI45" s="87"/>
+      <c r="GJ45" s="87"/>
+      <c r="GK45" s="87"/>
+      <c r="GL45" s="87"/>
+      <c r="GM45" s="87"/>
+      <c r="GN45" s="87"/>
+      <c r="GO45" s="87"/>
+      <c r="GP45" s="87"/>
+      <c r="GQ45" s="87"/>
+      <c r="GR45" s="87"/>
+      <c r="GS45" s="87"/>
+      <c r="GT45" s="87"/>
+      <c r="GU45" s="87"/>
+      <c r="GV45" s="87"/>
+      <c r="GW45" s="87"/>
+      <c r="GX45" s="87"/>
+      <c r="GY45" s="87"/>
+      <c r="GZ45" s="87"/>
+      <c r="HA45" s="87"/>
+      <c r="HB45" s="87"/>
+      <c r="HC45" s="87"/>
+      <c r="HD45" s="87"/>
+      <c r="HE45" s="87"/>
+      <c r="HF45" s="87"/>
+      <c r="HG45" s="87"/>
+      <c r="HH45" s="87"/>
+      <c r="HI45" s="87"/>
+      <c r="HJ45" s="87"/>
+      <c r="HK45" s="87"/>
+      <c r="HL45" s="87"/>
+      <c r="HM45" s="87"/>
+      <c r="HN45" s="87"/>
+      <c r="HO45" s="87"/>
+      <c r="HP45" s="87"/>
+      <c r="HQ45" s="87"/>
+      <c r="HR45" s="87"/>
+      <c r="HS45" s="87"/>
+      <c r="HT45" s="87"/>
+      <c r="HU45" s="87"/>
     </row>
     <row r="46" spans="1:229" s="86" customFormat="1">
-      <c r="A46" s="89"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="122"/>
-      <c r="J46" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="K46" s="154"/>
-      <c r="L46" s="171" t="s">
-        <v>127</v>
-      </c>
+      <c r="A46" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="78"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="105"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="105"/>
       <c r="M46" s="87"/>
       <c r="N46" s="87"/>
       <c r="O46" s="87"/>
@@ -17689,125 +18248,127 @@
       <c r="DT46" s="87"/>
       <c r="DU46" s="87"/>
       <c r="DV46" s="87"/>
-      <c r="DW46" s="87"/>
-      <c r="DX46" s="80"/>
-      <c r="DY46" s="87"/>
-      <c r="DZ46" s="87"/>
-      <c r="EA46" s="87"/>
-      <c r="EB46" s="87"/>
-      <c r="EC46" s="87"/>
-      <c r="ED46" s="87"/>
-      <c r="EE46" s="80"/>
-      <c r="EF46" s="87"/>
-      <c r="EG46" s="87"/>
-      <c r="EH46" s="87"/>
-      <c r="EI46" s="87"/>
-      <c r="EJ46" s="87"/>
-      <c r="EK46" s="87"/>
-      <c r="EL46" s="87"/>
-      <c r="EM46" s="87"/>
-      <c r="EN46" s="87"/>
-      <c r="EO46" s="87"/>
-      <c r="EP46" s="87"/>
-      <c r="EQ46" s="87"/>
-      <c r="ER46" s="87"/>
-      <c r="ES46" s="80"/>
-      <c r="ET46" s="87"/>
-      <c r="EU46" s="87"/>
-      <c r="EV46" s="87"/>
-      <c r="EW46" s="87"/>
-      <c r="EX46" s="87"/>
-      <c r="EY46" s="87"/>
-      <c r="EZ46" s="87"/>
-      <c r="FA46" s="87"/>
-      <c r="FB46" s="87"/>
-      <c r="FC46" s="87"/>
-      <c r="FD46" s="87"/>
-      <c r="FE46" s="87"/>
-      <c r="FF46" s="87"/>
-      <c r="FG46" s="87"/>
-      <c r="FH46" s="87"/>
-      <c r="FI46" s="87"/>
-      <c r="FJ46" s="87"/>
-      <c r="FK46" s="87"/>
-      <c r="FL46" s="87"/>
-      <c r="FM46" s="87"/>
-      <c r="FN46" s="87"/>
-      <c r="FO46" s="87"/>
-      <c r="FP46" s="87"/>
-      <c r="FQ46" s="87"/>
-      <c r="FR46" s="87"/>
-      <c r="FS46" s="87"/>
-      <c r="FT46" s="87"/>
-      <c r="FU46" s="87"/>
-      <c r="FV46" s="87"/>
-      <c r="FW46" s="87"/>
-      <c r="FX46" s="80"/>
-      <c r="FY46" s="80"/>
-      <c r="FZ46" s="87"/>
-      <c r="GA46" s="87"/>
-      <c r="GB46" s="87"/>
-      <c r="GC46" s="87"/>
-      <c r="GD46" s="87"/>
-      <c r="GE46" s="87"/>
-      <c r="GF46" s="87"/>
-      <c r="GG46" s="87"/>
-      <c r="GH46" s="87"/>
-      <c r="GI46" s="87"/>
-      <c r="GJ46" s="87"/>
-      <c r="GK46" s="87"/>
-      <c r="GL46" s="87"/>
-      <c r="GM46" s="87"/>
-      <c r="GN46" s="87"/>
-      <c r="GO46" s="87"/>
-      <c r="GP46" s="87"/>
-      <c r="GQ46" s="87"/>
-      <c r="GR46" s="87"/>
-      <c r="GS46" s="87"/>
-      <c r="GT46" s="87"/>
-      <c r="GU46" s="87"/>
-      <c r="GV46" s="87"/>
-      <c r="GW46" s="87"/>
-      <c r="GX46" s="87"/>
-      <c r="GY46" s="87"/>
-      <c r="GZ46" s="87"/>
-      <c r="HA46" s="87"/>
-      <c r="HB46" s="87"/>
-      <c r="HC46" s="87"/>
-      <c r="HD46" s="87"/>
-      <c r="HE46" s="87"/>
-      <c r="HF46" s="87"/>
-      <c r="HG46" s="87"/>
-      <c r="HH46" s="87"/>
-      <c r="HI46" s="87"/>
-      <c r="HJ46" s="87"/>
-      <c r="HK46" s="87"/>
-      <c r="HL46" s="87"/>
-      <c r="HM46" s="87"/>
-      <c r="HN46" s="87"/>
-      <c r="HO46" s="87"/>
-      <c r="HP46" s="87"/>
-      <c r="HQ46" s="87"/>
-      <c r="HR46" s="87"/>
-      <c r="HS46" s="87"/>
-      <c r="HT46" s="87"/>
-      <c r="HU46" s="87"/>
+      <c r="DW46" s="74"/>
+      <c r="DX46" s="74"/>
+      <c r="DY46" s="74"/>
+      <c r="DZ46" s="74"/>
+      <c r="EA46" s="74"/>
+      <c r="EB46" s="74"/>
+      <c r="EC46" s="74"/>
+      <c r="ED46" s="74"/>
+      <c r="EE46" s="74"/>
+      <c r="EF46" s="74"/>
+      <c r="EG46" s="74"/>
+      <c r="EH46" s="74"/>
+      <c r="EI46" s="74"/>
+      <c r="EJ46" s="74"/>
+      <c r="EK46" s="74"/>
+      <c r="EL46" s="74"/>
+      <c r="EM46" s="74"/>
+      <c r="EN46" s="74"/>
+      <c r="EO46" s="74"/>
+      <c r="EP46" s="74"/>
+      <c r="EQ46" s="74"/>
+      <c r="ER46" s="74"/>
+      <c r="ES46" s="74"/>
+      <c r="ET46" s="74"/>
+      <c r="EU46" s="74"/>
+      <c r="EV46" s="74"/>
+      <c r="EW46" s="74"/>
+      <c r="EX46" s="74"/>
+      <c r="EY46" s="74"/>
+      <c r="EZ46" s="74"/>
+      <c r="FA46" s="74"/>
+      <c r="FB46" s="74"/>
+      <c r="FC46" s="74"/>
+      <c r="FD46" s="74"/>
+      <c r="FE46" s="74"/>
+      <c r="FF46" s="74"/>
+      <c r="FG46" s="74"/>
+      <c r="FH46" s="74"/>
+      <c r="FI46" s="74"/>
+      <c r="FJ46" s="74"/>
+      <c r="FK46" s="74"/>
+      <c r="FL46" s="74"/>
+      <c r="FM46" s="74"/>
+      <c r="FN46" s="74"/>
+      <c r="FO46" s="74"/>
+      <c r="FP46" s="74"/>
+      <c r="FQ46" s="74"/>
+      <c r="FR46" s="74"/>
+      <c r="FS46" s="74"/>
+      <c r="FT46" s="74"/>
+      <c r="FU46" s="74"/>
+      <c r="FV46" s="74"/>
+      <c r="FW46" s="74"/>
+      <c r="FX46" s="74"/>
+      <c r="FY46" s="74"/>
+      <c r="FZ46" s="74"/>
+      <c r="GA46" s="74"/>
+      <c r="GB46" s="74"/>
+      <c r="GC46" s="74"/>
+      <c r="GD46" s="74"/>
+      <c r="GE46" s="74"/>
+      <c r="GF46" s="74"/>
+      <c r="GG46" s="74"/>
+      <c r="GH46" s="74"/>
+      <c r="GI46" s="74"/>
+      <c r="GJ46" s="74"/>
+      <c r="GK46" s="74"/>
+      <c r="GL46" s="74"/>
+      <c r="GM46" s="74"/>
+      <c r="GN46" s="74"/>
+      <c r="GO46" s="74"/>
+      <c r="GP46" s="74"/>
+      <c r="GQ46" s="74"/>
+      <c r="GR46" s="74"/>
+      <c r="GS46" s="74"/>
+      <c r="GT46" s="74"/>
+      <c r="GU46" s="74"/>
+      <c r="GV46" s="74"/>
+      <c r="GW46" s="74"/>
+      <c r="GX46" s="74"/>
+      <c r="GY46" s="74"/>
+      <c r="GZ46" s="74"/>
+      <c r="HA46" s="74"/>
+      <c r="HB46" s="74"/>
+      <c r="HC46" s="74"/>
+      <c r="HD46" s="74"/>
+      <c r="HE46" s="74"/>
+      <c r="HF46" s="74"/>
+      <c r="HG46" s="74"/>
+      <c r="HH46" s="74"/>
+      <c r="HI46" s="74"/>
+      <c r="HJ46" s="74"/>
+      <c r="HK46" s="74"/>
+      <c r="HL46" s="74"/>
+      <c r="HM46" s="74"/>
+      <c r="HN46" s="74"/>
+      <c r="HO46" s="74"/>
+      <c r="HP46" s="74"/>
+      <c r="HQ46" s="74"/>
+      <c r="HR46" s="74"/>
+      <c r="HS46" s="74"/>
+      <c r="HT46" s="74"/>
+      <c r="HU46" s="74"/>
     </row>
     <row r="47" spans="1:229" s="86" customFormat="1">
       <c r="A47" s="82"/>
       <c r="B47" s="83"/>
-      <c r="C47" s="84"/>
+      <c r="C47" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="D47" s="84"/>
-      <c r="E47" s="84" t="s">
-        <v>122</v>
-      </c>
+      <c r="E47" s="84"/>
       <c r="F47" s="76"/>
       <c r="G47" s="107"/>
       <c r="H47" s="117"/>
       <c r="I47" s="121"/>
-      <c r="J47" s="106"/>
+      <c r="J47" s="106" t="s">
+        <v>109</v>
+      </c>
       <c r="K47" s="153"/>
-      <c r="L47" s="173"/>
+      <c r="L47" s="107"/>
       <c r="M47" s="87"/>
       <c r="N47" s="87"/>
       <c r="O47" s="87"/>
@@ -18030,17 +18591,17 @@
       <c r="A48" s="89"/>
       <c r="B48" s="90"/>
       <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
+      <c r="D48" s="84"/>
       <c r="E48" s="91" t="s">
-        <v>123</v>
-      </c>
-      <c r="F48" s="92"/>
+        <v>121</v>
+      </c>
+      <c r="F48" s="76"/>
       <c r="G48" s="113"/>
       <c r="H48" s="118"/>
       <c r="I48" s="122"/>
       <c r="J48" s="108"/>
       <c r="K48" s="154"/>
-      <c r="L48" s="174"/>
+      <c r="L48" s="113"/>
       <c r="M48" s="87"/>
       <c r="N48" s="87"/>
       <c r="O48" s="87"/>
@@ -18263,17 +18824,19 @@
       <c r="A49" s="89"/>
       <c r="B49" s="90"/>
       <c r="C49" s="91" t="s">
-        <v>169</v>
-      </c>
-      <c r="D49" s="91"/>
+        <v>107</v>
+      </c>
+      <c r="D49" s="84"/>
       <c r="E49" s="91"/>
-      <c r="F49" s="92"/>
+      <c r="F49" s="76"/>
       <c r="G49" s="113"/>
       <c r="H49" s="118"/>
       <c r="I49" s="122"/>
-      <c r="J49" s="108"/>
+      <c r="J49" s="108" t="s">
+        <v>109</v>
+      </c>
       <c r="K49" s="154"/>
-      <c r="L49" s="209"/>
+      <c r="L49" s="113"/>
       <c r="M49" s="87"/>
       <c r="N49" s="87"/>
       <c r="O49" s="87"/>
@@ -18496,19 +19059,17 @@
       <c r="A50" s="89"/>
       <c r="B50" s="90"/>
       <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
+      <c r="D50" s="84"/>
       <c r="E50" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="92"/>
+        <v>121</v>
+      </c>
+      <c r="F50" s="76"/>
       <c r="G50" s="113"/>
       <c r="H50" s="118"/>
       <c r="I50" s="122"/>
       <c r="J50" s="108"/>
       <c r="K50" s="154"/>
-      <c r="L50" s="157" t="s">
-        <v>128</v>
-      </c>
+      <c r="L50" s="113"/>
       <c r="M50" s="87"/>
       <c r="N50" s="87"/>
       <c r="O50" s="87"/>
@@ -18729,7 +19290,7 @@
     </row>
     <row r="51" spans="1:229" s="86" customFormat="1">
       <c r="A51" s="77" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="B51" s="78"/>
       <c r="C51" s="79"/>
@@ -18963,11 +19524,11 @@
     <row r="52" spans="1:229" s="86" customFormat="1">
       <c r="A52" s="89"/>
       <c r="B52" s="90"/>
-      <c r="C52" s="84"/>
+      <c r="C52" s="84" t="s">
+        <v>90</v>
+      </c>
       <c r="D52" s="84"/>
-      <c r="E52" s="91" t="s">
-        <v>111</v>
-      </c>
+      <c r="E52" s="91"/>
       <c r="F52" s="76"/>
       <c r="G52" s="113"/>
       <c r="H52" s="118"/>
@@ -18976,7 +19537,9 @@
         <v>110</v>
       </c>
       <c r="K52" s="154"/>
-      <c r="L52" s="113"/>
+      <c r="L52" s="203" t="s">
+        <v>127</v>
+      </c>
       <c r="M52" s="87"/>
       <c r="N52" s="87"/>
       <c r="O52" s="87"/>
@@ -19201,7 +19764,7 @@
       <c r="C53" s="84"/>
       <c r="D53" s="84"/>
       <c r="E53" s="84" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F53" s="76"/>
       <c r="G53" s="107"/>
@@ -19209,9 +19772,7 @@
       <c r="I53" s="121"/>
       <c r="J53" s="106"/>
       <c r="K53" s="153"/>
-      <c r="L53" s="107" t="s">
-        <v>139</v>
-      </c>
+      <c r="L53" s="204"/>
       <c r="M53" s="87"/>
       <c r="N53" s="87"/>
       <c r="O53" s="87"/>
@@ -19436,7 +19997,7 @@
       <c r="C54" s="91"/>
       <c r="D54" s="91"/>
       <c r="E54" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F54" s="92"/>
       <c r="G54" s="113"/>
@@ -19444,9 +20005,7 @@
       <c r="I54" s="122"/>
       <c r="J54" s="108"/>
       <c r="K54" s="154"/>
-      <c r="L54" s="113" t="s">
-        <v>139</v>
-      </c>
+      <c r="L54" s="205"/>
       <c r="M54" s="87"/>
       <c r="N54" s="87"/>
       <c r="O54" s="87"/>
@@ -19561,157 +20120,1601 @@
       <c r="DT54" s="87"/>
       <c r="DU54" s="87"/>
       <c r="DV54" s="87"/>
-      <c r="DW54" s="124"/>
-      <c r="DX54" s="125"/>
-      <c r="DY54" s="124"/>
-      <c r="DZ54" s="124"/>
-      <c r="EA54" s="124"/>
-      <c r="EB54" s="124"/>
-      <c r="EC54" s="124"/>
-      <c r="ED54" s="124"/>
-      <c r="EE54" s="125"/>
-      <c r="EF54" s="124"/>
-      <c r="EG54" s="124"/>
-      <c r="EH54" s="124"/>
-      <c r="EI54" s="124"/>
-      <c r="EJ54" s="124"/>
-      <c r="EK54" s="124"/>
-      <c r="EL54" s="124"/>
-      <c r="EM54" s="124"/>
-      <c r="EN54" s="124"/>
-      <c r="EO54" s="124"/>
-      <c r="EP54" s="124"/>
-      <c r="EQ54" s="124"/>
-      <c r="ER54" s="124"/>
-      <c r="ES54" s="125"/>
-      <c r="ET54" s="124"/>
-      <c r="EU54" s="124"/>
-      <c r="EV54" s="124"/>
-      <c r="EW54" s="124"/>
-      <c r="EX54" s="124"/>
-      <c r="EY54" s="124"/>
-      <c r="EZ54" s="124"/>
-      <c r="FA54" s="124"/>
-      <c r="FB54" s="124"/>
-      <c r="FC54" s="124"/>
-      <c r="FD54" s="124"/>
-      <c r="FE54" s="124"/>
-      <c r="FF54" s="124"/>
-      <c r="FG54" s="124"/>
-      <c r="FH54" s="124"/>
-      <c r="FI54" s="124"/>
-      <c r="FJ54" s="124"/>
-      <c r="FK54" s="124"/>
-      <c r="FL54" s="124"/>
-      <c r="FM54" s="124"/>
-      <c r="FN54" s="124"/>
-      <c r="FO54" s="124"/>
-      <c r="FP54" s="124"/>
-      <c r="FQ54" s="124"/>
-      <c r="FR54" s="124"/>
-      <c r="FS54" s="124"/>
-      <c r="FT54" s="124"/>
-      <c r="FU54" s="124"/>
-      <c r="FV54" s="124"/>
-      <c r="FW54" s="124"/>
-      <c r="FX54" s="125"/>
-      <c r="FY54" s="125"/>
-      <c r="FZ54" s="124"/>
-      <c r="GA54" s="124"/>
-      <c r="GB54" s="124"/>
-      <c r="GC54" s="124"/>
-      <c r="GD54" s="124"/>
-      <c r="GE54" s="124"/>
-      <c r="GF54" s="124"/>
-      <c r="GG54" s="124"/>
-      <c r="GH54" s="124"/>
-      <c r="GI54" s="124"/>
-      <c r="GJ54" s="124"/>
-      <c r="GK54" s="124"/>
-      <c r="GL54" s="124"/>
-      <c r="GM54" s="124"/>
-      <c r="GN54" s="124"/>
-      <c r="GO54" s="124"/>
-      <c r="GP54" s="124"/>
-      <c r="GQ54" s="124"/>
-      <c r="GR54" s="124"/>
-      <c r="GS54" s="124"/>
-      <c r="GT54" s="124"/>
-      <c r="GU54" s="124"/>
-      <c r="GV54" s="124"/>
-      <c r="GW54" s="124"/>
-      <c r="GX54" s="124"/>
-      <c r="GY54" s="124"/>
-      <c r="GZ54" s="124"/>
-      <c r="HA54" s="124"/>
-      <c r="HB54" s="124"/>
-      <c r="HC54" s="124"/>
-      <c r="HD54" s="124"/>
-      <c r="HE54" s="124"/>
-      <c r="HF54" s="124"/>
-      <c r="HG54" s="124"/>
-      <c r="HH54" s="124"/>
-      <c r="HI54" s="124"/>
-      <c r="HJ54" s="124"/>
-      <c r="HK54" s="124"/>
-      <c r="HL54" s="124"/>
-      <c r="HM54" s="124"/>
-      <c r="HN54" s="124"/>
-      <c r="HO54" s="124"/>
-      <c r="HP54" s="124"/>
-      <c r="HQ54" s="124"/>
-      <c r="HR54" s="124"/>
-      <c r="HS54" s="124"/>
-      <c r="HT54" s="124"/>
-      <c r="HU54" s="124"/>
+      <c r="DW54" s="87"/>
+      <c r="DX54" s="80"/>
+      <c r="DY54" s="87"/>
+      <c r="DZ54" s="87"/>
+      <c r="EA54" s="87"/>
+      <c r="EB54" s="87"/>
+      <c r="EC54" s="87"/>
+      <c r="ED54" s="87"/>
+      <c r="EE54" s="80"/>
+      <c r="EF54" s="87"/>
+      <c r="EG54" s="87"/>
+      <c r="EH54" s="87"/>
+      <c r="EI54" s="87"/>
+      <c r="EJ54" s="87"/>
+      <c r="EK54" s="87"/>
+      <c r="EL54" s="87"/>
+      <c r="EM54" s="87"/>
+      <c r="EN54" s="87"/>
+      <c r="EO54" s="87"/>
+      <c r="EP54" s="87"/>
+      <c r="EQ54" s="87"/>
+      <c r="ER54" s="87"/>
+      <c r="ES54" s="80"/>
+      <c r="ET54" s="87"/>
+      <c r="EU54" s="87"/>
+      <c r="EV54" s="87"/>
+      <c r="EW54" s="87"/>
+      <c r="EX54" s="87"/>
+      <c r="EY54" s="87"/>
+      <c r="EZ54" s="87"/>
+      <c r="FA54" s="87"/>
+      <c r="FB54" s="87"/>
+      <c r="FC54" s="87"/>
+      <c r="FD54" s="87"/>
+      <c r="FE54" s="87"/>
+      <c r="FF54" s="87"/>
+      <c r="FG54" s="87"/>
+      <c r="FH54" s="87"/>
+      <c r="FI54" s="87"/>
+      <c r="FJ54" s="87"/>
+      <c r="FK54" s="87"/>
+      <c r="FL54" s="87"/>
+      <c r="FM54" s="87"/>
+      <c r="FN54" s="87"/>
+      <c r="FO54" s="87"/>
+      <c r="FP54" s="87"/>
+      <c r="FQ54" s="87"/>
+      <c r="FR54" s="87"/>
+      <c r="FS54" s="87"/>
+      <c r="FT54" s="87"/>
+      <c r="FU54" s="87"/>
+      <c r="FV54" s="87"/>
+      <c r="FW54" s="87"/>
+      <c r="FX54" s="80"/>
+      <c r="FY54" s="80"/>
+      <c r="FZ54" s="87"/>
+      <c r="GA54" s="87"/>
+      <c r="GB54" s="87"/>
+      <c r="GC54" s="87"/>
+      <c r="GD54" s="87"/>
+      <c r="GE54" s="87"/>
+      <c r="GF54" s="87"/>
+      <c r="GG54" s="87"/>
+      <c r="GH54" s="87"/>
+      <c r="GI54" s="87"/>
+      <c r="GJ54" s="87"/>
+      <c r="GK54" s="87"/>
+      <c r="GL54" s="87"/>
+      <c r="GM54" s="87"/>
+      <c r="GN54" s="87"/>
+      <c r="GO54" s="87"/>
+      <c r="GP54" s="87"/>
+      <c r="GQ54" s="87"/>
+      <c r="GR54" s="87"/>
+      <c r="GS54" s="87"/>
+      <c r="GT54" s="87"/>
+      <c r="GU54" s="87"/>
+      <c r="GV54" s="87"/>
+      <c r="GW54" s="87"/>
+      <c r="GX54" s="87"/>
+      <c r="GY54" s="87"/>
+      <c r="GZ54" s="87"/>
+      <c r="HA54" s="87"/>
+      <c r="HB54" s="87"/>
+      <c r="HC54" s="87"/>
+      <c r="HD54" s="87"/>
+      <c r="HE54" s="87"/>
+      <c r="HF54" s="87"/>
+      <c r="HG54" s="87"/>
+      <c r="HH54" s="87"/>
+      <c r="HI54" s="87"/>
+      <c r="HJ54" s="87"/>
+      <c r="HK54" s="87"/>
+      <c r="HL54" s="87"/>
+      <c r="HM54" s="87"/>
+      <c r="HN54" s="87"/>
+      <c r="HO54" s="87"/>
+      <c r="HP54" s="87"/>
+      <c r="HQ54" s="87"/>
+      <c r="HR54" s="87"/>
+      <c r="HS54" s="87"/>
+      <c r="HT54" s="87"/>
+      <c r="HU54" s="87"/>
     </row>
-    <row r="55" spans="1:229" s="87" customFormat="1">
-      <c r="A55" s="134"/>
-      <c r="B55" s="135"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="127" t="s">
+    <row r="55" spans="1:229" s="86" customFormat="1">
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="91" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="91"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="122"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="159"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="87"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="87"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="87"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="87"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="87"/>
+      <c r="AX55" s="87"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="87"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+      <c r="BF55" s="87"/>
+      <c r="BG55" s="87"/>
+      <c r="BH55" s="87"/>
+      <c r="BI55" s="87"/>
+      <c r="BJ55" s="87"/>
+      <c r="BK55" s="87"/>
+      <c r="BL55" s="87"/>
+      <c r="BM55" s="87"/>
+      <c r="BN55" s="87"/>
+      <c r="BO55" s="87"/>
+      <c r="BP55" s="87"/>
+      <c r="BQ55" s="87"/>
+      <c r="BR55" s="87"/>
+      <c r="BS55" s="87"/>
+      <c r="BT55" s="87"/>
+      <c r="BU55" s="87"/>
+      <c r="BV55" s="87"/>
+      <c r="BW55" s="87"/>
+      <c r="BX55" s="87"/>
+      <c r="BY55" s="87"/>
+      <c r="BZ55" s="87"/>
+      <c r="CA55" s="87"/>
+      <c r="CB55" s="87"/>
+      <c r="CC55" s="87"/>
+      <c r="CD55" s="87"/>
+      <c r="CE55" s="87"/>
+      <c r="CF55" s="87"/>
+      <c r="CG55" s="87"/>
+      <c r="CH55" s="87"/>
+      <c r="CI55" s="87"/>
+      <c r="CJ55" s="87"/>
+      <c r="CK55" s="87"/>
+      <c r="CL55" s="87"/>
+      <c r="CM55" s="87"/>
+      <c r="CN55" s="87"/>
+      <c r="CO55" s="87"/>
+      <c r="CP55" s="87"/>
+      <c r="CQ55" s="87"/>
+      <c r="CR55" s="87"/>
+      <c r="CS55" s="87"/>
+      <c r="CT55" s="87"/>
+      <c r="CU55" s="87"/>
+      <c r="CV55" s="87"/>
+      <c r="CW55" s="87"/>
+      <c r="CX55" s="87"/>
+      <c r="CY55" s="87"/>
+      <c r="CZ55" s="87"/>
+      <c r="DA55" s="87"/>
+      <c r="DB55" s="87"/>
+      <c r="DC55" s="87"/>
+      <c r="DD55" s="87"/>
+      <c r="DE55" s="87"/>
+      <c r="DF55" s="87"/>
+      <c r="DG55" s="87"/>
+      <c r="DH55" s="87"/>
+      <c r="DI55" s="87"/>
+      <c r="DJ55" s="87"/>
+      <c r="DK55" s="87"/>
+      <c r="DL55" s="87"/>
+      <c r="DM55" s="87"/>
+      <c r="DN55" s="87"/>
+      <c r="DO55" s="87"/>
+      <c r="DP55" s="87"/>
+      <c r="DQ55" s="87"/>
+      <c r="DR55" s="87"/>
+      <c r="DS55" s="87"/>
+      <c r="DT55" s="87"/>
+      <c r="DU55" s="87"/>
+      <c r="DV55" s="87"/>
+      <c r="DW55" s="87"/>
+      <c r="DX55" s="80"/>
+      <c r="DY55" s="87"/>
+      <c r="DZ55" s="87"/>
+      <c r="EA55" s="87"/>
+      <c r="EB55" s="87"/>
+      <c r="EC55" s="87"/>
+      <c r="ED55" s="87"/>
+      <c r="EE55" s="80"/>
+      <c r="EF55" s="87"/>
+      <c r="EG55" s="87"/>
+      <c r="EH55" s="87"/>
+      <c r="EI55" s="87"/>
+      <c r="EJ55" s="87"/>
+      <c r="EK55" s="87"/>
+      <c r="EL55" s="87"/>
+      <c r="EM55" s="87"/>
+      <c r="EN55" s="87"/>
+      <c r="EO55" s="87"/>
+      <c r="EP55" s="87"/>
+      <c r="EQ55" s="87"/>
+      <c r="ER55" s="87"/>
+      <c r="ES55" s="80"/>
+      <c r="ET55" s="87"/>
+      <c r="EU55" s="87"/>
+      <c r="EV55" s="87"/>
+      <c r="EW55" s="87"/>
+      <c r="EX55" s="87"/>
+      <c r="EY55" s="87"/>
+      <c r="EZ55" s="87"/>
+      <c r="FA55" s="87"/>
+      <c r="FB55" s="87"/>
+      <c r="FC55" s="87"/>
+      <c r="FD55" s="87"/>
+      <c r="FE55" s="87"/>
+      <c r="FF55" s="87"/>
+      <c r="FG55" s="87"/>
+      <c r="FH55" s="87"/>
+      <c r="FI55" s="87"/>
+      <c r="FJ55" s="87"/>
+      <c r="FK55" s="87"/>
+      <c r="FL55" s="87"/>
+      <c r="FM55" s="87"/>
+      <c r="FN55" s="87"/>
+      <c r="FO55" s="87"/>
+      <c r="FP55" s="87"/>
+      <c r="FQ55" s="87"/>
+      <c r="FR55" s="87"/>
+      <c r="FS55" s="87"/>
+      <c r="FT55" s="87"/>
+      <c r="FU55" s="87"/>
+      <c r="FV55" s="87"/>
+      <c r="FW55" s="87"/>
+      <c r="FX55" s="80"/>
+      <c r="FY55" s="80"/>
+      <c r="FZ55" s="87"/>
+      <c r="GA55" s="87"/>
+      <c r="GB55" s="87"/>
+      <c r="GC55" s="87"/>
+      <c r="GD55" s="87"/>
+      <c r="GE55" s="87"/>
+      <c r="GF55" s="87"/>
+      <c r="GG55" s="87"/>
+      <c r="GH55" s="87"/>
+      <c r="GI55" s="87"/>
+      <c r="GJ55" s="87"/>
+      <c r="GK55" s="87"/>
+      <c r="GL55" s="87"/>
+      <c r="GM55" s="87"/>
+      <c r="GN55" s="87"/>
+      <c r="GO55" s="87"/>
+      <c r="GP55" s="87"/>
+      <c r="GQ55" s="87"/>
+      <c r="GR55" s="87"/>
+      <c r="GS55" s="87"/>
+      <c r="GT55" s="87"/>
+      <c r="GU55" s="87"/>
+      <c r="GV55" s="87"/>
+      <c r="GW55" s="87"/>
+      <c r="GX55" s="87"/>
+      <c r="GY55" s="87"/>
+      <c r="GZ55" s="87"/>
+      <c r="HA55" s="87"/>
+      <c r="HB55" s="87"/>
+      <c r="HC55" s="87"/>
+      <c r="HD55" s="87"/>
+      <c r="HE55" s="87"/>
+      <c r="HF55" s="87"/>
+      <c r="HG55" s="87"/>
+      <c r="HH55" s="87"/>
+      <c r="HI55" s="87"/>
+      <c r="HJ55" s="87"/>
+      <c r="HK55" s="87"/>
+      <c r="HL55" s="87"/>
+      <c r="HM55" s="87"/>
+      <c r="HN55" s="87"/>
+      <c r="HO55" s="87"/>
+      <c r="HP55" s="87"/>
+      <c r="HQ55" s="87"/>
+      <c r="HR55" s="87"/>
+      <c r="HS55" s="87"/>
+      <c r="HT55" s="87"/>
+      <c r="HU55" s="87"/>
+    </row>
+    <row r="56" spans="1:229" s="86" customFormat="1">
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="91"/>
+      <c r="E56" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="92"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="154"/>
+      <c r="L56" s="157" t="s">
+        <v>128</v>
+      </c>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="87"/>
+      <c r="Y56" s="87"/>
+      <c r="Z56" s="87"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="87"/>
+      <c r="AC56" s="87"/>
+      <c r="AD56" s="87"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="87"/>
+      <c r="AG56" s="87"/>
+      <c r="AH56" s="87"/>
+      <c r="AI56" s="87"/>
+      <c r="AJ56" s="87"/>
+      <c r="AK56" s="87"/>
+      <c r="AL56" s="87"/>
+      <c r="AM56" s="87"/>
+      <c r="AN56" s="87"/>
+      <c r="AO56" s="87"/>
+      <c r="AP56" s="87"/>
+      <c r="AQ56" s="87"/>
+      <c r="AR56" s="87"/>
+      <c r="AS56" s="87"/>
+      <c r="AT56" s="87"/>
+      <c r="AU56" s="87"/>
+      <c r="AV56" s="87"/>
+      <c r="AW56" s="87"/>
+      <c r="AX56" s="87"/>
+      <c r="AY56" s="87"/>
+      <c r="AZ56" s="87"/>
+      <c r="BA56" s="87"/>
+      <c r="BB56" s="87"/>
+      <c r="BC56" s="87"/>
+      <c r="BD56" s="87"/>
+      <c r="BE56" s="87"/>
+      <c r="BF56" s="87"/>
+      <c r="BG56" s="87"/>
+      <c r="BH56" s="87"/>
+      <c r="BI56" s="87"/>
+      <c r="BJ56" s="87"/>
+      <c r="BK56" s="87"/>
+      <c r="BL56" s="87"/>
+      <c r="BM56" s="87"/>
+      <c r="BN56" s="87"/>
+      <c r="BO56" s="87"/>
+      <c r="BP56" s="87"/>
+      <c r="BQ56" s="87"/>
+      <c r="BR56" s="87"/>
+      <c r="BS56" s="87"/>
+      <c r="BT56" s="87"/>
+      <c r="BU56" s="87"/>
+      <c r="BV56" s="87"/>
+      <c r="BW56" s="87"/>
+      <c r="BX56" s="87"/>
+      <c r="BY56" s="87"/>
+      <c r="BZ56" s="87"/>
+      <c r="CA56" s="87"/>
+      <c r="CB56" s="87"/>
+      <c r="CC56" s="87"/>
+      <c r="CD56" s="87"/>
+      <c r="CE56" s="87"/>
+      <c r="CF56" s="87"/>
+      <c r="CG56" s="87"/>
+      <c r="CH56" s="87"/>
+      <c r="CI56" s="87"/>
+      <c r="CJ56" s="87"/>
+      <c r="CK56" s="87"/>
+      <c r="CL56" s="87"/>
+      <c r="CM56" s="87"/>
+      <c r="CN56" s="87"/>
+      <c r="CO56" s="87"/>
+      <c r="CP56" s="87"/>
+      <c r="CQ56" s="87"/>
+      <c r="CR56" s="87"/>
+      <c r="CS56" s="87"/>
+      <c r="CT56" s="87"/>
+      <c r="CU56" s="87"/>
+      <c r="CV56" s="87"/>
+      <c r="CW56" s="87"/>
+      <c r="CX56" s="87"/>
+      <c r="CY56" s="87"/>
+      <c r="CZ56" s="87"/>
+      <c r="DA56" s="87"/>
+      <c r="DB56" s="87"/>
+      <c r="DC56" s="87"/>
+      <c r="DD56" s="87"/>
+      <c r="DE56" s="87"/>
+      <c r="DF56" s="87"/>
+      <c r="DG56" s="87"/>
+      <c r="DH56" s="87"/>
+      <c r="DI56" s="87"/>
+      <c r="DJ56" s="87"/>
+      <c r="DK56" s="87"/>
+      <c r="DL56" s="87"/>
+      <c r="DM56" s="87"/>
+      <c r="DN56" s="87"/>
+      <c r="DO56" s="87"/>
+      <c r="DP56" s="87"/>
+      <c r="DQ56" s="87"/>
+      <c r="DR56" s="87"/>
+      <c r="DS56" s="87"/>
+      <c r="DT56" s="87"/>
+      <c r="DU56" s="87"/>
+      <c r="DV56" s="87"/>
+      <c r="DW56" s="87"/>
+      <c r="DX56" s="80"/>
+      <c r="DY56" s="87"/>
+      <c r="DZ56" s="87"/>
+      <c r="EA56" s="87"/>
+      <c r="EB56" s="87"/>
+      <c r="EC56" s="87"/>
+      <c r="ED56" s="87"/>
+      <c r="EE56" s="80"/>
+      <c r="EF56" s="87"/>
+      <c r="EG56" s="87"/>
+      <c r="EH56" s="87"/>
+      <c r="EI56" s="87"/>
+      <c r="EJ56" s="87"/>
+      <c r="EK56" s="87"/>
+      <c r="EL56" s="87"/>
+      <c r="EM56" s="87"/>
+      <c r="EN56" s="87"/>
+      <c r="EO56" s="87"/>
+      <c r="EP56" s="87"/>
+      <c r="EQ56" s="87"/>
+      <c r="ER56" s="87"/>
+      <c r="ES56" s="80"/>
+      <c r="ET56" s="87"/>
+      <c r="EU56" s="87"/>
+      <c r="EV56" s="87"/>
+      <c r="EW56" s="87"/>
+      <c r="EX56" s="87"/>
+      <c r="EY56" s="87"/>
+      <c r="EZ56" s="87"/>
+      <c r="FA56" s="87"/>
+      <c r="FB56" s="87"/>
+      <c r="FC56" s="87"/>
+      <c r="FD56" s="87"/>
+      <c r="FE56" s="87"/>
+      <c r="FF56" s="87"/>
+      <c r="FG56" s="87"/>
+      <c r="FH56" s="87"/>
+      <c r="FI56" s="87"/>
+      <c r="FJ56" s="87"/>
+      <c r="FK56" s="87"/>
+      <c r="FL56" s="87"/>
+      <c r="FM56" s="87"/>
+      <c r="FN56" s="87"/>
+      <c r="FO56" s="87"/>
+      <c r="FP56" s="87"/>
+      <c r="FQ56" s="87"/>
+      <c r="FR56" s="87"/>
+      <c r="FS56" s="87"/>
+      <c r="FT56" s="87"/>
+      <c r="FU56" s="87"/>
+      <c r="FV56" s="87"/>
+      <c r="FW56" s="87"/>
+      <c r="FX56" s="80"/>
+      <c r="FY56" s="80"/>
+      <c r="FZ56" s="87"/>
+      <c r="GA56" s="87"/>
+      <c r="GB56" s="87"/>
+      <c r="GC56" s="87"/>
+      <c r="GD56" s="87"/>
+      <c r="GE56" s="87"/>
+      <c r="GF56" s="87"/>
+      <c r="GG56" s="87"/>
+      <c r="GH56" s="87"/>
+      <c r="GI56" s="87"/>
+      <c r="GJ56" s="87"/>
+      <c r="GK56" s="87"/>
+      <c r="GL56" s="87"/>
+      <c r="GM56" s="87"/>
+      <c r="GN56" s="87"/>
+      <c r="GO56" s="87"/>
+      <c r="GP56" s="87"/>
+      <c r="GQ56" s="87"/>
+      <c r="GR56" s="87"/>
+      <c r="GS56" s="87"/>
+      <c r="GT56" s="87"/>
+      <c r="GU56" s="87"/>
+      <c r="GV56" s="87"/>
+      <c r="GW56" s="87"/>
+      <c r="GX56" s="87"/>
+      <c r="GY56" s="87"/>
+      <c r="GZ56" s="87"/>
+      <c r="HA56" s="87"/>
+      <c r="HB56" s="87"/>
+      <c r="HC56" s="87"/>
+      <c r="HD56" s="87"/>
+      <c r="HE56" s="87"/>
+      <c r="HF56" s="87"/>
+      <c r="HG56" s="87"/>
+      <c r="HH56" s="87"/>
+      <c r="HI56" s="87"/>
+      <c r="HJ56" s="87"/>
+      <c r="HK56" s="87"/>
+      <c r="HL56" s="87"/>
+      <c r="HM56" s="87"/>
+      <c r="HN56" s="87"/>
+      <c r="HO56" s="87"/>
+      <c r="HP56" s="87"/>
+      <c r="HQ56" s="87"/>
+      <c r="HR56" s="87"/>
+      <c r="HS56" s="87"/>
+      <c r="HT56" s="87"/>
+      <c r="HU56" s="87"/>
+    </row>
+    <row r="57" spans="1:229" s="86" customFormat="1">
+      <c r="A57" s="77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="152"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="87"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="87"/>
+      <c r="Y57" s="87"/>
+      <c r="Z57" s="87"/>
+      <c r="AA57" s="87"/>
+      <c r="AB57" s="87"/>
+      <c r="AC57" s="87"/>
+      <c r="AD57" s="87"/>
+      <c r="AE57" s="87"/>
+      <c r="AF57" s="87"/>
+      <c r="AG57" s="87"/>
+      <c r="AH57" s="87"/>
+      <c r="AI57" s="87"/>
+      <c r="AJ57" s="87"/>
+      <c r="AK57" s="87"/>
+      <c r="AL57" s="87"/>
+      <c r="AM57" s="87"/>
+      <c r="AN57" s="87"/>
+      <c r="AO57" s="87"/>
+      <c r="AP57" s="87"/>
+      <c r="AQ57" s="87"/>
+      <c r="AR57" s="87"/>
+      <c r="AS57" s="87"/>
+      <c r="AT57" s="87"/>
+      <c r="AU57" s="87"/>
+      <c r="AV57" s="87"/>
+      <c r="AW57" s="87"/>
+      <c r="AX57" s="87"/>
+      <c r="AY57" s="87"/>
+      <c r="AZ57" s="87"/>
+      <c r="BA57" s="87"/>
+      <c r="BB57" s="87"/>
+      <c r="BC57" s="87"/>
+      <c r="BD57" s="87"/>
+      <c r="BE57" s="87"/>
+      <c r="BF57" s="87"/>
+      <c r="BG57" s="87"/>
+      <c r="BH57" s="87"/>
+      <c r="BI57" s="87"/>
+      <c r="BJ57" s="87"/>
+      <c r="BK57" s="87"/>
+      <c r="BL57" s="87"/>
+      <c r="BM57" s="87"/>
+      <c r="BN57" s="87"/>
+      <c r="BO57" s="87"/>
+      <c r="BP57" s="87"/>
+      <c r="BQ57" s="87"/>
+      <c r="BR57" s="87"/>
+      <c r="BS57" s="87"/>
+      <c r="BT57" s="87"/>
+      <c r="BU57" s="87"/>
+      <c r="BV57" s="87"/>
+      <c r="BW57" s="87"/>
+      <c r="BX57" s="87"/>
+      <c r="BY57" s="87"/>
+      <c r="BZ57" s="87"/>
+      <c r="CA57" s="87"/>
+      <c r="CB57" s="87"/>
+      <c r="CC57" s="87"/>
+      <c r="CD57" s="87"/>
+      <c r="CE57" s="87"/>
+      <c r="CF57" s="87"/>
+      <c r="CG57" s="87"/>
+      <c r="CH57" s="87"/>
+      <c r="CI57" s="87"/>
+      <c r="CJ57" s="87"/>
+      <c r="CK57" s="87"/>
+      <c r="CL57" s="87"/>
+      <c r="CM57" s="87"/>
+      <c r="CN57" s="87"/>
+      <c r="CO57" s="87"/>
+      <c r="CP57" s="87"/>
+      <c r="CQ57" s="87"/>
+      <c r="CR57" s="87"/>
+      <c r="CS57" s="87"/>
+      <c r="CT57" s="87"/>
+      <c r="CU57" s="87"/>
+      <c r="CV57" s="87"/>
+      <c r="CW57" s="87"/>
+      <c r="CX57" s="87"/>
+      <c r="CY57" s="87"/>
+      <c r="CZ57" s="87"/>
+      <c r="DA57" s="87"/>
+      <c r="DB57" s="87"/>
+      <c r="DC57" s="87"/>
+      <c r="DD57" s="87"/>
+      <c r="DE57" s="87"/>
+      <c r="DF57" s="87"/>
+      <c r="DG57" s="87"/>
+      <c r="DH57" s="87"/>
+      <c r="DI57" s="87"/>
+      <c r="DJ57" s="87"/>
+      <c r="DK57" s="87"/>
+      <c r="DL57" s="87"/>
+      <c r="DM57" s="87"/>
+      <c r="DN57" s="87"/>
+      <c r="DO57" s="87"/>
+      <c r="DP57" s="87"/>
+      <c r="DQ57" s="87"/>
+      <c r="DR57" s="87"/>
+      <c r="DS57" s="87"/>
+      <c r="DT57" s="87"/>
+      <c r="DU57" s="87"/>
+      <c r="DV57" s="87"/>
+      <c r="DW57" s="74"/>
+      <c r="DX57" s="74"/>
+      <c r="DY57" s="74"/>
+      <c r="DZ57" s="74"/>
+      <c r="EA57" s="74"/>
+      <c r="EB57" s="74"/>
+      <c r="EC57" s="74"/>
+      <c r="ED57" s="74"/>
+      <c r="EE57" s="74"/>
+      <c r="EF57" s="74"/>
+      <c r="EG57" s="74"/>
+      <c r="EH57" s="74"/>
+      <c r="EI57" s="74"/>
+      <c r="EJ57" s="74"/>
+      <c r="EK57" s="74"/>
+      <c r="EL57" s="74"/>
+      <c r="EM57" s="74"/>
+      <c r="EN57" s="74"/>
+      <c r="EO57" s="74"/>
+      <c r="EP57" s="74"/>
+      <c r="EQ57" s="74"/>
+      <c r="ER57" s="74"/>
+      <c r="ES57" s="74"/>
+      <c r="ET57" s="74"/>
+      <c r="EU57" s="74"/>
+      <c r="EV57" s="74"/>
+      <c r="EW57" s="74"/>
+      <c r="EX57" s="74"/>
+      <c r="EY57" s="74"/>
+      <c r="EZ57" s="74"/>
+      <c r="FA57" s="74"/>
+      <c r="FB57" s="74"/>
+      <c r="FC57" s="74"/>
+      <c r="FD57" s="74"/>
+      <c r="FE57" s="74"/>
+      <c r="FF57" s="74"/>
+      <c r="FG57" s="74"/>
+      <c r="FH57" s="74"/>
+      <c r="FI57" s="74"/>
+      <c r="FJ57" s="74"/>
+      <c r="FK57" s="74"/>
+      <c r="FL57" s="74"/>
+      <c r="FM57" s="74"/>
+      <c r="FN57" s="74"/>
+      <c r="FO57" s="74"/>
+      <c r="FP57" s="74"/>
+      <c r="FQ57" s="74"/>
+      <c r="FR57" s="74"/>
+      <c r="FS57" s="74"/>
+      <c r="FT57" s="74"/>
+      <c r="FU57" s="74"/>
+      <c r="FV57" s="74"/>
+      <c r="FW57" s="74"/>
+      <c r="FX57" s="74"/>
+      <c r="FY57" s="74"/>
+      <c r="FZ57" s="74"/>
+      <c r="GA57" s="74"/>
+      <c r="GB57" s="74"/>
+      <c r="GC57" s="74"/>
+      <c r="GD57" s="74"/>
+      <c r="GE57" s="74"/>
+      <c r="GF57" s="74"/>
+      <c r="GG57" s="74"/>
+      <c r="GH57" s="74"/>
+      <c r="GI57" s="74"/>
+      <c r="GJ57" s="74"/>
+      <c r="GK57" s="74"/>
+      <c r="GL57" s="74"/>
+      <c r="GM57" s="74"/>
+      <c r="GN57" s="74"/>
+      <c r="GO57" s="74"/>
+      <c r="GP57" s="74"/>
+      <c r="GQ57" s="74"/>
+      <c r="GR57" s="74"/>
+      <c r="GS57" s="74"/>
+      <c r="GT57" s="74"/>
+      <c r="GU57" s="74"/>
+      <c r="GV57" s="74"/>
+      <c r="GW57" s="74"/>
+      <c r="GX57" s="74"/>
+      <c r="GY57" s="74"/>
+      <c r="GZ57" s="74"/>
+      <c r="HA57" s="74"/>
+      <c r="HB57" s="74"/>
+      <c r="HC57" s="74"/>
+      <c r="HD57" s="74"/>
+      <c r="HE57" s="74"/>
+      <c r="HF57" s="74"/>
+      <c r="HG57" s="74"/>
+      <c r="HH57" s="74"/>
+      <c r="HI57" s="74"/>
+      <c r="HJ57" s="74"/>
+      <c r="HK57" s="74"/>
+      <c r="HL57" s="74"/>
+      <c r="HM57" s="74"/>
+      <c r="HN57" s="74"/>
+      <c r="HO57" s="74"/>
+      <c r="HP57" s="74"/>
+      <c r="HQ57" s="74"/>
+      <c r="HR57" s="74"/>
+      <c r="HS57" s="74"/>
+      <c r="HT57" s="74"/>
+      <c r="HU57" s="74"/>
+    </row>
+    <row r="58" spans="1:229" s="86" customFormat="1">
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="76"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="122"/>
+      <c r="J58" s="108" t="s">
+        <v>110</v>
+      </c>
+      <c r="K58" s="154"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
+      <c r="X58" s="87"/>
+      <c r="Y58" s="87"/>
+      <c r="Z58" s="87"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="87"/>
+      <c r="AC58" s="87"/>
+      <c r="AD58" s="87"/>
+      <c r="AE58" s="87"/>
+      <c r="AF58" s="87"/>
+      <c r="AG58" s="87"/>
+      <c r="AH58" s="87"/>
+      <c r="AI58" s="87"/>
+      <c r="AJ58" s="87"/>
+      <c r="AK58" s="87"/>
+      <c r="AL58" s="87"/>
+      <c r="AM58" s="87"/>
+      <c r="AN58" s="87"/>
+      <c r="AO58" s="87"/>
+      <c r="AP58" s="87"/>
+      <c r="AQ58" s="87"/>
+      <c r="AR58" s="87"/>
+      <c r="AS58" s="87"/>
+      <c r="AT58" s="87"/>
+      <c r="AU58" s="87"/>
+      <c r="AV58" s="87"/>
+      <c r="AW58" s="87"/>
+      <c r="AX58" s="87"/>
+      <c r="AY58" s="87"/>
+      <c r="AZ58" s="87"/>
+      <c r="BA58" s="87"/>
+      <c r="BB58" s="87"/>
+      <c r="BC58" s="87"/>
+      <c r="BD58" s="87"/>
+      <c r="BE58" s="87"/>
+      <c r="BF58" s="87"/>
+      <c r="BG58" s="87"/>
+      <c r="BH58" s="87"/>
+      <c r="BI58" s="87"/>
+      <c r="BJ58" s="87"/>
+      <c r="BK58" s="87"/>
+      <c r="BL58" s="87"/>
+      <c r="BM58" s="87"/>
+      <c r="BN58" s="87"/>
+      <c r="BO58" s="87"/>
+      <c r="BP58" s="87"/>
+      <c r="BQ58" s="87"/>
+      <c r="BR58" s="87"/>
+      <c r="BS58" s="87"/>
+      <c r="BT58" s="87"/>
+      <c r="BU58" s="87"/>
+      <c r="BV58" s="87"/>
+      <c r="BW58" s="87"/>
+      <c r="BX58" s="87"/>
+      <c r="BY58" s="87"/>
+      <c r="BZ58" s="87"/>
+      <c r="CA58" s="87"/>
+      <c r="CB58" s="87"/>
+      <c r="CC58" s="87"/>
+      <c r="CD58" s="87"/>
+      <c r="CE58" s="87"/>
+      <c r="CF58" s="87"/>
+      <c r="CG58" s="87"/>
+      <c r="CH58" s="87"/>
+      <c r="CI58" s="87"/>
+      <c r="CJ58" s="87"/>
+      <c r="CK58" s="87"/>
+      <c r="CL58" s="87"/>
+      <c r="CM58" s="87"/>
+      <c r="CN58" s="87"/>
+      <c r="CO58" s="87"/>
+      <c r="CP58" s="87"/>
+      <c r="CQ58" s="87"/>
+      <c r="CR58" s="87"/>
+      <c r="CS58" s="87"/>
+      <c r="CT58" s="87"/>
+      <c r="CU58" s="87"/>
+      <c r="CV58" s="87"/>
+      <c r="CW58" s="87"/>
+      <c r="CX58" s="87"/>
+      <c r="CY58" s="87"/>
+      <c r="CZ58" s="87"/>
+      <c r="DA58" s="87"/>
+      <c r="DB58" s="87"/>
+      <c r="DC58" s="87"/>
+      <c r="DD58" s="87"/>
+      <c r="DE58" s="87"/>
+      <c r="DF58" s="87"/>
+      <c r="DG58" s="87"/>
+      <c r="DH58" s="87"/>
+      <c r="DI58" s="87"/>
+      <c r="DJ58" s="87"/>
+      <c r="DK58" s="87"/>
+      <c r="DL58" s="87"/>
+      <c r="DM58" s="87"/>
+      <c r="DN58" s="87"/>
+      <c r="DO58" s="87"/>
+      <c r="DP58" s="87"/>
+      <c r="DQ58" s="87"/>
+      <c r="DR58" s="87"/>
+      <c r="DS58" s="87"/>
+      <c r="DT58" s="87"/>
+      <c r="DU58" s="87"/>
+      <c r="DV58" s="87"/>
+      <c r="DW58" s="87"/>
+      <c r="DX58" s="80"/>
+      <c r="DY58" s="87"/>
+      <c r="DZ58" s="87"/>
+      <c r="EA58" s="87"/>
+      <c r="EB58" s="87"/>
+      <c r="EC58" s="87"/>
+      <c r="ED58" s="87"/>
+      <c r="EE58" s="80"/>
+      <c r="EF58" s="87"/>
+      <c r="EG58" s="87"/>
+      <c r="EH58" s="87"/>
+      <c r="EI58" s="87"/>
+      <c r="EJ58" s="87"/>
+      <c r="EK58" s="87"/>
+      <c r="EL58" s="87"/>
+      <c r="EM58" s="87"/>
+      <c r="EN58" s="87"/>
+      <c r="EO58" s="87"/>
+      <c r="EP58" s="87"/>
+      <c r="EQ58" s="87"/>
+      <c r="ER58" s="87"/>
+      <c r="ES58" s="80"/>
+      <c r="ET58" s="87"/>
+      <c r="EU58" s="87"/>
+      <c r="EV58" s="87"/>
+      <c r="EW58" s="87"/>
+      <c r="EX58" s="87"/>
+      <c r="EY58" s="87"/>
+      <c r="EZ58" s="87"/>
+      <c r="FA58" s="87"/>
+      <c r="FB58" s="87"/>
+      <c r="FC58" s="87"/>
+      <c r="FD58" s="87"/>
+      <c r="FE58" s="87"/>
+      <c r="FF58" s="87"/>
+      <c r="FG58" s="87"/>
+      <c r="FH58" s="87"/>
+      <c r="FI58" s="87"/>
+      <c r="FJ58" s="87"/>
+      <c r="FK58" s="87"/>
+      <c r="FL58" s="87"/>
+      <c r="FM58" s="87"/>
+      <c r="FN58" s="87"/>
+      <c r="FO58" s="87"/>
+      <c r="FP58" s="87"/>
+      <c r="FQ58" s="87"/>
+      <c r="FR58" s="87"/>
+      <c r="FS58" s="87"/>
+      <c r="FT58" s="87"/>
+      <c r="FU58" s="87"/>
+      <c r="FV58" s="87"/>
+      <c r="FW58" s="87"/>
+      <c r="FX58" s="80"/>
+      <c r="FY58" s="80"/>
+      <c r="FZ58" s="87"/>
+      <c r="GA58" s="87"/>
+      <c r="GB58" s="87"/>
+      <c r="GC58" s="87"/>
+      <c r="GD58" s="87"/>
+      <c r="GE58" s="87"/>
+      <c r="GF58" s="87"/>
+      <c r="GG58" s="87"/>
+      <c r="GH58" s="87"/>
+      <c r="GI58" s="87"/>
+      <c r="GJ58" s="87"/>
+      <c r="GK58" s="87"/>
+      <c r="GL58" s="87"/>
+      <c r="GM58" s="87"/>
+      <c r="GN58" s="87"/>
+      <c r="GO58" s="87"/>
+      <c r="GP58" s="87"/>
+      <c r="GQ58" s="87"/>
+      <c r="GR58" s="87"/>
+      <c r="GS58" s="87"/>
+      <c r="GT58" s="87"/>
+      <c r="GU58" s="87"/>
+      <c r="GV58" s="87"/>
+      <c r="GW58" s="87"/>
+      <c r="GX58" s="87"/>
+      <c r="GY58" s="87"/>
+      <c r="GZ58" s="87"/>
+      <c r="HA58" s="87"/>
+      <c r="HB58" s="87"/>
+      <c r="HC58" s="87"/>
+      <c r="HD58" s="87"/>
+      <c r="HE58" s="87"/>
+      <c r="HF58" s="87"/>
+      <c r="HG58" s="87"/>
+      <c r="HH58" s="87"/>
+      <c r="HI58" s="87"/>
+      <c r="HJ58" s="87"/>
+      <c r="HK58" s="87"/>
+      <c r="HL58" s="87"/>
+      <c r="HM58" s="87"/>
+      <c r="HN58" s="87"/>
+      <c r="HO58" s="87"/>
+      <c r="HP58" s="87"/>
+      <c r="HQ58" s="87"/>
+      <c r="HR58" s="87"/>
+      <c r="HS58" s="87"/>
+      <c r="HT58" s="87"/>
+      <c r="HU58" s="87"/>
+    </row>
+    <row r="59" spans="1:229" s="86" customFormat="1">
+      <c r="A59" s="82"/>
+      <c r="B59" s="83"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" s="76"/>
+      <c r="G59" s="107"/>
+      <c r="H59" s="117"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="153"/>
+      <c r="L59" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
+      <c r="V59" s="87"/>
+      <c r="W59" s="87"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="87"/>
+      <c r="Z59" s="87"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="87"/>
+      <c r="AC59" s="87"/>
+      <c r="AD59" s="87"/>
+      <c r="AE59" s="87"/>
+      <c r="AF59" s="87"/>
+      <c r="AG59" s="87"/>
+      <c r="AH59" s="87"/>
+      <c r="AI59" s="87"/>
+      <c r="AJ59" s="87"/>
+      <c r="AK59" s="87"/>
+      <c r="AL59" s="87"/>
+      <c r="AM59" s="87"/>
+      <c r="AN59" s="87"/>
+      <c r="AO59" s="87"/>
+      <c r="AP59" s="87"/>
+      <c r="AQ59" s="87"/>
+      <c r="AR59" s="87"/>
+      <c r="AS59" s="87"/>
+      <c r="AT59" s="87"/>
+      <c r="AU59" s="87"/>
+      <c r="AV59" s="87"/>
+      <c r="AW59" s="87"/>
+      <c r="AX59" s="87"/>
+      <c r="AY59" s="87"/>
+      <c r="AZ59" s="87"/>
+      <c r="BA59" s="87"/>
+      <c r="BB59" s="87"/>
+      <c r="BC59" s="87"/>
+      <c r="BD59" s="87"/>
+      <c r="BE59" s="87"/>
+      <c r="BF59" s="87"/>
+      <c r="BG59" s="87"/>
+      <c r="BH59" s="87"/>
+      <c r="BI59" s="87"/>
+      <c r="BJ59" s="87"/>
+      <c r="BK59" s="87"/>
+      <c r="BL59" s="87"/>
+      <c r="BM59" s="87"/>
+      <c r="BN59" s="87"/>
+      <c r="BO59" s="87"/>
+      <c r="BP59" s="87"/>
+      <c r="BQ59" s="87"/>
+      <c r="BR59" s="87"/>
+      <c r="BS59" s="87"/>
+      <c r="BT59" s="87"/>
+      <c r="BU59" s="87"/>
+      <c r="BV59" s="87"/>
+      <c r="BW59" s="87"/>
+      <c r="BX59" s="87"/>
+      <c r="BY59" s="87"/>
+      <c r="BZ59" s="87"/>
+      <c r="CA59" s="87"/>
+      <c r="CB59" s="87"/>
+      <c r="CC59" s="87"/>
+      <c r="CD59" s="87"/>
+      <c r="CE59" s="87"/>
+      <c r="CF59" s="87"/>
+      <c r="CG59" s="87"/>
+      <c r="CH59" s="87"/>
+      <c r="CI59" s="87"/>
+      <c r="CJ59" s="87"/>
+      <c r="CK59" s="87"/>
+      <c r="CL59" s="87"/>
+      <c r="CM59" s="87"/>
+      <c r="CN59" s="87"/>
+      <c r="CO59" s="87"/>
+      <c r="CP59" s="87"/>
+      <c r="CQ59" s="87"/>
+      <c r="CR59" s="87"/>
+      <c r="CS59" s="87"/>
+      <c r="CT59" s="87"/>
+      <c r="CU59" s="87"/>
+      <c r="CV59" s="87"/>
+      <c r="CW59" s="87"/>
+      <c r="CX59" s="87"/>
+      <c r="CY59" s="87"/>
+      <c r="CZ59" s="87"/>
+      <c r="DA59" s="87"/>
+      <c r="DB59" s="87"/>
+      <c r="DC59" s="87"/>
+      <c r="DD59" s="87"/>
+      <c r="DE59" s="87"/>
+      <c r="DF59" s="87"/>
+      <c r="DG59" s="87"/>
+      <c r="DH59" s="87"/>
+      <c r="DI59" s="87"/>
+      <c r="DJ59" s="87"/>
+      <c r="DK59" s="87"/>
+      <c r="DL59" s="87"/>
+      <c r="DM59" s="87"/>
+      <c r="DN59" s="87"/>
+      <c r="DO59" s="87"/>
+      <c r="DP59" s="87"/>
+      <c r="DQ59" s="87"/>
+      <c r="DR59" s="87"/>
+      <c r="DS59" s="87"/>
+      <c r="DT59" s="87"/>
+      <c r="DU59" s="87"/>
+      <c r="DV59" s="87"/>
+      <c r="DW59" s="87"/>
+      <c r="DX59" s="80"/>
+      <c r="DY59" s="87"/>
+      <c r="DZ59" s="87"/>
+      <c r="EA59" s="87"/>
+      <c r="EB59" s="87"/>
+      <c r="EC59" s="87"/>
+      <c r="ED59" s="87"/>
+      <c r="EE59" s="80"/>
+      <c r="EF59" s="87"/>
+      <c r="EG59" s="87"/>
+      <c r="EH59" s="87"/>
+      <c r="EI59" s="87"/>
+      <c r="EJ59" s="87"/>
+      <c r="EK59" s="87"/>
+      <c r="EL59" s="87"/>
+      <c r="EM59" s="87"/>
+      <c r="EN59" s="87"/>
+      <c r="EO59" s="87"/>
+      <c r="EP59" s="87"/>
+      <c r="EQ59" s="87"/>
+      <c r="ER59" s="87"/>
+      <c r="ES59" s="80"/>
+      <c r="ET59" s="87"/>
+      <c r="EU59" s="87"/>
+      <c r="EV59" s="87"/>
+      <c r="EW59" s="87"/>
+      <c r="EX59" s="87"/>
+      <c r="EY59" s="87"/>
+      <c r="EZ59" s="87"/>
+      <c r="FA59" s="87"/>
+      <c r="FB59" s="87"/>
+      <c r="FC59" s="87"/>
+      <c r="FD59" s="87"/>
+      <c r="FE59" s="87"/>
+      <c r="FF59" s="87"/>
+      <c r="FG59" s="87"/>
+      <c r="FH59" s="87"/>
+      <c r="FI59" s="87"/>
+      <c r="FJ59" s="87"/>
+      <c r="FK59" s="87"/>
+      <c r="FL59" s="87"/>
+      <c r="FM59" s="87"/>
+      <c r="FN59" s="87"/>
+      <c r="FO59" s="87"/>
+      <c r="FP59" s="87"/>
+      <c r="FQ59" s="87"/>
+      <c r="FR59" s="87"/>
+      <c r="FS59" s="87"/>
+      <c r="FT59" s="87"/>
+      <c r="FU59" s="87"/>
+      <c r="FV59" s="87"/>
+      <c r="FW59" s="87"/>
+      <c r="FX59" s="80"/>
+      <c r="FY59" s="80"/>
+      <c r="FZ59" s="87"/>
+      <c r="GA59" s="87"/>
+      <c r="GB59" s="87"/>
+      <c r="GC59" s="87"/>
+      <c r="GD59" s="87"/>
+      <c r="GE59" s="87"/>
+      <c r="GF59" s="87"/>
+      <c r="GG59" s="87"/>
+      <c r="GH59" s="87"/>
+      <c r="GI59" s="87"/>
+      <c r="GJ59" s="87"/>
+      <c r="GK59" s="87"/>
+      <c r="GL59" s="87"/>
+      <c r="GM59" s="87"/>
+      <c r="GN59" s="87"/>
+      <c r="GO59" s="87"/>
+      <c r="GP59" s="87"/>
+      <c r="GQ59" s="87"/>
+      <c r="GR59" s="87"/>
+      <c r="GS59" s="87"/>
+      <c r="GT59" s="87"/>
+      <c r="GU59" s="87"/>
+      <c r="GV59" s="87"/>
+      <c r="GW59" s="87"/>
+      <c r="GX59" s="87"/>
+      <c r="GY59" s="87"/>
+      <c r="GZ59" s="87"/>
+      <c r="HA59" s="87"/>
+      <c r="HB59" s="87"/>
+      <c r="HC59" s="87"/>
+      <c r="HD59" s="87"/>
+      <c r="HE59" s="87"/>
+      <c r="HF59" s="87"/>
+      <c r="HG59" s="87"/>
+      <c r="HH59" s="87"/>
+      <c r="HI59" s="87"/>
+      <c r="HJ59" s="87"/>
+      <c r="HK59" s="87"/>
+      <c r="HL59" s="87"/>
+      <c r="HM59" s="87"/>
+      <c r="HN59" s="87"/>
+      <c r="HO59" s="87"/>
+      <c r="HP59" s="87"/>
+      <c r="HQ59" s="87"/>
+      <c r="HR59" s="87"/>
+      <c r="HS59" s="87"/>
+      <c r="HT59" s="87"/>
+      <c r="HU59" s="87"/>
+    </row>
+    <row r="60" spans="1:229" s="86" customFormat="1">
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="91"/>
+      <c r="E60" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="F60" s="92"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="122"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="154"/>
+      <c r="L60" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="M60" s="87"/>
+      <c r="N60" s="87"/>
+      <c r="O60" s="87"/>
+      <c r="P60" s="87"/>
+      <c r="Q60" s="87"/>
+      <c r="R60" s="87"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="87"/>
+      <c r="V60" s="87"/>
+      <c r="W60" s="87"/>
+      <c r="X60" s="87"/>
+      <c r="Y60" s="87"/>
+      <c r="Z60" s="87"/>
+      <c r="AA60" s="87"/>
+      <c r="AB60" s="87"/>
+      <c r="AC60" s="87"/>
+      <c r="AD60" s="87"/>
+      <c r="AE60" s="87"/>
+      <c r="AF60" s="87"/>
+      <c r="AG60" s="87"/>
+      <c r="AH60" s="87"/>
+      <c r="AI60" s="87"/>
+      <c r="AJ60" s="87"/>
+      <c r="AK60" s="87"/>
+      <c r="AL60" s="87"/>
+      <c r="AM60" s="87"/>
+      <c r="AN60" s="87"/>
+      <c r="AO60" s="87"/>
+      <c r="AP60" s="87"/>
+      <c r="AQ60" s="87"/>
+      <c r="AR60" s="87"/>
+      <c r="AS60" s="87"/>
+      <c r="AT60" s="87"/>
+      <c r="AU60" s="87"/>
+      <c r="AV60" s="87"/>
+      <c r="AW60" s="87"/>
+      <c r="AX60" s="87"/>
+      <c r="AY60" s="87"/>
+      <c r="AZ60" s="87"/>
+      <c r="BA60" s="87"/>
+      <c r="BB60" s="87"/>
+      <c r="BC60" s="87"/>
+      <c r="BD60" s="87"/>
+      <c r="BE60" s="87"/>
+      <c r="BF60" s="87"/>
+      <c r="BG60" s="87"/>
+      <c r="BH60" s="87"/>
+      <c r="BI60" s="87"/>
+      <c r="BJ60" s="87"/>
+      <c r="BK60" s="87"/>
+      <c r="BL60" s="87"/>
+      <c r="BM60" s="87"/>
+      <c r="BN60" s="87"/>
+      <c r="BO60" s="87"/>
+      <c r="BP60" s="87"/>
+      <c r="BQ60" s="87"/>
+      <c r="BR60" s="87"/>
+      <c r="BS60" s="87"/>
+      <c r="BT60" s="87"/>
+      <c r="BU60" s="87"/>
+      <c r="BV60" s="87"/>
+      <c r="BW60" s="87"/>
+      <c r="BX60" s="87"/>
+      <c r="BY60" s="87"/>
+      <c r="BZ60" s="87"/>
+      <c r="CA60" s="87"/>
+      <c r="CB60" s="87"/>
+      <c r="CC60" s="87"/>
+      <c r="CD60" s="87"/>
+      <c r="CE60" s="87"/>
+      <c r="CF60" s="87"/>
+      <c r="CG60" s="87"/>
+      <c r="CH60" s="87"/>
+      <c r="CI60" s="87"/>
+      <c r="CJ60" s="87"/>
+      <c r="CK60" s="87"/>
+      <c r="CL60" s="87"/>
+      <c r="CM60" s="87"/>
+      <c r="CN60" s="87"/>
+      <c r="CO60" s="87"/>
+      <c r="CP60" s="87"/>
+      <c r="CQ60" s="87"/>
+      <c r="CR60" s="87"/>
+      <c r="CS60" s="87"/>
+      <c r="CT60" s="87"/>
+      <c r="CU60" s="87"/>
+      <c r="CV60" s="87"/>
+      <c r="CW60" s="87"/>
+      <c r="CX60" s="87"/>
+      <c r="CY60" s="87"/>
+      <c r="CZ60" s="87"/>
+      <c r="DA60" s="87"/>
+      <c r="DB60" s="87"/>
+      <c r="DC60" s="87"/>
+      <c r="DD60" s="87"/>
+      <c r="DE60" s="87"/>
+      <c r="DF60" s="87"/>
+      <c r="DG60" s="87"/>
+      <c r="DH60" s="87"/>
+      <c r="DI60" s="87"/>
+      <c r="DJ60" s="87"/>
+      <c r="DK60" s="87"/>
+      <c r="DL60" s="87"/>
+      <c r="DM60" s="87"/>
+      <c r="DN60" s="87"/>
+      <c r="DO60" s="87"/>
+      <c r="DP60" s="87"/>
+      <c r="DQ60" s="87"/>
+      <c r="DR60" s="87"/>
+      <c r="DS60" s="87"/>
+      <c r="DT60" s="87"/>
+      <c r="DU60" s="87"/>
+      <c r="DV60" s="87"/>
+      <c r="DW60" s="124"/>
+      <c r="DX60" s="125"/>
+      <c r="DY60" s="124"/>
+      <c r="DZ60" s="124"/>
+      <c r="EA60" s="124"/>
+      <c r="EB60" s="124"/>
+      <c r="EC60" s="124"/>
+      <c r="ED60" s="124"/>
+      <c r="EE60" s="125"/>
+      <c r="EF60" s="124"/>
+      <c r="EG60" s="124"/>
+      <c r="EH60" s="124"/>
+      <c r="EI60" s="124"/>
+      <c r="EJ60" s="124"/>
+      <c r="EK60" s="124"/>
+      <c r="EL60" s="124"/>
+      <c r="EM60" s="124"/>
+      <c r="EN60" s="124"/>
+      <c r="EO60" s="124"/>
+      <c r="EP60" s="124"/>
+      <c r="EQ60" s="124"/>
+      <c r="ER60" s="124"/>
+      <c r="ES60" s="125"/>
+      <c r="ET60" s="124"/>
+      <c r="EU60" s="124"/>
+      <c r="EV60" s="124"/>
+      <c r="EW60" s="124"/>
+      <c r="EX60" s="124"/>
+      <c r="EY60" s="124"/>
+      <c r="EZ60" s="124"/>
+      <c r="FA60" s="124"/>
+      <c r="FB60" s="124"/>
+      <c r="FC60" s="124"/>
+      <c r="FD60" s="124"/>
+      <c r="FE60" s="124"/>
+      <c r="FF60" s="124"/>
+      <c r="FG60" s="124"/>
+      <c r="FH60" s="124"/>
+      <c r="FI60" s="124"/>
+      <c r="FJ60" s="124"/>
+      <c r="FK60" s="124"/>
+      <c r="FL60" s="124"/>
+      <c r="FM60" s="124"/>
+      <c r="FN60" s="124"/>
+      <c r="FO60" s="124"/>
+      <c r="FP60" s="124"/>
+      <c r="FQ60" s="124"/>
+      <c r="FR60" s="124"/>
+      <c r="FS60" s="124"/>
+      <c r="FT60" s="124"/>
+      <c r="FU60" s="124"/>
+      <c r="FV60" s="124"/>
+      <c r="FW60" s="124"/>
+      <c r="FX60" s="125"/>
+      <c r="FY60" s="125"/>
+      <c r="FZ60" s="124"/>
+      <c r="GA60" s="124"/>
+      <c r="GB60" s="124"/>
+      <c r="GC60" s="124"/>
+      <c r="GD60" s="124"/>
+      <c r="GE60" s="124"/>
+      <c r="GF60" s="124"/>
+      <c r="GG60" s="124"/>
+      <c r="GH60" s="124"/>
+      <c r="GI60" s="124"/>
+      <c r="GJ60" s="124"/>
+      <c r="GK60" s="124"/>
+      <c r="GL60" s="124"/>
+      <c r="GM60" s="124"/>
+      <c r="GN60" s="124"/>
+      <c r="GO60" s="124"/>
+      <c r="GP60" s="124"/>
+      <c r="GQ60" s="124"/>
+      <c r="GR60" s="124"/>
+      <c r="GS60" s="124"/>
+      <c r="GT60" s="124"/>
+      <c r="GU60" s="124"/>
+      <c r="GV60" s="124"/>
+      <c r="GW60" s="124"/>
+      <c r="GX60" s="124"/>
+      <c r="GY60" s="124"/>
+      <c r="GZ60" s="124"/>
+      <c r="HA60" s="124"/>
+      <c r="HB60" s="124"/>
+      <c r="HC60" s="124"/>
+      <c r="HD60" s="124"/>
+      <c r="HE60" s="124"/>
+      <c r="HF60" s="124"/>
+      <c r="HG60" s="124"/>
+      <c r="HH60" s="124"/>
+      <c r="HI60" s="124"/>
+      <c r="HJ60" s="124"/>
+      <c r="HK60" s="124"/>
+      <c r="HL60" s="124"/>
+      <c r="HM60" s="124"/>
+      <c r="HN60" s="124"/>
+      <c r="HO60" s="124"/>
+      <c r="HP60" s="124"/>
+      <c r="HQ60" s="124"/>
+      <c r="HR60" s="124"/>
+      <c r="HS60" s="124"/>
+      <c r="HT60" s="124"/>
+      <c r="HU60" s="124"/>
+    </row>
+    <row r="61" spans="1:229" s="87" customFormat="1">
+      <c r="A61" s="134"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="136"/>
+      <c r="E61" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="126"/>
-      <c r="G55" s="128"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="148"/>
-      <c r="J55" s="128"/>
-      <c r="K55" s="156"/>
-      <c r="L55" s="137"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="128"/>
+      <c r="H61" s="129"/>
+      <c r="I61" s="148"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="137"/>
     </row>
-    <row r="60" spans="1:229">
-      <c r="E60" s="131"/>
-      <c r="F60" s="131"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="133"/>
+    <row r="66" spans="5:8">
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="133"/>
     </row>
-    <row r="61" spans="1:229">
-      <c r="E61" s="131"/>
-      <c r="F61" s="131"/>
-      <c r="G61" s="132"/>
-      <c r="H61" s="133"/>
+    <row r="67" spans="5:8">
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="133"/>
     </row>
-    <row r="62" spans="1:229">
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="133"/>
+    <row r="68" spans="5:8">
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="133"/>
     </row>
-    <row r="63" spans="1:229">
-      <c r="E63" s="131"/>
-      <c r="F63" s="131"/>
-      <c r="G63" s="132"/>
-      <c r="H63" s="133"/>
+    <row r="69" spans="5:8">
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="132"/>
+      <c r="H69" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="BN8:BS8"/>
-    <mergeCell ref="BT8:BZ8"/>
-    <mergeCell ref="CA8:CG8"/>
-    <mergeCell ref="CH8:CN8"/>
-    <mergeCell ref="CO8:CQ8"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="M1:BM6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="GL7:HP7"/>
+    <mergeCell ref="CR8:CU8"/>
+    <mergeCell ref="CV8:DB8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:V8"/>
+    <mergeCell ref="W8:AC8"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AQ8"/>
+    <mergeCell ref="AR8:AX8"/>
+    <mergeCell ref="AY8:BE8"/>
+    <mergeCell ref="BF8:BL8"/>
+    <mergeCell ref="HQ7:HU7"/>
+    <mergeCell ref="EE7:FI7"/>
+    <mergeCell ref="FJ7:GK7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="M7:AH7"/>
+    <mergeCell ref="BN7:CQ7"/>
+    <mergeCell ref="CR7:DV7"/>
+    <mergeCell ref="AI7:BM7"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="A7:L8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="DW8:EC8"/>
+    <mergeCell ref="EK8:EQ8"/>
+    <mergeCell ref="EE8:EJ8"/>
+    <mergeCell ref="DC8:DI8"/>
+    <mergeCell ref="DJ8:DP8"/>
+    <mergeCell ref="DQ8:DV8"/>
     <mergeCell ref="HQ8:HU8"/>
     <mergeCell ref="GH8:GK8"/>
     <mergeCell ref="GL8:GN8"/>
@@ -19726,136 +21729,145 @@
     <mergeCell ref="GV8:HB8"/>
     <mergeCell ref="HC8:HI8"/>
     <mergeCell ref="HJ8:HP8"/>
-    <mergeCell ref="DW8:EC8"/>
-    <mergeCell ref="EK8:EQ8"/>
-    <mergeCell ref="EE8:EJ8"/>
-    <mergeCell ref="DC8:DI8"/>
-    <mergeCell ref="DJ8:DP8"/>
-    <mergeCell ref="DQ8:DV8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="A7:L8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="HQ7:HU7"/>
-    <mergeCell ref="EE7:FI7"/>
-    <mergeCell ref="FJ7:GK7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="M7:AH7"/>
-    <mergeCell ref="BN7:CQ7"/>
-    <mergeCell ref="CR7:DV7"/>
-    <mergeCell ref="AI7:BM7"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="M1:BM6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="GL7:HP7"/>
-    <mergeCell ref="CR8:CU8"/>
-    <mergeCell ref="CV8:DB8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:V8"/>
-    <mergeCell ref="W8:AC8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AQ8"/>
-    <mergeCell ref="AR8:AX8"/>
-    <mergeCell ref="AY8:BE8"/>
-    <mergeCell ref="BF8:BL8"/>
+    <mergeCell ref="BN8:BS8"/>
+    <mergeCell ref="BT8:BZ8"/>
+    <mergeCell ref="CA8:CG8"/>
+    <mergeCell ref="CH8:CN8"/>
+    <mergeCell ref="CO8:CQ8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M9:HU9">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="39" priority="4">
       <formula>WEEKDAY(M$9)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="245">
+    <cfRule type="expression" dxfId="38" priority="247">
       <formula>WEEKDAY(M$9)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:HU10">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="37" priority="3">
       <formula>WEEKDAY(M$10)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="3">
+    <cfRule type="expression" dxfId="36" priority="5">
       <formula>WEEKDAY(M$10)=7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13:HU18 M41:HU44 M52:HU54 M55:DV55 M46:HU50 M35:HU39 M20:HU33">
-    <cfRule type="expression" dxfId="20" priority="519">
+  <conditionalFormatting sqref="M13:HU18 M47:HU50 M58:HU60 M61:DV61 M52:HU56 M20:HU34 M36:HU45">
+    <cfRule type="expression" dxfId="35" priority="521">
       <formula>WEEKDAY(M$10)=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="520">
+    <cfRule type="expression" dxfId="34" priority="522">
       <formula>WEEKDAY(M$10)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:K110">
-    <cfRule type="expression" dxfId="18" priority="10">
+  <conditionalFormatting sqref="K12:K116">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>K12 &lt; 0.3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="11">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>AND(0.3 &lt;= K12, K12 &lt; 0.7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="31" priority="14">
       <formula xml:space="preserve"> AND(0.7 &lt;= $K12, $K12 &lt; 1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="30" priority="15">
       <formula>$K12 &lt;= 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:DV110">
-    <cfRule type="expression" dxfId="14" priority="246">
+  <conditionalFormatting sqref="M12:DV40 M42:DV116">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "Back")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="2">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "Front")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="248">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "QA")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="496">
+    <cfRule type="expression" dxfId="26" priority="498">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "CM")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="497">
+    <cfRule type="expression" dxfId="25" priority="499">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "All")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="498">
+    <cfRule type="expression" dxfId="24" priority="500">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "미정")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="499">
+    <cfRule type="expression" dxfId="23" priority="501">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "권익현(CM)")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="513">
+    <cfRule type="expression" dxfId="22" priority="515">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "김미래(QA)")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="514">
+    <cfRule type="expression" dxfId="21" priority="516">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "김현지(QA)")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="515">
+    <cfRule type="expression" dxfId="20" priority="517">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "이정훈(PM)")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="516">
+    <cfRule type="expression" dxfId="19" priority="518">
       <formula xml:space="preserve"> AND(M$10 &gt;= $H12, M$10 &lt;= $I12, $F12 = "이준용(QA)")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="517">
+    <cfRule type="expression" dxfId="18" priority="519">
       <formula>WEEKDAY(M$10)=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="518">
+    <cfRule type="expression" dxfId="17" priority="520">
       <formula>WEEKDAY(M$10)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="완료">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="완료">
       <formula>NOT(ISERROR(SEARCH("완료",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="3순위">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="3순위">
       <formula>NOT(ISERROR(SEARCH("3순위",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="2순위">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="2순위">
       <formula>NOT(ISERROR(SEARCH("2순위",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="1순위">
+    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="1순위">
       <formula>NOT(ISERROR(SEARCH("1순위",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41:DV41">
+    <cfRule type="expression" dxfId="12" priority="1701">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "Back")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="1702">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "Front")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="1703">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "QA")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="1704">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "CM")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="1705">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "All")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="1706">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "미정")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="1707">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "권익현(CM)")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="1708">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "김미래(QA)")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1709">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "김현지(QA)")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="1710">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "이정훈(PM)")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1711">
+      <formula xml:space="preserve"> AND(M$10 &gt;= $I41, M$10 &lt;= #REF!, $F41 = "이준용(QA)")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="1712">
+      <formula>WEEKDAY(M$10)=1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1713">
+      <formula>WEEKDAY(M$10)=7</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -19866,7 +21878,7 @@
       <formula1>"1순위,2순위,3순위, 완료, "</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{5D32097A-1EC1-8845-9AAD-ED9734353AD5}">
-      <formula1>"미정, 권익현(CM), 김미래(CM), 김현지(QA), 이정훈(PM), 이준용(QA), CM, QA, All"</formula1>
+      <formula1>"미정, 권익현(CM), 김미래(CM), 김현지(QA), 이정훈(PM), 이준용(QA), CM, QA, Front, Back, All"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19875,7 +21887,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1591" id="{12E45A4F-9694-5041-93E4-AD1D07C2B0BC}">
+          <x14:cfRule type="iconSet" priority="1687" id="{12E45A4F-9694-5041-93E4-AD1D07C2B0BC}">
             <x14:iconSet iconSet="4TrafficLights" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -19895,7 +21907,7 @@
               <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K12:K110</xm:sqref>
+          <xm:sqref>K12:K116</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
